--- a/DSA_QUESTIONS.xlsx
+++ b/DSA_QUESTIONS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Data_Structures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309288D7-0DB6-4361-8812-8E7B1AA4A0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CC7BCA-2579-421F-AE10-BF47359ABB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="544">
   <si>
     <t xml:space="preserve">Problem: </t>
   </si>
@@ -2123,6 +2123,21 @@
   </si>
   <si>
     <t>Subarray Sum divisible by K (Leetcode 974)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O(Node) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Do it in a single Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Two Sorted List </t>
+  </si>
+  <si>
+    <t>Do it inplace  (Reursive and Iterative)</t>
+  </si>
+  <si>
+    <t>Delete Nth node from last in a linked list</t>
   </si>
 </sst>
 </file>
@@ -2759,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:E596"/>
+  <dimension ref="A1:E598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A539" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B566" sqref="B566"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
@@ -3901,24 +3916,26 @@
     </row>
     <row r="146" spans="1:4" ht="19.8">
       <c r="A146" s="2"/>
-      <c r="B146" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="C146" s="29"/>
+      <c r="B146" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>540</v>
+      </c>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" ht="19.8">
       <c r="A147" s="2"/>
-      <c r="B147" s="20" t="s">
-        <v>128</v>
+      <c r="B147" s="22" t="s">
+        <v>498</v>
       </c>
       <c r="C147" s="29"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" ht="19.8">
       <c r="A148" s="2"/>
-      <c r="B148" s="16" t="s">
-        <v>129</v>
+      <c r="B148" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="C148" s="29"/>
       <c r="D148" s="1"/>
@@ -3926,15 +3943,15 @@
     <row r="149" spans="1:4" ht="19.8">
       <c r="A149" s="2"/>
       <c r="B149" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C149" s="29"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" ht="19.8">
       <c r="A150" s="2"/>
-      <c r="B150" s="19" t="s">
-        <v>131</v>
+      <c r="B150" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="C150" s="29"/>
       <c r="D150" s="1"/>
@@ -3942,15 +3959,15 @@
     <row r="151" spans="1:4" ht="19.8">
       <c r="A151" s="2"/>
       <c r="B151" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C151" s="29"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" ht="19.8">
       <c r="A152" s="2"/>
-      <c r="B152" s="20" t="s">
-        <v>133</v>
+      <c r="B152" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="C152" s="29"/>
       <c r="D152" s="1"/>
@@ -3958,7 +3975,7 @@
     <row r="153" spans="1:4" ht="19.8">
       <c r="A153" s="2"/>
       <c r="B153" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C153" s="29"/>
       <c r="D153" s="1"/>
@@ -3966,25 +3983,25 @@
     <row r="154" spans="1:4" ht="19.8">
       <c r="A154" s="2"/>
       <c r="B154" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>528</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C154" s="29"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" ht="19.8">
       <c r="A155" s="2"/>
       <c r="B155" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C155" s="29"/>
+        <v>135</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>528</v>
+      </c>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" ht="19.8">
       <c r="A156" s="2"/>
-      <c r="B156" s="16" t="s">
-        <v>137</v>
+      <c r="B156" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="C156" s="29"/>
       <c r="D156" s="1"/>
@@ -3992,23 +4009,25 @@
     <row r="157" spans="1:4" ht="19.8">
       <c r="A157" s="2"/>
       <c r="B157" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C157" s="29"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" ht="19.8">
       <c r="A158" s="2"/>
-      <c r="B158" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C158" s="29"/>
+      <c r="B158" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>542</v>
+      </c>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" ht="19.8">
       <c r="A159" s="2"/>
       <c r="B159" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C159" s="29"/>
       <c r="D159" s="1"/>
@@ -4016,7 +4035,7 @@
     <row r="160" spans="1:4" ht="19.8">
       <c r="A160" s="2"/>
       <c r="B160" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C160" s="29"/>
       <c r="D160" s="1"/>
@@ -4024,7 +4043,7 @@
     <row r="161" spans="1:4" ht="19.8">
       <c r="A161" s="2"/>
       <c r="B161" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C161" s="29"/>
       <c r="D161" s="1"/>
@@ -4032,7 +4051,7 @@
     <row r="162" spans="1:4" ht="19.8">
       <c r="A162" s="2"/>
       <c r="B162" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C162" s="29"/>
       <c r="D162" s="1"/>
@@ -4040,31 +4059,33 @@
     <row r="163" spans="1:4" ht="19.8">
       <c r="A163" s="2"/>
       <c r="B163" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C163" s="29"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" ht="19.8">
       <c r="A164" s="2"/>
-      <c r="B164" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C164" s="29"/>
+      <c r="B164" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>539</v>
+      </c>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" ht="19.8">
       <c r="A165" s="2"/>
       <c r="B165" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C165" s="29"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" ht="19.8">
       <c r="A166" s="2"/>
-      <c r="B166" s="16" t="s">
-        <v>147</v>
+      <c r="B166" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="C166" s="29"/>
       <c r="D166" s="1"/>
@@ -4072,7 +4093,7 @@
     <row r="167" spans="1:4" ht="19.8">
       <c r="A167" s="2"/>
       <c r="B167" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C167" s="29"/>
       <c r="D167" s="1"/>
@@ -4080,7 +4101,7 @@
     <row r="168" spans="1:4" ht="19.8">
       <c r="A168" s="2"/>
       <c r="B168" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C168" s="29"/>
       <c r="D168" s="1"/>
@@ -4088,45 +4109,45 @@
     <row r="169" spans="1:4" ht="19.8">
       <c r="A169" s="2"/>
       <c r="B169" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C169" s="29"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" ht="19.8">
       <c r="A170" s="2"/>
-      <c r="B170" s="18" t="s">
-        <v>151</v>
-      </c>
+      <c r="B170" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C170" s="29"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" ht="19.8">
       <c r="A171" s="2"/>
-      <c r="B171" s="18" t="s">
-        <v>152</v>
-      </c>
+      <c r="B171" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C171" s="29"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" ht="19.8">
       <c r="A172" s="2"/>
-      <c r="B172" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C172" s="29"/>
+      <c r="B172" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" ht="19.8">
       <c r="A173" s="2"/>
-      <c r="B173" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C173" s="29"/>
+      <c r="B173" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" ht="19.8">
       <c r="A174" s="2"/>
       <c r="B174" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C174" s="29"/>
       <c r="D174" s="1"/>
@@ -4134,7 +4155,7 @@
     <row r="175" spans="1:4" ht="19.8">
       <c r="A175" s="2"/>
       <c r="B175" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C175" s="29"/>
       <c r="D175" s="1"/>
@@ -4142,7 +4163,7 @@
     <row r="176" spans="1:4" ht="19.8">
       <c r="A176" s="2"/>
       <c r="B176" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C176" s="29"/>
       <c r="D176" s="1"/>
@@ -4150,7 +4171,7 @@
     <row r="177" spans="1:4" ht="19.8">
       <c r="A177" s="2"/>
       <c r="B177" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C177" s="29"/>
       <c r="D177" s="1"/>
@@ -4158,7 +4179,7 @@
     <row r="178" spans="1:4" ht="19.8">
       <c r="A178" s="2"/>
       <c r="B178" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C178" s="29"/>
       <c r="D178" s="1"/>
@@ -4166,7 +4187,7 @@
     <row r="179" spans="1:4" ht="19.8">
       <c r="A179" s="2"/>
       <c r="B179" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C179" s="29"/>
       <c r="D179" s="1"/>
@@ -4174,105 +4195,105 @@
     <row r="180" spans="1:4" ht="19.8">
       <c r="A180" s="2"/>
       <c r="B180" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C180" s="29"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" ht="19.8">
       <c r="A181" s="2"/>
+      <c r="B181" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C181" s="29"/>
+      <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" ht="19.8">
       <c r="A182" s="2"/>
-      <c r="B182" s="18" t="s">
-        <v>499</v>
-      </c>
+      <c r="B182" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C182" s="29"/>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" ht="19.8">
       <c r="A183" s="2"/>
-      <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" ht="19.8">
       <c r="A184" s="2"/>
-      <c r="B184" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C184" s="29" t="s">
-        <v>513</v>
+      <c r="B184" s="18" t="s">
+        <v>499</v>
       </c>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" ht="20.399999999999999">
+    <row r="185" spans="1:4" ht="19.8">
       <c r="A185" s="2"/>
-      <c r="B185" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C185" s="29"/>
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" ht="19.8">
       <c r="A186" s="2"/>
-      <c r="B186" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C186" s="29"/>
+      <c r="B186" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C186" s="29" t="s">
+        <v>513</v>
+      </c>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" ht="19.8">
+    <row r="187" spans="1:4" ht="20.399999999999999">
       <c r="A187" s="2"/>
-      <c r="B187" s="22" t="s">
-        <v>500</v>
+      <c r="B187" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="C187" s="29"/>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" ht="19.8">
       <c r="A188" s="2"/>
-      <c r="B188" s="23"/>
+      <c r="B188" s="23" t="s">
+        <v>163</v>
+      </c>
       <c r="C188" s="29"/>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" ht="19.8">
       <c r="A189" s="2"/>
-      <c r="B189" s="23"/>
+      <c r="B189" s="22" t="s">
+        <v>500</v>
+      </c>
       <c r="C189" s="29"/>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" ht="19.8">
       <c r="A190" s="2"/>
-      <c r="B190" s="16" t="s">
-        <v>164</v>
-      </c>
+      <c r="B190" s="23"/>
       <c r="C190" s="29"/>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" ht="19.8">
       <c r="A191" s="2"/>
-      <c r="B191" s="16"/>
+      <c r="B191" s="23"/>
       <c r="C191" s="29"/>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" ht="19.8">
       <c r="A192" s="2"/>
       <c r="B192" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C192" s="29"/>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:5" ht="19.8">
       <c r="A193" s="2"/>
-      <c r="B193" s="16" t="s">
-        <v>166</v>
-      </c>
+      <c r="B193" s="16"/>
       <c r="C193" s="29"/>
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:5" ht="19.8">
       <c r="A194" s="2"/>
       <c r="B194" s="16" t="s">
-        <v>439</v>
+        <v>165</v>
       </c>
       <c r="C194" s="29"/>
       <c r="D194" s="1"/>
@@ -4280,43 +4301,43 @@
     <row r="195" spans="1:5" ht="19.8">
       <c r="A195" s="2"/>
       <c r="B195" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C195" s="33" t="s">
-        <v>440</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C195" s="29"/>
       <c r="D195" s="1"/>
     </row>
     <row r="196" spans="1:5" ht="19.8">
       <c r="A196" s="2"/>
       <c r="B196" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C196" s="33" t="s">
-        <v>440</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C196" s="29"/>
       <c r="D196" s="1"/>
     </row>
     <row r="197" spans="1:5" ht="19.8">
       <c r="A197" s="2"/>
       <c r="B197" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C197" s="29"/>
+        <v>167</v>
+      </c>
+      <c r="C197" s="33" t="s">
+        <v>440</v>
+      </c>
       <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:5" ht="19.8">
       <c r="A198" s="2"/>
       <c r="B198" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C198" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="C198" s="33" t="s">
+        <v>440</v>
+      </c>
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:5" ht="19.8">
       <c r="A199" s="2"/>
       <c r="B199" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C199" s="29"/>
       <c r="D199" s="1"/>
@@ -4324,42 +4345,42 @@
     <row r="200" spans="1:5" ht="19.8">
       <c r="A200" s="2"/>
       <c r="B200" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C200" s="29"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:5" ht="21">
+    <row r="201" spans="1:5" ht="19.8">
       <c r="A201" s="2"/>
       <c r="B201" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C201" s="29"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="3" t="s">
-        <v>442</v>
-      </c>
     </row>
     <row r="202" spans="1:5" ht="19.8">
       <c r="A202" s="2"/>
       <c r="B202" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C202" s="29"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:5" ht="19.8">
+    <row r="203" spans="1:5" ht="21">
       <c r="A203" s="2"/>
       <c r="B203" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C203" s="29"/>
       <c r="D203" s="1"/>
+      <c r="E203" s="3" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="204" spans="1:5" ht="19.8">
       <c r="A204" s="2"/>
       <c r="B204" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C204" s="29"/>
       <c r="D204" s="1"/>
@@ -4367,7 +4388,7 @@
     <row r="205" spans="1:5" ht="19.8">
       <c r="A205" s="2"/>
       <c r="B205" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C205" s="29"/>
       <c r="D205" s="1"/>
@@ -4375,7 +4396,7 @@
     <row r="206" spans="1:5" ht="19.8">
       <c r="A206" s="2"/>
       <c r="B206" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C206" s="29"/>
       <c r="D206" s="1"/>
@@ -4383,7 +4404,7 @@
     <row r="207" spans="1:5" ht="19.8">
       <c r="A207" s="2"/>
       <c r="B207" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C207" s="29"/>
       <c r="D207" s="1"/>
@@ -4391,7 +4412,7 @@
     <row r="208" spans="1:5" ht="19.8">
       <c r="A208" s="2"/>
       <c r="B208" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C208" s="29"/>
       <c r="D208" s="1"/>
@@ -4399,7 +4420,7 @@
     <row r="209" spans="1:4" ht="19.8">
       <c r="A209" s="2"/>
       <c r="B209" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C209" s="29"/>
       <c r="D209" s="1"/>
@@ -4407,7 +4428,7 @@
     <row r="210" spans="1:4" ht="19.8">
       <c r="A210" s="2"/>
       <c r="B210" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C210" s="29"/>
       <c r="D210" s="1"/>
@@ -4415,7 +4436,7 @@
     <row r="211" spans="1:4" ht="19.8">
       <c r="A211" s="2"/>
       <c r="B211" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C211" s="29"/>
       <c r="D211" s="1"/>
@@ -4423,7 +4444,7 @@
     <row r="212" spans="1:4" ht="19.8">
       <c r="A212" s="2"/>
       <c r="B212" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C212" s="29"/>
       <c r="D212" s="1"/>
@@ -4431,7 +4452,7 @@
     <row r="213" spans="1:4" ht="19.8">
       <c r="A213" s="2"/>
       <c r="B213" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C213" s="29"/>
       <c r="D213" s="1"/>
@@ -4439,7 +4460,7 @@
     <row r="214" spans="1:4" ht="19.8">
       <c r="A214" s="2"/>
       <c r="B214" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C214" s="29"/>
       <c r="D214" s="1"/>
@@ -4447,7 +4468,7 @@
     <row r="215" spans="1:4" ht="19.8">
       <c r="A215" s="2"/>
       <c r="B215" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C215" s="29"/>
       <c r="D215" s="1"/>
@@ -4455,7 +4476,7 @@
     <row r="216" spans="1:4" ht="19.8">
       <c r="A216" s="2"/>
       <c r="B216" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C216" s="29"/>
       <c r="D216" s="1"/>
@@ -4463,7 +4484,7 @@
     <row r="217" spans="1:4" ht="19.8">
       <c r="A217" s="2"/>
       <c r="B217" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C217" s="29"/>
       <c r="D217" s="1"/>
@@ -4471,7 +4492,7 @@
     <row r="218" spans="1:4" ht="19.8">
       <c r="A218" s="2"/>
       <c r="B218" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C218" s="29"/>
       <c r="D218" s="1"/>
@@ -4479,7 +4500,7 @@
     <row r="219" spans="1:4" ht="19.8">
       <c r="A219" s="2"/>
       <c r="B219" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C219" s="29"/>
       <c r="D219" s="1"/>
@@ -4487,7 +4508,7 @@
     <row r="220" spans="1:4" ht="19.8">
       <c r="A220" s="2"/>
       <c r="B220" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C220" s="29"/>
       <c r="D220" s="1"/>
@@ -4495,7 +4516,7 @@
     <row r="221" spans="1:4" ht="19.8">
       <c r="A221" s="2"/>
       <c r="B221" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C221" s="29"/>
       <c r="D221" s="1"/>
@@ -4503,7 +4524,7 @@
     <row r="222" spans="1:4" ht="19.8">
       <c r="A222" s="2"/>
       <c r="B222" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C222" s="29"/>
       <c r="D222" s="1"/>
@@ -4511,50 +4532,50 @@
     <row r="223" spans="1:4" ht="19.8">
       <c r="A223" s="2"/>
       <c r="B223" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C223" s="29"/>
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:4" ht="19.8">
       <c r="A224" s="2"/>
+      <c r="B224" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="C224" s="29"/>
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" ht="19.8">
       <c r="A225" s="2"/>
-      <c r="B225" s="18" t="s">
-        <v>501</v>
-      </c>
+      <c r="B225" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C225" s="29"/>
       <c r="D225" s="1"/>
     </row>
     <row r="226" spans="1:4" ht="19.8">
       <c r="A226" s="2"/>
-      <c r="B226" s="16" t="s">
-        <v>196</v>
-      </c>
+      <c r="C226" s="29"/>
       <c r="D226" s="1"/>
     </row>
     <row r="227" spans="1:4" ht="19.8">
       <c r="A227" s="2"/>
-      <c r="B227" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C227" s="29"/>
+      <c r="B227" s="18" t="s">
+        <v>501</v>
+      </c>
       <c r="D227" s="1"/>
     </row>
     <row r="228" spans="1:4" ht="19.8">
       <c r="A228" s="2"/>
       <c r="B228" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C228" s="29"/>
+        <v>196</v>
+      </c>
       <c r="D228" s="1"/>
     </row>
     <row r="229" spans="1:4" ht="19.8">
       <c r="A229" s="2"/>
       <c r="B229" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C229" s="29"/>
       <c r="D229" s="1"/>
@@ -4562,7 +4583,7 @@
     <row r="230" spans="1:4" ht="19.8">
       <c r="A230" s="2"/>
       <c r="B230" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C230" s="29"/>
       <c r="D230" s="1"/>
@@ -4570,15 +4591,15 @@
     <row r="231" spans="1:4" ht="19.8">
       <c r="A231" s="2"/>
       <c r="B231" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C231" s="29"/>
       <c r="D231" s="1"/>
     </row>
     <row r="232" spans="1:4" ht="19.8">
       <c r="A232" s="2"/>
-      <c r="B232" s="24" t="s">
-        <v>202</v>
+      <c r="B232" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="C232" s="29"/>
       <c r="D232" s="1"/>
@@ -4586,15 +4607,15 @@
     <row r="233" spans="1:4" ht="19.8">
       <c r="A233" s="2"/>
       <c r="B233" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C233" s="37"/>
+        <v>201</v>
+      </c>
+      <c r="C233" s="29"/>
       <c r="D233" s="1"/>
     </row>
     <row r="234" spans="1:4" ht="19.8">
       <c r="A234" s="2"/>
-      <c r="B234" s="16" t="s">
-        <v>204</v>
+      <c r="B234" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="C234" s="29"/>
       <c r="D234" s="1"/>
@@ -4602,15 +4623,15 @@
     <row r="235" spans="1:4" ht="19.8">
       <c r="A235" s="2"/>
       <c r="B235" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C235" s="29"/>
+        <v>203</v>
+      </c>
+      <c r="C235" s="37"/>
       <c r="D235" s="1"/>
     </row>
     <row r="236" spans="1:4" ht="19.8">
       <c r="A236" s="2"/>
       <c r="B236" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C236" s="29"/>
       <c r="D236" s="1"/>
@@ -4618,7 +4639,7 @@
     <row r="237" spans="1:4" ht="19.8">
       <c r="A237" s="2"/>
       <c r="B237" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C237" s="29"/>
       <c r="D237" s="1"/>
@@ -4626,7 +4647,7 @@
     <row r="238" spans="1:4" ht="19.8">
       <c r="A238" s="2"/>
       <c r="B238" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C238" s="29"/>
       <c r="D238" s="1"/>
@@ -4634,7 +4655,7 @@
     <row r="239" spans="1:4" ht="19.8">
       <c r="A239" s="2"/>
       <c r="B239" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C239" s="29"/>
       <c r="D239" s="1"/>
@@ -4642,7 +4663,7 @@
     <row r="240" spans="1:4" ht="19.8">
       <c r="A240" s="2"/>
       <c r="B240" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C240" s="29"/>
       <c r="D240" s="1"/>
@@ -4650,7 +4671,7 @@
     <row r="241" spans="1:4" ht="19.8">
       <c r="A241" s="2"/>
       <c r="B241" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C241" s="29"/>
       <c r="D241" s="1"/>
@@ -4658,7 +4679,7 @@
     <row r="242" spans="1:4" ht="19.8">
       <c r="A242" s="2"/>
       <c r="B242" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C242" s="29"/>
       <c r="D242" s="1"/>
@@ -4666,7 +4687,7 @@
     <row r="243" spans="1:4" ht="19.8">
       <c r="A243" s="2"/>
       <c r="B243" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C243" s="29"/>
       <c r="D243" s="1"/>
@@ -4674,7 +4695,7 @@
     <row r="244" spans="1:4" ht="19.8">
       <c r="A244" s="2"/>
       <c r="B244" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C244" s="29"/>
       <c r="D244" s="1"/>
@@ -4682,7 +4703,7 @@
     <row r="245" spans="1:4" ht="19.8">
       <c r="A245" s="2"/>
       <c r="B245" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C245" s="29"/>
       <c r="D245" s="1"/>
@@ -4690,7 +4711,7 @@
     <row r="246" spans="1:4" ht="19.8">
       <c r="A246" s="2"/>
       <c r="B246" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C246" s="29"/>
       <c r="D246" s="1"/>
@@ -4698,50 +4719,50 @@
     <row r="247" spans="1:4" ht="19.8">
       <c r="A247" s="2"/>
       <c r="B247" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C247" s="29"/>
       <c r="D247" s="1"/>
     </row>
     <row r="248" spans="1:4" ht="19.8">
       <c r="A248" s="2"/>
+      <c r="B248" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="C248" s="29"/>
       <c r="D248" s="1"/>
     </row>
     <row r="249" spans="1:4" ht="19.8">
       <c r="A249" s="2"/>
-      <c r="B249" s="18" t="s">
-        <v>502</v>
-      </c>
+      <c r="B249" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C249" s="29"/>
       <c r="D249" s="1"/>
     </row>
     <row r="250" spans="1:4" ht="19.8">
       <c r="A250" s="2"/>
-      <c r="B250" s="16" t="s">
-        <v>218</v>
-      </c>
+      <c r="C250" s="29"/>
       <c r="D250" s="1"/>
     </row>
     <row r="251" spans="1:4" ht="19.8">
       <c r="A251" s="2"/>
-      <c r="B251" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C251" s="29"/>
+      <c r="B251" s="18" t="s">
+        <v>502</v>
+      </c>
       <c r="D251" s="1"/>
     </row>
     <row r="252" spans="1:4" ht="19.8">
       <c r="A252" s="2"/>
       <c r="B252" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C252" s="29"/>
+        <v>218</v>
+      </c>
       <c r="D252" s="1"/>
     </row>
     <row r="253" spans="1:4" ht="19.8">
       <c r="A253" s="2"/>
       <c r="B253" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C253" s="29"/>
       <c r="D253" s="1"/>
@@ -4749,7 +4770,7 @@
     <row r="254" spans="1:4" ht="19.8">
       <c r="A254" s="2"/>
       <c r="B254" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C254" s="29"/>
       <c r="D254" s="1"/>
@@ -4757,7 +4778,7 @@
     <row r="255" spans="1:4" ht="19.8">
       <c r="A255" s="2"/>
       <c r="B255" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C255" s="29"/>
       <c r="D255" s="1"/>
@@ -4765,7 +4786,7 @@
     <row r="256" spans="1:4" ht="19.8">
       <c r="A256" s="2"/>
       <c r="B256" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C256" s="29"/>
       <c r="D256" s="1"/>
@@ -4773,7 +4794,7 @@
     <row r="257" spans="1:4" ht="19.8">
       <c r="A257" s="2"/>
       <c r="B257" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C257" s="29"/>
       <c r="D257" s="1"/>
@@ -4781,7 +4802,7 @@
     <row r="258" spans="1:4" ht="19.8">
       <c r="A258" s="2"/>
       <c r="B258" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C258" s="29"/>
       <c r="D258" s="1"/>
@@ -4789,7 +4810,7 @@
     <row r="259" spans="1:4" ht="19.8">
       <c r="A259" s="2"/>
       <c r="B259" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C259" s="29"/>
       <c r="D259" s="1"/>
@@ -4797,7 +4818,7 @@
     <row r="260" spans="1:4" ht="19.8">
       <c r="A260" s="2"/>
       <c r="B260" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C260" s="29"/>
       <c r="D260" s="1"/>
@@ -4805,7 +4826,7 @@
     <row r="261" spans="1:4" ht="19.8">
       <c r="A261" s="2"/>
       <c r="B261" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C261" s="29"/>
       <c r="D261" s="1"/>
@@ -4813,7 +4834,7 @@
     <row r="262" spans="1:4" ht="19.8">
       <c r="A262" s="2"/>
       <c r="B262" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C262" s="29"/>
       <c r="D262" s="1"/>
@@ -4821,7 +4842,7 @@
     <row r="263" spans="1:4" ht="19.8">
       <c r="A263" s="2"/>
       <c r="B263" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C263" s="29"/>
       <c r="D263" s="1"/>
@@ -4829,7 +4850,7 @@
     <row r="264" spans="1:4" ht="19.8">
       <c r="A264" s="2"/>
       <c r="B264" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C264" s="29"/>
       <c r="D264" s="1"/>
@@ -4837,7 +4858,7 @@
     <row r="265" spans="1:4" ht="19.8">
       <c r="A265" s="2"/>
       <c r="B265" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C265" s="29"/>
       <c r="D265" s="1"/>
@@ -4845,7 +4866,7 @@
     <row r="266" spans="1:4" ht="19.8">
       <c r="A266" s="2"/>
       <c r="B266" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C266" s="29"/>
       <c r="D266" s="1"/>
@@ -4853,7 +4874,7 @@
     <row r="267" spans="1:4" ht="19.8">
       <c r="A267" s="2"/>
       <c r="B267" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C267" s="29"/>
       <c r="D267" s="1"/>
@@ -4861,7 +4882,7 @@
     <row r="268" spans="1:4" ht="19.8">
       <c r="A268" s="2"/>
       <c r="B268" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C268" s="29"/>
       <c r="D268" s="1"/>
@@ -4869,7 +4890,7 @@
     <row r="269" spans="1:4" ht="19.8">
       <c r="A269" s="2"/>
       <c r="B269" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C269" s="29"/>
       <c r="D269" s="1"/>
@@ -4877,7 +4898,7 @@
     <row r="270" spans="1:4" ht="19.8">
       <c r="A270" s="2"/>
       <c r="B270" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C270" s="29"/>
       <c r="D270" s="1"/>
@@ -4885,7 +4906,7 @@
     <row r="271" spans="1:4" ht="19.8">
       <c r="A271" s="2"/>
       <c r="B271" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C271" s="29"/>
       <c r="D271" s="1"/>
@@ -4893,7 +4914,7 @@
     <row r="272" spans="1:4" ht="19.8">
       <c r="A272" s="2"/>
       <c r="B272" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C272" s="29"/>
       <c r="D272" s="1"/>
@@ -4901,7 +4922,7 @@
     <row r="273" spans="1:4" ht="19.8">
       <c r="A273" s="2"/>
       <c r="B273" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C273" s="29"/>
       <c r="D273" s="1"/>
@@ -4909,7 +4930,7 @@
     <row r="274" spans="1:4" ht="19.8">
       <c r="A274" s="2"/>
       <c r="B274" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C274" s="29"/>
       <c r="D274" s="1"/>
@@ -4917,7 +4938,7 @@
     <row r="275" spans="1:4" ht="19.8">
       <c r="A275" s="2"/>
       <c r="B275" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C275" s="29"/>
       <c r="D275" s="1"/>
@@ -4925,7 +4946,7 @@
     <row r="276" spans="1:4" ht="19.8">
       <c r="A276" s="2"/>
       <c r="B276" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C276" s="29"/>
       <c r="D276" s="1"/>
@@ -4933,7 +4954,7 @@
     <row r="277" spans="1:4" ht="19.8">
       <c r="A277" s="2"/>
       <c r="B277" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C277" s="29"/>
       <c r="D277" s="1"/>
@@ -4941,7 +4962,7 @@
     <row r="278" spans="1:4" ht="19.8">
       <c r="A278" s="2"/>
       <c r="B278" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C278" s="29"/>
       <c r="D278" s="1"/>
@@ -4949,7 +4970,7 @@
     <row r="279" spans="1:4" ht="19.8">
       <c r="A279" s="2"/>
       <c r="B279" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C279" s="29"/>
       <c r="D279" s="1"/>
@@ -4957,7 +4978,7 @@
     <row r="280" spans="1:4" ht="19.8">
       <c r="A280" s="2"/>
       <c r="B280" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C280" s="29"/>
       <c r="D280" s="1"/>
@@ -4965,7 +4986,7 @@
     <row r="281" spans="1:4" ht="19.8">
       <c r="A281" s="2"/>
       <c r="B281" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C281" s="29"/>
       <c r="D281" s="1"/>
@@ -4973,7 +4994,7 @@
     <row r="282" spans="1:4" ht="19.8">
       <c r="A282" s="2"/>
       <c r="B282" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C282" s="29"/>
       <c r="D282" s="1"/>
@@ -4981,7 +5002,7 @@
     <row r="283" spans="1:4" ht="19.8">
       <c r="A283" s="2"/>
       <c r="B283" s="16" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="C283" s="29"/>
       <c r="D283" s="1"/>
@@ -4989,65 +5010,66 @@
     <row r="284" spans="1:4" ht="19.8">
       <c r="A284" s="2"/>
       <c r="B284" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C284" s="29"/>
       <c r="D284" s="1"/>
     </row>
     <row r="285" spans="1:4" ht="19.8">
       <c r="A285" s="2"/>
+      <c r="B285" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="C285" s="29"/>
       <c r="D285" s="1"/>
     </row>
     <row r="286" spans="1:4" ht="19.8">
       <c r="A286" s="2"/>
-      <c r="B286" s="18" t="s">
+      <c r="B286" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C286" s="29"/>
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" spans="1:4" ht="19.8">
+      <c r="A287" s="2"/>
+      <c r="C287" s="29"/>
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="1:4" ht="19.8">
+      <c r="A288" s="2"/>
+      <c r="B288" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="D286" s="1"/>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="B287" s="25" t="s">
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="B289" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="C289" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="D287" s="1"/>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="B288" s="25" t="s">
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="B290" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="D288" s="1"/>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="B289" s="18" t="s">
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="B291" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="D289" s="1"/>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="D290" s="1"/>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="B291" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="C291" s="18" t="s">
-        <v>453</v>
-      </c>
       <c r="D291" s="1"/>
     </row>
     <row r="292" spans="1:4">
-      <c r="B292" s="25" t="s">
-        <v>448</v>
-      </c>
       <c r="D292" s="1"/>
     </row>
     <row r="293" spans="1:4">
       <c r="B293" s="19" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C293" s="18" t="s">
         <v>453</v>
@@ -5055,70 +5077,69 @@
       <c r="D293" s="1"/>
     </row>
     <row r="294" spans="1:4">
-      <c r="B294" s="26" t="s">
+      <c r="B294" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="B295" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="B296" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D294" s="1"/>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="B295" s="27" t="s">
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="B297" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="D295" s="1"/>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="B296" s="19" t="s">
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="B298" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="D296" s="1"/>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="B297" s="28" t="s">
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="B299" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="D297" s="1"/>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="B298" s="28" t="s">
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="B300" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="D298" s="1"/>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="B299" s="27" t="s">
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="B301" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="C299" s="18" t="s">
+      <c r="C301" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="D299" s="1"/>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="B300" s="25" t="s">
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="B302" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="D300" s="1"/>
-    </row>
-    <row r="301" spans="1:4" ht="19.8">
-      <c r="A301" s="2"/>
-      <c r="B301" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C301" s="29"/>
-      <c r="D301" s="1"/>
-    </row>
-    <row r="302" spans="1:4" ht="19.8">
-      <c r="A302" s="2"/>
-      <c r="B302" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C302" s="29"/>
       <c r="D302" s="1"/>
     </row>
     <row r="303" spans="1:4" ht="19.8">
       <c r="A303" s="2"/>
       <c r="B303" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C303" s="29"/>
       <c r="D303" s="1"/>
@@ -5126,7 +5147,7 @@
     <row r="304" spans="1:4" ht="19.8">
       <c r="A304" s="2"/>
       <c r="B304" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C304" s="29"/>
       <c r="D304" s="1"/>
@@ -5134,7 +5155,7 @@
     <row r="305" spans="1:4" ht="19.8">
       <c r="A305" s="2"/>
       <c r="B305" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C305" s="29"/>
       <c r="D305" s="1"/>
@@ -5142,7 +5163,7 @@
     <row r="306" spans="1:4" ht="19.8">
       <c r="A306" s="2"/>
       <c r="B306" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C306" s="29"/>
       <c r="D306" s="1"/>
@@ -5150,37 +5171,37 @@
     <row r="307" spans="1:4" ht="19.8">
       <c r="A307" s="2"/>
       <c r="B307" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C307" s="29"/>
       <c r="D307" s="1"/>
     </row>
     <row r="308" spans="1:4" ht="19.8">
       <c r="A308" s="2"/>
-      <c r="B308" s="16"/>
+      <c r="B308" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="C308" s="29"/>
       <c r="D308" s="1"/>
     </row>
     <row r="309" spans="1:4" ht="19.8">
       <c r="A309" s="2"/>
-      <c r="B309" s="20" t="s">
-        <v>451</v>
+      <c r="B309" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="C309" s="29"/>
       <c r="D309" s="1"/>
     </row>
     <row r="310" spans="1:4" ht="19.8">
       <c r="A310" s="2"/>
-      <c r="B310" s="16" t="s">
-        <v>259</v>
-      </c>
+      <c r="B310" s="16"/>
       <c r="C310" s="29"/>
       <c r="D310" s="1"/>
     </row>
     <row r="311" spans="1:4" ht="19.8">
       <c r="A311" s="2"/>
-      <c r="B311" s="16" t="s">
-        <v>260</v>
+      <c r="B311" s="20" t="s">
+        <v>451</v>
       </c>
       <c r="C311" s="29"/>
       <c r="D311" s="1"/>
@@ -5188,15 +5209,15 @@
     <row r="312" spans="1:4" ht="19.8">
       <c r="A312" s="2"/>
       <c r="B312" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C312" s="29"/>
       <c r="D312" s="1"/>
     </row>
     <row r="313" spans="1:4" ht="19.8">
       <c r="A313" s="2"/>
-      <c r="B313" s="20" t="s">
-        <v>443</v>
+      <c r="B313" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C313" s="29"/>
       <c r="D313" s="1"/>
@@ -5204,7 +5225,7 @@
     <row r="314" spans="1:4" ht="19.8">
       <c r="A314" s="2"/>
       <c r="B314" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C314" s="29"/>
       <c r="D314" s="1"/>
@@ -5212,7 +5233,7 @@
     <row r="315" spans="1:4" ht="19.8">
       <c r="A315" s="2"/>
       <c r="B315" s="20" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C315" s="29"/>
       <c r="D315" s="1"/>
@@ -5220,15 +5241,15 @@
     <row r="316" spans="1:4" ht="19.8">
       <c r="A316" s="2"/>
       <c r="B316" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C316" s="29"/>
       <c r="D316" s="1"/>
     </row>
     <row r="317" spans="1:4" ht="19.8">
       <c r="A317" s="2"/>
-      <c r="B317" s="16" t="s">
-        <v>264</v>
+      <c r="B317" s="20" t="s">
+        <v>447</v>
       </c>
       <c r="C317" s="29"/>
       <c r="D317" s="1"/>
@@ -5236,7 +5257,7 @@
     <row r="318" spans="1:4" ht="19.8">
       <c r="A318" s="2"/>
       <c r="B318" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C318" s="29"/>
       <c r="D318" s="1"/>
@@ -5244,7 +5265,7 @@
     <row r="319" spans="1:4" ht="19.8">
       <c r="A319" s="2"/>
       <c r="B319" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C319" s="29"/>
       <c r="D319" s="1"/>
@@ -5252,40 +5273,40 @@
     <row r="320" spans="1:4" ht="19.8">
       <c r="A320" s="2"/>
       <c r="B320" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C320" s="29"/>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" ht="19.8">
+      <c r="A321" s="2"/>
+      <c r="B321" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C321" s="29"/>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="1:4">
-      <c r="B322" s="18" t="s">
+    <row r="322" spans="1:4" ht="19.8">
+      <c r="A322" s="2"/>
+      <c r="B322" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C322" s="29"/>
+      <c r="D322" s="1"/>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="D323" s="1"/>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="B324" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="D322" s="1"/>
-    </row>
-    <row r="323" spans="1:4" ht="19.8">
-      <c r="A323" s="2"/>
-      <c r="B323" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C323" s="29"/>
-      <c r="D323" s="1"/>
-    </row>
-    <row r="324" spans="1:4" ht="19.8">
-      <c r="A324" s="2"/>
-      <c r="B324" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C324" s="29"/>
       <c r="D324" s="1"/>
     </row>
     <row r="325" spans="1:4" ht="19.8">
       <c r="A325" s="2"/>
       <c r="B325" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C325" s="29"/>
       <c r="D325" s="1"/>
@@ -5293,7 +5314,7 @@
     <row r="326" spans="1:4" ht="19.8">
       <c r="A326" s="2"/>
       <c r="B326" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C326" s="29"/>
       <c r="D326" s="1"/>
@@ -5301,7 +5322,7 @@
     <row r="327" spans="1:4" ht="19.8">
       <c r="A327" s="2"/>
       <c r="B327" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C327" s="29"/>
       <c r="D327" s="1"/>
@@ -5309,7 +5330,7 @@
     <row r="328" spans="1:4" ht="19.8">
       <c r="A328" s="2"/>
       <c r="B328" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C328" s="29"/>
       <c r="D328" s="1"/>
@@ -5317,7 +5338,7 @@
     <row r="329" spans="1:4" ht="19.8">
       <c r="A329" s="2"/>
       <c r="B329" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C329" s="29"/>
       <c r="D329" s="1"/>
@@ -5325,7 +5346,7 @@
     <row r="330" spans="1:4" ht="19.8">
       <c r="A330" s="2"/>
       <c r="B330" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C330" s="29"/>
       <c r="D330" s="1"/>
@@ -5333,7 +5354,7 @@
     <row r="331" spans="1:4" ht="19.8">
       <c r="A331" s="2"/>
       <c r="B331" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C331" s="29"/>
       <c r="D331" s="1"/>
@@ -5341,7 +5362,7 @@
     <row r="332" spans="1:4" ht="19.8">
       <c r="A332" s="2"/>
       <c r="B332" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C332" s="29"/>
       <c r="D332" s="1"/>
@@ -5349,7 +5370,7 @@
     <row r="333" spans="1:4" ht="19.8">
       <c r="A333" s="2"/>
       <c r="B333" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C333" s="29"/>
       <c r="D333" s="1"/>
@@ -5357,7 +5378,7 @@
     <row r="334" spans="1:4" ht="19.8">
       <c r="A334" s="2"/>
       <c r="B334" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C334" s="29"/>
       <c r="D334" s="1"/>
@@ -5365,39 +5386,39 @@
     <row r="335" spans="1:4" ht="19.8">
       <c r="A335" s="2"/>
       <c r="B335" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C335" s="29"/>
       <c r="D335" s="1"/>
     </row>
     <row r="336" spans="1:4" ht="19.8">
       <c r="A336" s="2"/>
-      <c r="B336" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="C336" s="37"/>
+      <c r="B336" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C336" s="29"/>
       <c r="D336" s="1"/>
     </row>
     <row r="337" spans="1:4" ht="19.8">
       <c r="A337" s="2"/>
       <c r="B337" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C337" s="29"/>
       <c r="D337" s="1"/>
     </row>
     <row r="338" spans="1:4" ht="19.8">
       <c r="A338" s="2"/>
-      <c r="B338" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C338" s="29"/>
+      <c r="B338" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C338" s="37"/>
       <c r="D338" s="1"/>
     </row>
     <row r="339" spans="1:4" ht="19.8">
       <c r="A339" s="2"/>
       <c r="B339" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C339" s="29"/>
       <c r="D339" s="1"/>
@@ -5405,7 +5426,7 @@
     <row r="340" spans="1:4" ht="19.8">
       <c r="A340" s="2"/>
       <c r="B340" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C340" s="29"/>
       <c r="D340" s="1"/>
@@ -5413,7 +5434,7 @@
     <row r="341" spans="1:4" ht="19.8">
       <c r="A341" s="2"/>
       <c r="B341" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C341" s="29"/>
       <c r="D341" s="1"/>
@@ -5421,7 +5442,7 @@
     <row r="342" spans="1:4" ht="19.8">
       <c r="A342" s="2"/>
       <c r="B342" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C342" s="29"/>
       <c r="D342" s="1"/>
@@ -5429,7 +5450,7 @@
     <row r="343" spans="1:4" ht="19.8">
       <c r="A343" s="2"/>
       <c r="B343" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C343" s="29"/>
       <c r="D343" s="1"/>
@@ -5437,7 +5458,7 @@
     <row r="344" spans="1:4" ht="19.8">
       <c r="A344" s="2"/>
       <c r="B344" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C344" s="29"/>
       <c r="D344" s="1"/>
@@ -5445,7 +5466,7 @@
     <row r="345" spans="1:4" ht="19.8">
       <c r="A345" s="2"/>
       <c r="B345" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C345" s="29"/>
       <c r="D345" s="1"/>
@@ -5453,7 +5474,7 @@
     <row r="346" spans="1:4" ht="19.8">
       <c r="A346" s="2"/>
       <c r="B346" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C346" s="29"/>
       <c r="D346" s="1"/>
@@ -5461,7 +5482,7 @@
     <row r="347" spans="1:4" ht="19.8">
       <c r="A347" s="2"/>
       <c r="B347" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C347" s="29"/>
       <c r="D347" s="1"/>
@@ -5469,7 +5490,7 @@
     <row r="348" spans="1:4" ht="19.8">
       <c r="A348" s="2"/>
       <c r="B348" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C348" s="29"/>
       <c r="D348" s="1"/>
@@ -5477,7 +5498,7 @@
     <row r="349" spans="1:4" ht="19.8">
       <c r="A349" s="2"/>
       <c r="B349" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C349" s="29"/>
       <c r="D349" s="1"/>
@@ -5485,7 +5506,7 @@
     <row r="350" spans="1:4" ht="19.8">
       <c r="A350" s="2"/>
       <c r="B350" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C350" s="29"/>
       <c r="D350" s="1"/>
@@ -5493,7 +5514,7 @@
     <row r="351" spans="1:4" ht="19.8">
       <c r="A351" s="2"/>
       <c r="B351" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C351" s="29"/>
       <c r="D351" s="1"/>
@@ -5501,7 +5522,7 @@
     <row r="352" spans="1:4" ht="19.8">
       <c r="A352" s="2"/>
       <c r="B352" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C352" s="29"/>
       <c r="D352" s="1"/>
@@ -5509,7 +5530,7 @@
     <row r="353" spans="1:4" ht="19.8">
       <c r="A353" s="2"/>
       <c r="B353" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C353" s="29"/>
       <c r="D353" s="1"/>
@@ -5517,7 +5538,7 @@
     <row r="354" spans="1:4" ht="19.8">
       <c r="A354" s="2"/>
       <c r="B354" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C354" s="29"/>
       <c r="D354" s="1"/>
@@ -5525,7 +5546,7 @@
     <row r="355" spans="1:4" ht="19.8">
       <c r="A355" s="2"/>
       <c r="B355" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C355" s="29"/>
       <c r="D355" s="1"/>
@@ -5533,7 +5554,7 @@
     <row r="356" spans="1:4" ht="19.8">
       <c r="A356" s="2"/>
       <c r="B356" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C356" s="29"/>
       <c r="D356" s="1"/>
@@ -5541,7 +5562,7 @@
     <row r="357" spans="1:4" ht="19.8">
       <c r="A357" s="2"/>
       <c r="B357" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C357" s="29"/>
       <c r="D357" s="1"/>
@@ -5549,7 +5570,7 @@
     <row r="358" spans="1:4" ht="19.8">
       <c r="A358" s="2"/>
       <c r="B358" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C358" s="29"/>
       <c r="D358" s="1"/>
@@ -5557,7 +5578,7 @@
     <row r="359" spans="1:4" ht="19.8">
       <c r="A359" s="2"/>
       <c r="B359" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C359" s="29"/>
       <c r="D359" s="1"/>
@@ -5565,66 +5586,66 @@
     <row r="360" spans="1:4" ht="19.8">
       <c r="A360" s="2"/>
       <c r="B360" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C360" s="29"/>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" ht="19.8">
+      <c r="A361" s="2"/>
+      <c r="B361" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C361" s="29"/>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="1:4">
-      <c r="B362" s="18" t="s">
+    <row r="362" spans="1:4" ht="19.8">
+      <c r="A362" s="2"/>
+      <c r="B362" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C362" s="29"/>
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="B364" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="D362" s="1"/>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="B363" s="27" t="s">
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="B365" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="C363" s="18" t="s">
+      <c r="C365" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="D363" s="1"/>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="D364" s="1"/>
-    </row>
-    <row r="365" spans="1:4">
       <c r="D365" s="1"/>
     </row>
     <row r="366" spans="1:4">
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="1:4" ht="19.8">
-      <c r="A367" s="4"/>
-      <c r="B367" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C367" s="29"/>
+    <row r="367" spans="1:4">
       <c r="D367" s="1"/>
     </row>
-    <row r="368" spans="1:4" ht="19.8">
-      <c r="A368" s="4"/>
-      <c r="B368" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C368" s="29"/>
+    <row r="368" spans="1:4">
       <c r="D368" s="1"/>
     </row>
     <row r="369" spans="1:4" ht="19.8">
       <c r="A369" s="4"/>
       <c r="B369" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C369" s="29"/>
       <c r="D369" s="1"/>
     </row>
     <row r="370" spans="1:4" ht="19.8">
       <c r="A370" s="4"/>
-      <c r="B370" s="19" t="s">
-        <v>475</v>
+      <c r="B370" s="16" t="s">
+        <v>307</v>
       </c>
       <c r="C370" s="29"/>
       <c r="D370" s="1"/>
@@ -5632,15 +5653,15 @@
     <row r="371" spans="1:4" ht="19.8">
       <c r="A371" s="4"/>
       <c r="B371" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C371" s="29"/>
       <c r="D371" s="1"/>
     </row>
     <row r="372" spans="1:4" ht="19.8">
       <c r="A372" s="4"/>
-      <c r="B372" s="16" t="s">
-        <v>310</v>
+      <c r="B372" s="19" t="s">
+        <v>475</v>
       </c>
       <c r="C372" s="29"/>
       <c r="D372" s="1"/>
@@ -5648,7 +5669,7 @@
     <row r="373" spans="1:4" ht="19.8">
       <c r="A373" s="4"/>
       <c r="B373" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C373" s="29"/>
       <c r="D373" s="1"/>
@@ -5656,39 +5677,39 @@
     <row r="374" spans="1:4" ht="19.8">
       <c r="A374" s="4"/>
       <c r="B374" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C374" s="29"/>
       <c r="D374" s="1"/>
     </row>
     <row r="375" spans="1:4" ht="19.8">
       <c r="A375" s="4"/>
-      <c r="B375" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="C375" s="37"/>
+      <c r="B375" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C375" s="29"/>
       <c r="D375" s="1"/>
     </row>
     <row r="376" spans="1:4" ht="19.8">
       <c r="A376" s="4"/>
       <c r="B376" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C376" s="29"/>
       <c r="D376" s="1"/>
     </row>
     <row r="377" spans="1:4" ht="19.8">
       <c r="A377" s="4"/>
-      <c r="B377" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C377" s="29"/>
+      <c r="B377" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C377" s="37"/>
       <c r="D377" s="1"/>
     </row>
     <row r="378" spans="1:4" ht="19.8">
       <c r="A378" s="4"/>
       <c r="B378" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C378" s="29"/>
       <c r="D378" s="1"/>
@@ -5696,7 +5717,7 @@
     <row r="379" spans="1:4" ht="19.8">
       <c r="A379" s="4"/>
       <c r="B379" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C379" s="29"/>
       <c r="D379" s="1"/>
@@ -5704,7 +5725,7 @@
     <row r="380" spans="1:4" ht="19.8">
       <c r="A380" s="4"/>
       <c r="B380" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C380" s="29"/>
       <c r="D380" s="1"/>
@@ -5712,7 +5733,7 @@
     <row r="381" spans="1:4" ht="19.8">
       <c r="A381" s="4"/>
       <c r="B381" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C381" s="29"/>
       <c r="D381" s="1"/>
@@ -5720,7 +5741,7 @@
     <row r="382" spans="1:4" ht="19.8">
       <c r="A382" s="4"/>
       <c r="B382" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C382" s="29"/>
       <c r="D382" s="1"/>
@@ -5728,7 +5749,7 @@
     <row r="383" spans="1:4" ht="19.8">
       <c r="A383" s="4"/>
       <c r="B383" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C383" s="29"/>
       <c r="D383" s="1"/>
@@ -5736,46 +5757,46 @@
     <row r="384" spans="1:4" ht="19.8">
       <c r="A384" s="4"/>
       <c r="B384" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C384" s="29"/>
       <c r="D384" s="1"/>
     </row>
     <row r="385" spans="1:4" ht="19.8">
       <c r="A385" s="4"/>
-      <c r="B385" s="16"/>
+      <c r="B385" s="16" t="s">
+        <v>321</v>
+      </c>
       <c r="C385" s="29"/>
       <c r="D385" s="1"/>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" ht="19.8">
+      <c r="A386" s="4"/>
+      <c r="B386" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C386" s="29"/>
       <c r="D386" s="1"/>
     </row>
-    <row r="387" spans="1:4">
-      <c r="B387" s="18" t="s">
+    <row r="387" spans="1:4" ht="19.8">
+      <c r="A387" s="4"/>
+      <c r="B387" s="16"/>
+      <c r="C387" s="29"/>
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="B389" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="D387" s="1"/>
-    </row>
-    <row r="388" spans="1:4" ht="19.8">
-      <c r="A388" s="4"/>
-      <c r="B388" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="C388" s="29"/>
-      <c r="D388" s="1"/>
-    </row>
-    <row r="389" spans="1:4" ht="19.8">
-      <c r="A389" s="4"/>
-      <c r="B389" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C389" s="29"/>
       <c r="D389" s="1"/>
     </row>
     <row r="390" spans="1:4" ht="19.8">
       <c r="A390" s="4"/>
       <c r="B390" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C390" s="29"/>
       <c r="D390" s="1"/>
@@ -5783,7 +5804,7 @@
     <row r="391" spans="1:4" ht="19.8">
       <c r="A391" s="4"/>
       <c r="B391" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C391" s="29"/>
       <c r="D391" s="1"/>
@@ -5791,7 +5812,7 @@
     <row r="392" spans="1:4" ht="19.8">
       <c r="A392" s="4"/>
       <c r="B392" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C392" s="29"/>
       <c r="D392" s="1"/>
@@ -5799,7 +5820,7 @@
     <row r="393" spans="1:4" ht="19.8">
       <c r="A393" s="4"/>
       <c r="B393" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C393" s="29"/>
       <c r="D393" s="1"/>
@@ -5807,7 +5828,7 @@
     <row r="394" spans="1:4" ht="19.8">
       <c r="A394" s="4"/>
       <c r="B394" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C394" s="29"/>
       <c r="D394" s="1"/>
@@ -5815,7 +5836,7 @@
     <row r="395" spans="1:4" ht="19.8">
       <c r="A395" s="4"/>
       <c r="B395" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C395" s="29"/>
       <c r="D395" s="1"/>
@@ -5823,7 +5844,7 @@
     <row r="396" spans="1:4" ht="19.8">
       <c r="A396" s="4"/>
       <c r="B396" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C396" s="29"/>
       <c r="D396" s="1"/>
@@ -5831,7 +5852,7 @@
     <row r="397" spans="1:4" ht="19.8">
       <c r="A397" s="4"/>
       <c r="B397" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C397" s="29"/>
       <c r="D397" s="1"/>
@@ -5839,7 +5860,7 @@
     <row r="398" spans="1:4" ht="19.8">
       <c r="A398" s="4"/>
       <c r="B398" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C398" s="29"/>
       <c r="D398" s="1"/>
@@ -5847,7 +5868,7 @@
     <row r="399" spans="1:4" ht="19.8">
       <c r="A399" s="4"/>
       <c r="B399" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C399" s="29"/>
       <c r="D399" s="1"/>
@@ -5855,7 +5876,7 @@
     <row r="400" spans="1:4" ht="19.8">
       <c r="A400" s="4"/>
       <c r="B400" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C400" s="29"/>
       <c r="D400" s="1"/>
@@ -5863,7 +5884,7 @@
     <row r="401" spans="1:4" ht="19.8">
       <c r="A401" s="4"/>
       <c r="B401" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C401" s="29"/>
       <c r="D401" s="1"/>
@@ -5871,7 +5892,7 @@
     <row r="402" spans="1:4" ht="19.8">
       <c r="A402" s="4"/>
       <c r="B402" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C402" s="29"/>
       <c r="D402" s="1"/>
@@ -5879,7 +5900,7 @@
     <row r="403" spans="1:4" ht="19.8">
       <c r="A403" s="4"/>
       <c r="B403" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C403" s="29"/>
       <c r="D403" s="1"/>
@@ -5887,7 +5908,7 @@
     <row r="404" spans="1:4" ht="19.8">
       <c r="A404" s="4"/>
       <c r="B404" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C404" s="29"/>
       <c r="D404" s="1"/>
@@ -5895,7 +5916,7 @@
     <row r="405" spans="1:4" ht="19.8">
       <c r="A405" s="4"/>
       <c r="B405" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C405" s="29"/>
       <c r="D405" s="1"/>
@@ -5903,7 +5924,7 @@
     <row r="406" spans="1:4" ht="19.8">
       <c r="A406" s="4"/>
       <c r="B406" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C406" s="29"/>
       <c r="D406" s="1"/>
@@ -5911,7 +5932,7 @@
     <row r="407" spans="1:4" ht="19.8">
       <c r="A407" s="4"/>
       <c r="B407" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C407" s="29"/>
       <c r="D407" s="1"/>
@@ -5919,7 +5940,7 @@
     <row r="408" spans="1:4" ht="19.8">
       <c r="A408" s="4"/>
       <c r="B408" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C408" s="29"/>
       <c r="D408" s="1"/>
@@ -5927,7 +5948,7 @@
     <row r="409" spans="1:4" ht="19.8">
       <c r="A409" s="4"/>
       <c r="B409" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C409" s="29"/>
       <c r="D409" s="1"/>
@@ -5935,7 +5956,7 @@
     <row r="410" spans="1:4" ht="19.8">
       <c r="A410" s="4"/>
       <c r="B410" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C410" s="29"/>
       <c r="D410" s="1"/>
@@ -5943,7 +5964,7 @@
     <row r="411" spans="1:4" ht="19.8">
       <c r="A411" s="4"/>
       <c r="B411" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C411" s="29"/>
       <c r="D411" s="1"/>
@@ -5951,7 +5972,7 @@
     <row r="412" spans="1:4" ht="19.8">
       <c r="A412" s="4"/>
       <c r="B412" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C412" s="29"/>
       <c r="D412" s="1"/>
@@ -5959,7 +5980,7 @@
     <row r="413" spans="1:4" ht="19.8">
       <c r="A413" s="4"/>
       <c r="B413" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C413" s="29"/>
       <c r="D413" s="1"/>
@@ -5967,7 +5988,7 @@
     <row r="414" spans="1:4" ht="19.8">
       <c r="A414" s="4"/>
       <c r="B414" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C414" s="29"/>
       <c r="D414" s="1"/>
@@ -5975,7 +5996,7 @@
     <row r="415" spans="1:4" ht="19.8">
       <c r="A415" s="4"/>
       <c r="B415" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C415" s="29"/>
       <c r="D415" s="1"/>
@@ -5983,7 +6004,7 @@
     <row r="416" spans="1:4" ht="19.8">
       <c r="A416" s="4"/>
       <c r="B416" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C416" s="29"/>
       <c r="D416" s="1"/>
@@ -5991,15 +6012,15 @@
     <row r="417" spans="1:4" ht="19.8">
       <c r="A417" s="4"/>
       <c r="B417" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C417" s="29"/>
       <c r="D417" s="1"/>
     </row>
     <row r="418" spans="1:4" ht="19.8">
       <c r="A418" s="4"/>
-      <c r="B418" s="20" t="s">
-        <v>353</v>
+      <c r="B418" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="C418" s="29"/>
       <c r="D418" s="1"/>
@@ -6007,15 +6028,15 @@
     <row r="419" spans="1:4" ht="19.8">
       <c r="A419" s="4"/>
       <c r="B419" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C419" s="29"/>
       <c r="D419" s="1"/>
     </row>
     <row r="420" spans="1:4" ht="19.8">
       <c r="A420" s="4"/>
-      <c r="B420" s="16" t="s">
-        <v>355</v>
+      <c r="B420" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="C420" s="29"/>
       <c r="D420" s="1"/>
@@ -6023,7 +6044,7 @@
     <row r="421" spans="1:4" ht="19.8">
       <c r="A421" s="4"/>
       <c r="B421" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C421" s="29"/>
       <c r="D421" s="1"/>
@@ -6031,7 +6052,7 @@
     <row r="422" spans="1:4" ht="19.8">
       <c r="A422" s="4"/>
       <c r="B422" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C422" s="29"/>
       <c r="D422" s="1"/>
@@ -6039,7 +6060,7 @@
     <row r="423" spans="1:4" ht="19.8">
       <c r="A423" s="4"/>
       <c r="B423" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C423" s="29"/>
       <c r="D423" s="1"/>
@@ -6047,7 +6068,7 @@
     <row r="424" spans="1:4" ht="19.8">
       <c r="A424" s="4"/>
       <c r="B424" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C424" s="29"/>
       <c r="D424" s="1"/>
@@ -6055,7 +6076,7 @@
     <row r="425" spans="1:4" ht="19.8">
       <c r="A425" s="4"/>
       <c r="B425" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C425" s="29"/>
       <c r="D425" s="1"/>
@@ -6063,7 +6084,7 @@
     <row r="426" spans="1:4" ht="19.8">
       <c r="A426" s="4"/>
       <c r="B426" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C426" s="29"/>
       <c r="D426" s="1"/>
@@ -6071,7 +6092,7 @@
     <row r="427" spans="1:4" ht="19.8">
       <c r="A427" s="4"/>
       <c r="B427" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C427" s="29"/>
       <c r="D427" s="1"/>
@@ -6079,7 +6100,7 @@
     <row r="428" spans="1:4" ht="19.8">
       <c r="A428" s="4"/>
       <c r="B428" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C428" s="29"/>
       <c r="D428" s="1"/>
@@ -6087,7 +6108,7 @@
     <row r="429" spans="1:4" ht="19.8">
       <c r="A429" s="4"/>
       <c r="B429" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C429" s="29"/>
       <c r="D429" s="1"/>
@@ -6095,7 +6116,7 @@
     <row r="430" spans="1:4" ht="19.8">
       <c r="A430" s="4"/>
       <c r="B430" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C430" s="29"/>
       <c r="D430" s="1"/>
@@ -6103,42 +6124,46 @@
     <row r="431" spans="1:4" ht="19.8">
       <c r="A431" s="4"/>
       <c r="B431" s="16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C431" s="29"/>
       <c r="D431" s="1"/>
     </row>
     <row r="432" spans="1:4" ht="19.8">
       <c r="A432" s="4"/>
-      <c r="B432" s="16"/>
+      <c r="B432" s="16" t="s">
+        <v>364</v>
+      </c>
       <c r="C432" s="29"/>
       <c r="D432" s="1"/>
     </row>
     <row r="433" spans="1:4" ht="19.8">
       <c r="A433" s="4"/>
-      <c r="B433" s="29" t="s">
-        <v>507</v>
+      <c r="B433" s="16" t="s">
+        <v>365</v>
       </c>
       <c r="C433" s="29"/>
       <c r="D433" s="1"/>
     </row>
     <row r="434" spans="1:4" ht="19.8">
       <c r="A434" s="4"/>
-      <c r="B434" s="27" t="s">
-        <v>470</v>
-      </c>
+      <c r="B434" s="16"/>
       <c r="C434" s="29"/>
       <c r="D434" s="1"/>
     </row>
     <row r="435" spans="1:4" ht="19.8">
       <c r="A435" s="4"/>
-      <c r="B435" s="29"/>
+      <c r="B435" s="29" t="s">
+        <v>507</v>
+      </c>
       <c r="C435" s="29"/>
       <c r="D435" s="1"/>
     </row>
     <row r="436" spans="1:4" ht="19.8">
       <c r="A436" s="4"/>
-      <c r="B436" s="29"/>
+      <c r="B436" s="27" t="s">
+        <v>470</v>
+      </c>
       <c r="C436" s="29"/>
       <c r="D436" s="1"/>
     </row>
@@ -6148,35 +6173,31 @@
       <c r="C437" s="29"/>
       <c r="D437" s="1"/>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" ht="19.8">
+      <c r="A438" s="4"/>
+      <c r="B438" s="29"/>
+      <c r="C438" s="29"/>
       <c r="D438" s="1"/>
     </row>
-    <row r="439" spans="1:4">
-      <c r="B439" s="18" t="s">
+    <row r="439" spans="1:4" ht="19.8">
+      <c r="A439" s="4"/>
+      <c r="B439" s="29"/>
+      <c r="C439" s="29"/>
+      <c r="D439" s="1"/>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="D440" s="1"/>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="B441" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="D439" s="1"/>
-    </row>
-    <row r="440" spans="1:4" ht="19.8">
-      <c r="A440" s="4"/>
-      <c r="B440" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="C440" s="29"/>
-      <c r="D440" s="1"/>
-    </row>
-    <row r="441" spans="1:4" ht="19.8">
-      <c r="A441" s="4"/>
-      <c r="B441" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="C441" s="29"/>
       <c r="D441" s="1"/>
     </row>
     <row r="442" spans="1:4" ht="19.8">
       <c r="A442" s="4"/>
       <c r="B442" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C442" s="29"/>
       <c r="D442" s="1"/>
@@ -6184,7 +6205,7 @@
     <row r="443" spans="1:4" ht="19.8">
       <c r="A443" s="4"/>
       <c r="B443" s="16" t="s">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="C443" s="29"/>
       <c r="D443" s="1"/>
@@ -6192,7 +6213,7 @@
     <row r="444" spans="1:4" ht="19.8">
       <c r="A444" s="4"/>
       <c r="B444" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C444" s="29"/>
       <c r="D444" s="1"/>
@@ -6200,99 +6221,109 @@
     <row r="445" spans="1:4" ht="19.8">
       <c r="A445" s="4"/>
       <c r="B445" s="16" t="s">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="C445" s="29"/>
       <c r="D445" s="1"/>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" ht="19.8">
+      <c r="A446" s="4"/>
+      <c r="B446" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C446" s="29"/>
       <c r="D446" s="1"/>
     </row>
-    <row r="447" spans="1:4">
-      <c r="B447" s="18" t="s">
+    <row r="447" spans="1:4" ht="19.8">
+      <c r="A447" s="4"/>
+      <c r="B447" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C447" s="29"/>
+      <c r="D447" s="1"/>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="D448" s="1"/>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="B449" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D447" s="1"/>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="11" t="s">
+      <c r="D449" s="1"/>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="B448" s="30" t="s">
+      <c r="B450" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="C448" s="18" t="s">
+      <c r="C450" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="D448" s="1"/>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="B449" s="31" t="s">
+      <c r="D450" s="1"/>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="B451" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="C449" s="18" t="s">
+      <c r="C451" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D449" s="1"/>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="12" t="s">
+      <c r="D451" s="1"/>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="B450" s="22" t="s">
+      <c r="B452" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="D450" s="1"/>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="B451" s="19" t="s">
+      <c r="D452" s="1"/>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="B453" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="D451" s="1"/>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="B452" s="19" t="s">
+      <c r="D453" s="1"/>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="B454" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="C452" s="18" t="s">
+      <c r="C454" s="18" t="s">
         <v>466</v>
-      </c>
-      <c r="D452" s="1"/>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="B453" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="D453" s="1"/>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="B454" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="C454" s="18" t="s">
-        <v>516</v>
       </c>
       <c r="D454" s="1"/>
     </row>
     <row r="455" spans="1:4">
       <c r="B455" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D455" s="1"/>
     </row>
     <row r="456" spans="1:4">
       <c r="B456" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C456" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="D456" s="1"/>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="B457" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="D457" s="1"/>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="B458" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="C456" s="34" t="s">
+      <c r="C458" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="D456" s="1"/>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="D457" s="1"/>
-    </row>
-    <row r="458" spans="1:4">
       <c r="D458" s="1"/>
     </row>
     <row r="459" spans="1:4">
@@ -6301,34 +6332,24 @@
     <row r="460" spans="1:4">
       <c r="D460" s="1"/>
     </row>
-    <row r="461" spans="1:4" ht="19.8">
-      <c r="A461" s="2"/>
-      <c r="B461" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C461" s="29"/>
+    <row r="461" spans="1:4">
       <c r="D461" s="1"/>
     </row>
-    <row r="462" spans="1:4" ht="19.8">
-      <c r="A462" s="2"/>
-      <c r="B462" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C462" s="29"/>
+    <row r="462" spans="1:4">
       <c r="D462" s="1"/>
     </row>
     <row r="463" spans="1:4" ht="19.8">
       <c r="A463" s="2"/>
-      <c r="B463" s="16" t="s">
-        <v>373</v>
+      <c r="B463" s="20" t="s">
+        <v>371</v>
       </c>
       <c r="C463" s="29"/>
       <c r="D463" s="1"/>
     </row>
     <row r="464" spans="1:4" ht="19.8">
       <c r="A464" s="2"/>
-      <c r="B464" s="16" t="s">
-        <v>374</v>
+      <c r="B464" s="20" t="s">
+        <v>372</v>
       </c>
       <c r="C464" s="29"/>
       <c r="D464" s="1"/>
@@ -6336,7 +6357,7 @@
     <row r="465" spans="1:4" ht="19.8">
       <c r="A465" s="2"/>
       <c r="B465" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C465" s="29"/>
       <c r="D465" s="1"/>
@@ -6344,7 +6365,7 @@
     <row r="466" spans="1:4" ht="19.8">
       <c r="A466" s="2"/>
       <c r="B466" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C466" s="29"/>
       <c r="D466" s="1"/>
@@ -6352,23 +6373,23 @@
     <row r="467" spans="1:4" ht="19.8">
       <c r="A467" s="2"/>
       <c r="B467" s="16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C467" s="29"/>
       <c r="D467" s="1"/>
     </row>
     <row r="468" spans="1:4" ht="19.8">
       <c r="A468" s="2"/>
-      <c r="B468" s="20" t="s">
-        <v>451</v>
+      <c r="B468" s="16" t="s">
+        <v>376</v>
       </c>
       <c r="C468" s="29"/>
       <c r="D468" s="1"/>
     </row>
     <row r="469" spans="1:4" ht="19.8">
       <c r="A469" s="2"/>
-      <c r="B469" s="20" t="s">
-        <v>487</v>
+      <c r="B469" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="C469" s="29"/>
       <c r="D469" s="1"/>
@@ -6376,7 +6397,7 @@
     <row r="470" spans="1:4" ht="19.8">
       <c r="A470" s="2"/>
       <c r="B470" s="20" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="C470" s="29"/>
       <c r="D470" s="1"/>
@@ -6384,41 +6405,41 @@
     <row r="471" spans="1:4" ht="19.8">
       <c r="A471" s="2"/>
       <c r="B471" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C471" s="29"/>
       <c r="D471" s="1"/>
     </row>
-    <row r="472" spans="1:4" ht="70.8">
+    <row r="472" spans="1:4" ht="19.8">
       <c r="A472" s="2"/>
       <c r="B472" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="C472" s="14" t="s">
-        <v>493</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="C472" s="29"/>
       <c r="D472" s="1"/>
     </row>
     <row r="473" spans="1:4" ht="19.8">
       <c r="A473" s="2"/>
-      <c r="B473" s="16" t="s">
-        <v>378</v>
+      <c r="B473" s="20" t="s">
+        <v>489</v>
       </c>
       <c r="C473" s="29"/>
       <c r="D473" s="1"/>
     </row>
-    <row r="474" spans="1:4" ht="19.8">
+    <row r="474" spans="1:4" ht="70.8">
       <c r="A474" s="2"/>
-      <c r="B474" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="C474" s="29"/>
+      <c r="B474" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="C474" s="14" t="s">
+        <v>493</v>
+      </c>
       <c r="D474" s="1"/>
     </row>
     <row r="475" spans="1:4" ht="19.8">
       <c r="A475" s="2"/>
       <c r="B475" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C475" s="29"/>
       <c r="D475" s="1"/>
@@ -6426,7 +6447,7 @@
     <row r="476" spans="1:4" ht="19.8">
       <c r="A476" s="2"/>
       <c r="B476" s="16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C476" s="29"/>
       <c r="D476" s="1"/>
@@ -6434,23 +6455,23 @@
     <row r="477" spans="1:4" ht="19.8">
       <c r="A477" s="2"/>
       <c r="B477" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C477" s="29"/>
       <c r="D477" s="1"/>
     </row>
     <row r="478" spans="1:4" ht="19.8">
       <c r="A478" s="2"/>
-      <c r="B478" s="20" t="s">
-        <v>383</v>
+      <c r="B478" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="C478" s="29"/>
       <c r="D478" s="1"/>
     </row>
     <row r="479" spans="1:4" ht="19.8">
       <c r="A479" s="2"/>
-      <c r="B479" s="20" t="s">
-        <v>521</v>
+      <c r="B479" s="16" t="s">
+        <v>382</v>
       </c>
       <c r="C479" s="29"/>
       <c r="D479" s="1"/>
@@ -6458,7 +6479,7 @@
     <row r="480" spans="1:4" ht="19.8">
       <c r="A480" s="2"/>
       <c r="B480" s="20" t="s">
-        <v>526</v>
+        <v>383</v>
       </c>
       <c r="C480" s="29"/>
       <c r="D480" s="1"/>
@@ -6466,41 +6487,41 @@
     <row r="481" spans="1:4" ht="19.8">
       <c r="A481" s="2"/>
       <c r="B481" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C481" s="29" t="s">
-        <v>536</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="C481" s="29"/>
       <c r="D481" s="1"/>
     </row>
     <row r="482" spans="1:4" ht="19.8">
       <c r="A482" s="2"/>
-      <c r="B482" s="39" t="s">
-        <v>537</v>
+      <c r="B482" s="20" t="s">
+        <v>526</v>
       </c>
       <c r="C482" s="29"/>
       <c r="D482" s="1"/>
     </row>
     <row r="483" spans="1:4" ht="19.8">
       <c r="A483" s="2"/>
-      <c r="B483" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="C483" s="29"/>
+      <c r="B483" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C483" s="29" t="s">
+        <v>536</v>
+      </c>
       <c r="D483" s="1"/>
     </row>
     <row r="484" spans="1:4" ht="19.8">
       <c r="A484" s="2"/>
-      <c r="B484" s="16" t="s">
-        <v>386</v>
+      <c r="B484" s="39" t="s">
+        <v>537</v>
       </c>
       <c r="C484" s="29"/>
       <c r="D484" s="1"/>
     </row>
     <row r="485" spans="1:4" ht="19.8">
       <c r="A485" s="2"/>
-      <c r="B485" s="20" t="s">
-        <v>387</v>
+      <c r="B485" s="16" t="s">
+        <v>385</v>
       </c>
       <c r="C485" s="29"/>
       <c r="D485" s="1"/>
@@ -6508,15 +6529,15 @@
     <row r="486" spans="1:4" ht="19.8">
       <c r="A486" s="2"/>
       <c r="B486" s="16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C486" s="29"/>
       <c r="D486" s="1"/>
     </row>
     <row r="487" spans="1:4" ht="19.8">
       <c r="A487" s="2"/>
-      <c r="B487" s="16" t="s">
-        <v>389</v>
+      <c r="B487" s="20" t="s">
+        <v>387</v>
       </c>
       <c r="C487" s="29"/>
       <c r="D487" s="1"/>
@@ -6524,7 +6545,7 @@
     <row r="488" spans="1:4" ht="19.8">
       <c r="A488" s="2"/>
       <c r="B488" s="16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C488" s="29"/>
       <c r="D488" s="1"/>
@@ -6532,47 +6553,47 @@
     <row r="489" spans="1:4" ht="19.8">
       <c r="A489" s="2"/>
       <c r="B489" s="16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C489" s="29"/>
       <c r="D489" s="1"/>
     </row>
     <row r="490" spans="1:4" ht="19.8">
       <c r="A490" s="2"/>
-      <c r="B490" s="20" t="s">
-        <v>524</v>
+      <c r="B490" s="16" t="s">
+        <v>390</v>
       </c>
       <c r="C490" s="29"/>
       <c r="D490" s="1"/>
     </row>
     <row r="491" spans="1:4" ht="19.8">
       <c r="A491" s="2"/>
-      <c r="B491" s="20" t="s">
-        <v>525</v>
+      <c r="B491" s="16" t="s">
+        <v>391</v>
       </c>
       <c r="C491" s="29"/>
       <c r="D491" s="1"/>
     </row>
     <row r="492" spans="1:4" ht="19.8">
       <c r="A492" s="2"/>
-      <c r="B492" s="16" t="s">
-        <v>392</v>
+      <c r="B492" s="20" t="s">
+        <v>524</v>
       </c>
       <c r="C492" s="29"/>
       <c r="D492" s="1"/>
     </row>
     <row r="493" spans="1:4" ht="19.8">
       <c r="A493" s="2"/>
-      <c r="B493" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="C493" s="38"/>
+      <c r="B493" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C493" s="29"/>
       <c r="D493" s="1"/>
     </row>
     <row r="494" spans="1:4" ht="19.8">
       <c r="A494" s="2"/>
       <c r="B494" s="16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C494" s="29"/>
       <c r="D494" s="1"/>
@@ -6580,41 +6601,41 @@
     <row r="495" spans="1:4" ht="19.8">
       <c r="A495" s="2"/>
       <c r="B495" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C495" s="29"/>
+        <v>393</v>
+      </c>
+      <c r="C495" s="38"/>
       <c r="D495" s="1"/>
     </row>
     <row r="496" spans="1:4" ht="19.8">
       <c r="A496" s="2"/>
-      <c r="B496" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C496" s="38" t="s">
-        <v>484</v>
-      </c>
+      <c r="B496" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C496" s="29"/>
       <c r="D496" s="1"/>
     </row>
     <row r="497" spans="1:4" ht="19.8">
       <c r="A497" s="2"/>
       <c r="B497" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C497" s="29"/>
       <c r="D497" s="1"/>
     </row>
     <row r="498" spans="1:4" ht="19.8">
       <c r="A498" s="2"/>
-      <c r="B498" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C498" s="29"/>
+      <c r="B498" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C498" s="38" t="s">
+        <v>484</v>
+      </c>
       <c r="D498" s="1"/>
     </row>
     <row r="499" spans="1:4" ht="19.8">
       <c r="A499" s="2"/>
       <c r="B499" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C499" s="29"/>
       <c r="D499" s="1"/>
@@ -6622,49 +6643,49 @@
     <row r="500" spans="1:4" ht="19.8">
       <c r="A500" s="2"/>
       <c r="B500" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C500" s="29"/>
       <c r="D500" s="1"/>
     </row>
     <row r="501" spans="1:4" ht="19.8">
       <c r="A501" s="2"/>
-      <c r="B501" s="20" t="s">
-        <v>401</v>
+      <c r="B501" s="16" t="s">
+        <v>399</v>
       </c>
       <c r="C501" s="29"/>
       <c r="D501" s="1"/>
     </row>
     <row r="502" spans="1:4" ht="19.8">
       <c r="A502" s="2"/>
-      <c r="B502" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C502" s="29" t="s">
-        <v>523</v>
-      </c>
+      <c r="B502" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C502" s="29"/>
       <c r="D502" s="1"/>
     </row>
     <row r="503" spans="1:4" ht="19.8">
       <c r="A503" s="2"/>
-      <c r="B503" s="16" t="s">
-        <v>402</v>
+      <c r="B503" s="20" t="s">
+        <v>401</v>
       </c>
       <c r="C503" s="29"/>
       <c r="D503" s="1"/>
     </row>
     <row r="504" spans="1:4" ht="19.8">
       <c r="A504" s="2"/>
-      <c r="B504" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="C504" s="29"/>
+      <c r="B504" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="C504" s="29" t="s">
+        <v>523</v>
+      </c>
       <c r="D504" s="1"/>
     </row>
     <row r="505" spans="1:4" ht="19.8">
       <c r="A505" s="2"/>
       <c r="B505" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C505" s="29"/>
       <c r="D505" s="1"/>
@@ -6672,118 +6693,118 @@
     <row r="506" spans="1:4" ht="19.8">
       <c r="A506" s="2"/>
       <c r="B506" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C506" s="29"/>
       <c r="D506" s="1"/>
     </row>
     <row r="507" spans="1:4" ht="19.8">
       <c r="A507" s="2"/>
-      <c r="B507" s="20" t="s">
-        <v>406</v>
-      </c>
+      <c r="B507" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C507" s="29"/>
       <c r="D507" s="1"/>
     </row>
     <row r="508" spans="1:4" ht="19.8">
       <c r="A508" s="2"/>
       <c r="B508" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C508" s="29"/>
       <c r="D508" s="1"/>
     </row>
     <row r="509" spans="1:4" ht="19.8">
       <c r="A509" s="2"/>
-      <c r="B509" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C509" s="29"/>
+      <c r="B509" s="20" t="s">
+        <v>406</v>
+      </c>
       <c r="D509" s="1"/>
     </row>
     <row r="510" spans="1:4" ht="19.8">
       <c r="A510" s="2"/>
-      <c r="B510" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="C510" s="38" t="s">
-        <v>491</v>
-      </c>
+      <c r="B510" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C510" s="29"/>
       <c r="D510" s="1"/>
     </row>
     <row r="511" spans="1:4" ht="19.8">
       <c r="A511" s="2"/>
-      <c r="B511" s="20" t="s">
+      <c r="B511" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C511" s="29"/>
+      <c r="D511" s="1"/>
+    </row>
+    <row r="512" spans="1:4" ht="19.8">
+      <c r="A512" s="2"/>
+      <c r="B512" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C512" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="D512" s="1"/>
+    </row>
+    <row r="513" spans="1:4" ht="19.8">
+      <c r="A513" s="2"/>
+      <c r="B513" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="C511" s="29" t="s">
+      <c r="C513" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="D511" s="1"/>
-    </row>
-    <row r="512" spans="1:4" ht="32.4">
-      <c r="A512" s="2"/>
-      <c r="B512" s="39" t="s">
+      <c r="D513" s="1"/>
+    </row>
+    <row r="514" spans="1:4" ht="32.4">
+      <c r="A514" s="2"/>
+      <c r="B514" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="C512" s="40" t="s">
+      <c r="C514" s="40" t="s">
         <v>532</v>
       </c>
-      <c r="D512" s="1"/>
-    </row>
-    <row r="513" spans="1:4" ht="32.4">
-      <c r="A513" s="2"/>
-      <c r="B513" s="39" t="s">
+      <c r="D514" s="1"/>
+    </row>
+    <row r="515" spans="1:4" ht="32.4">
+      <c r="A515" s="2"/>
+      <c r="B515" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="C513" s="40" t="s">
+      <c r="C515" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="D513" s="1"/>
-    </row>
-    <row r="514" spans="1:4" ht="19.8">
-      <c r="A514" s="2"/>
-      <c r="B514" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="C514" s="40"/>
-      <c r="D514" s="1"/>
-    </row>
-    <row r="515" spans="1:4" ht="19.8">
-      <c r="A515" s="2"/>
-      <c r="B515" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="C515" s="40"/>
       <c r="D515" s="1"/>
     </row>
     <row r="516" spans="1:4" ht="19.8">
       <c r="A516" s="2"/>
-      <c r="B516" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="C516" s="29"/>
+      <c r="B516" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="C516" s="40"/>
       <c r="D516" s="1"/>
     </row>
     <row r="517" spans="1:4" ht="19.8">
       <c r="A517" s="2"/>
-      <c r="B517" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="C517" s="29"/>
+      <c r="B517" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="C517" s="40"/>
       <c r="D517" s="1"/>
     </row>
     <row r="518" spans="1:4" ht="19.8">
       <c r="A518" s="2"/>
-      <c r="B518" s="16" t="s">
-        <v>412</v>
+      <c r="B518" s="32" t="s">
+        <v>411</v>
       </c>
       <c r="C518" s="29"/>
       <c r="D518" s="1"/>
     </row>
     <row r="519" spans="1:4" ht="19.8">
       <c r="A519" s="2"/>
-      <c r="B519" s="16" t="s">
-        <v>413</v>
+      <c r="B519" s="32" t="s">
+        <v>529</v>
       </c>
       <c r="C519" s="29"/>
       <c r="D519" s="1"/>
@@ -6791,7 +6812,7 @@
     <row r="520" spans="1:4" ht="19.8">
       <c r="A520" s="2"/>
       <c r="B520" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C520" s="29"/>
       <c r="D520" s="1"/>
@@ -6799,7 +6820,7 @@
     <row r="521" spans="1:4" ht="19.8">
       <c r="A521" s="2"/>
       <c r="B521" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C521" s="29"/>
       <c r="D521" s="1"/>
@@ -6807,15 +6828,15 @@
     <row r="522" spans="1:4" ht="19.8">
       <c r="A522" s="2"/>
       <c r="B522" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C522" s="29"/>
       <c r="D522" s="1"/>
     </row>
     <row r="523" spans="1:4" ht="19.8">
       <c r="A523" s="2"/>
-      <c r="B523" s="20" t="s">
-        <v>417</v>
+      <c r="B523" s="16" t="s">
+        <v>415</v>
       </c>
       <c r="C523" s="29"/>
       <c r="D523" s="1"/>
@@ -6823,15 +6844,15 @@
     <row r="524" spans="1:4" ht="19.8">
       <c r="A524" s="2"/>
       <c r="B524" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C524" s="29"/>
       <c r="D524" s="1"/>
     </row>
     <row r="525" spans="1:4" ht="19.8">
       <c r="A525" s="2"/>
-      <c r="B525" s="16" t="s">
-        <v>419</v>
+      <c r="B525" s="20" t="s">
+        <v>417</v>
       </c>
       <c r="C525" s="29"/>
       <c r="D525" s="1"/>
@@ -6839,7 +6860,7 @@
     <row r="526" spans="1:4" ht="19.8">
       <c r="A526" s="2"/>
       <c r="B526" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C526" s="29"/>
       <c r="D526" s="1"/>
@@ -6847,7 +6868,7 @@
     <row r="527" spans="1:4" ht="19.8">
       <c r="A527" s="2"/>
       <c r="B527" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C527" s="29"/>
       <c r="D527" s="1"/>
@@ -6855,7 +6876,7 @@
     <row r="528" spans="1:4" ht="19.8">
       <c r="A528" s="2"/>
       <c r="B528" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C528" s="29"/>
       <c r="D528" s="1"/>
@@ -6863,7 +6884,7 @@
     <row r="529" spans="1:4" ht="19.8">
       <c r="A529" s="2"/>
       <c r="B529" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C529" s="29"/>
       <c r="D529" s="1"/>
@@ -6871,7 +6892,7 @@
     <row r="530" spans="1:4" ht="19.8">
       <c r="A530" s="2"/>
       <c r="B530" s="16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C530" s="29"/>
       <c r="D530" s="1"/>
@@ -6879,7 +6900,7 @@
     <row r="531" spans="1:4" ht="19.8">
       <c r="A531" s="2"/>
       <c r="B531" s="16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C531" s="29"/>
       <c r="D531" s="1"/>
@@ -6887,50 +6908,50 @@
     <row r="532" spans="1:4" ht="19.8">
       <c r="A532" s="2"/>
       <c r="B532" s="16" t="s">
-        <v>426</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C532" s="29"/>
       <c r="D532" s="1"/>
     </row>
     <row r="533" spans="1:4" ht="19.8">
-      <c r="A533" s="4"/>
+      <c r="A533" s="2"/>
       <c r="B533" s="16" t="s">
-        <v>427</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C533" s="29"/>
       <c r="D533" s="1"/>
     </row>
     <row r="534" spans="1:4" ht="19.8">
       <c r="A534" s="2"/>
       <c r="B534" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="C534" s="29"/>
+        <v>426</v>
+      </c>
       <c r="D534" s="1"/>
     </row>
     <row r="535" spans="1:4" ht="19.8">
-      <c r="A535" s="2"/>
-      <c r="C535" s="29"/>
+      <c r="A535" s="4"/>
+      <c r="B535" s="16" t="s">
+        <v>427</v>
+      </c>
       <c r="D535" s="1"/>
     </row>
     <row r="536" spans="1:4" ht="19.8">
       <c r="A536" s="2"/>
-      <c r="B536" s="18" t="s">
-        <v>510</v>
+      <c r="B536" s="16" t="s">
+        <v>428</v>
       </c>
       <c r="C536" s="29"/>
       <c r="D536" s="1"/>
     </row>
     <row r="537" spans="1:4" ht="19.8">
       <c r="A537" s="2"/>
-      <c r="B537" s="16" t="s">
-        <v>429</v>
-      </c>
       <c r="C537" s="29"/>
       <c r="D537" s="1"/>
     </row>
     <row r="538" spans="1:4" ht="19.8">
       <c r="A538" s="2"/>
-      <c r="B538" s="16" t="s">
-        <v>430</v>
+      <c r="B538" s="18" t="s">
+        <v>510</v>
       </c>
       <c r="C538" s="29"/>
       <c r="D538" s="1"/>
@@ -6938,7 +6959,7 @@
     <row r="539" spans="1:4" ht="19.8">
       <c r="A539" s="2"/>
       <c r="B539" s="16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C539" s="29"/>
       <c r="D539" s="1"/>
@@ -6946,7 +6967,7 @@
     <row r="540" spans="1:4" ht="19.8">
       <c r="A540" s="2"/>
       <c r="B540" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C540" s="29"/>
       <c r="D540" s="1"/>
@@ -6954,7 +6975,7 @@
     <row r="541" spans="1:4" ht="19.8">
       <c r="A541" s="2"/>
       <c r="B541" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C541" s="29"/>
       <c r="D541" s="1"/>
@@ -6962,7 +6983,7 @@
     <row r="542" spans="1:4" ht="19.8">
       <c r="A542" s="2"/>
       <c r="B542" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C542" s="29"/>
       <c r="D542" s="1"/>
@@ -6970,68 +6991,84 @@
     <row r="543" spans="1:4" ht="19.8">
       <c r="A543" s="2"/>
       <c r="B543" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C543" s="29"/>
       <c r="D543" s="1"/>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" ht="19.8">
+      <c r="A544" s="2"/>
       <c r="B544" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C544" s="29"/>
+      <c r="D544" s="1"/>
+    </row>
+    <row r="545" spans="1:4" ht="19.8">
+      <c r="A545" s="2"/>
+      <c r="B545" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C545" s="29"/>
+      <c r="D545" s="1"/>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="B546" s="16" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="545" spans="2:3">
-      <c r="B545" s="16" t="s">
+    <row r="547" spans="1:4">
+      <c r="B547" s="16" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="546" spans="2:3">
-      <c r="B546" s="16" t="s">
+    <row r="548" spans="1:4">
+      <c r="B548" s="16" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="549" spans="2:3">
-      <c r="B549" s="18" t="s">
+    <row r="551" spans="1:4">
+      <c r="B551" s="18" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="550" spans="2:3">
-      <c r="C550" s="18" t="s">
+    <row r="552" spans="1:4">
+      <c r="C552" s="18" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="552" spans="2:3">
-      <c r="B552" s="19" t="s">
+    <row r="554" spans="1:4">
+      <c r="B554" s="19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="553" spans="2:3">
-      <c r="B553" s="27" t="s">
+    <row r="555" spans="1:4">
+      <c r="B555" s="27" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="554" spans="2:3">
-      <c r="B554" s="19" t="s">
+    <row r="556" spans="1:4">
+      <c r="B556" s="19" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="555" spans="2:3">
-      <c r="B555" s="19" t="s">
+    <row r="557" spans="1:4">
+      <c r="B557" s="19" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="556" spans="2:3">
-      <c r="B556" s="19" t="s">
+    <row r="558" spans="1:4">
+      <c r="B558" s="19" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="557" spans="2:3">
-      <c r="B557" s="20" t="s">
+    <row r="559" spans="1:4">
+      <c r="B559" s="20" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="596" spans="2:2">
-      <c r="B596" s="18" t="s">
+    <row r="598" spans="2:2">
+      <c r="B598" s="18" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7163,375 +7200,377 @@
     <hyperlink ref="B115" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
     <hyperlink ref="B142" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
     <hyperlink ref="B143" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B147" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B148" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B149" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B150" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B151" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B152" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B153" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B154" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B155" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B156" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B157" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B158" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B159" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B160" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B161" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B162" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B163" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B164" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B165" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B166" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B167" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B168" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B169" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B172" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B173" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B174" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B175" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B176" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B177" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B178" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B179" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B180" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B184" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B186" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B192" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B193" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B194" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B195" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B196" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B197" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B198" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B199" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B200" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B201" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B202" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B203" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B204" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B205" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B206" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B207" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B208" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B209" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B210" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B211" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B212" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B213" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B214" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B215" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B216" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B217" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B218" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B219" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B220" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B221" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B222" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B223" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B226" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B227" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B228" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B229" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B230" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B231" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B232" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B233" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B234" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B235" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B236" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B237" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B238" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B239" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B240" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B241" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B242" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B243" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B244" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B245" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B246" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B247" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B250" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B251" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B252" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B253" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B254" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B255" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B256" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B257" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B258" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B259" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B260" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B261" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B262" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B263" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B264" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B265" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B266" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B267" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B268" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B269" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B270" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B271" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B272" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B273" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B274" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B275" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B276" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B277" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B278" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B279" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B280" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B281" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B282" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B283" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B284" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B301" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B302" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B303" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B304" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B305" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B306" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B307" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B309" r:id="rId258" display="Subset Sum Problem" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B310" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B311" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B312" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B313" r:id="rId262" display="Combinational Sum" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B314" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B315" r:id="rId264" display="Print all permutations of a string " xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B316" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B317" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B318" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B319" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B320" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B323" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B324" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B325" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B326" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B327" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B328" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B329" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B330" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B331" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B332" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B333" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B334" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B335" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B336" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B337" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B338" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B339" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B340" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B341" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B342" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B343" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B344" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B345" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B346" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B347" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B348" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B349" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B350" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B351" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B352" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B353" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B354" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B355" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B356" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B357" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B358" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B359" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B360" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B367" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B368" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B369" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B370" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B371" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B372" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B373" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B374" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B375" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B376" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B377" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B378" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B379" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B380" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B381" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B382" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B383" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B384" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B389" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B390" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B391" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B392" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B393" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B394" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B395" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B396" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B397" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B398" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B399" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B400" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B401" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B402" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B403" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B404" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B405" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B406" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B407" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B408" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B409" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B410" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B411" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B412" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B413" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B414" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B415" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B416" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B417" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B418" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B419" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B420" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B421" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B422" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B423" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B424" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B425" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B426" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B428" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B427" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B429" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B430" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B431" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B440" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B441" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B442" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B443" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B444" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B445" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B461" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B462" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B463" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B464" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B465" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B466" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B467" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B468" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B473" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B474" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B475" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B476" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B477" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B478" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B481" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B483" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B484" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B485" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B486" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B487" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B488" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B489" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B492" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B493" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B494" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B495" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B496" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B497" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B498" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B499" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B500" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B501" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B503" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B504" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B505" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B506" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B507" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B508" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B509" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B510" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B512" r:id="rId415" display="Count All Palindromic Subsequence in a given String" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B511" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B516" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B518" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B519" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B520" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B521" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B522" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B523" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B524" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B525" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B526" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B527" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B534" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B533" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B532" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B531" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B530" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B529" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B528" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B537" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B538" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B539" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B540" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B541" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B542" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B543" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B546" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B544" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B545" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B388" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B296" r:id="rId446" xr:uid="{E53BE2F0-AC22-43D0-BD53-D61960B98828}"/>
-    <hyperlink ref="B297" r:id="rId447" xr:uid="{E8F3B1B0-B6F1-4A92-B8C0-23AD6DE75C47}"/>
-    <hyperlink ref="B293" r:id="rId448" xr:uid="{05D37F33-406F-4F93-A25C-A905369D9C0C}"/>
-    <hyperlink ref="B291" r:id="rId449" xr:uid="{6EAC365B-70F1-4B65-8A5B-C50F8B553371}"/>
-    <hyperlink ref="B299" r:id="rId450" xr:uid="{7FE6547E-0A9F-45C2-B56D-F257159EE50E}"/>
-    <hyperlink ref="B298" r:id="rId451" xr:uid="{B1CDC9F4-B1E5-43E5-B6DC-6FAD971F94AE}"/>
-    <hyperlink ref="B295" r:id="rId452" xr:uid="{4FBECC30-01EC-434D-AEDE-94C4F9056BF5}"/>
-    <hyperlink ref="B448" r:id="rId453" xr:uid="{1EDA4193-29A4-46BF-89A2-F2BC29C9F0C0}"/>
-    <hyperlink ref="B449" r:id="rId454" xr:uid="{344B9E2D-1679-418F-A694-A3926C319D5E}"/>
-    <hyperlink ref="B450" r:id="rId455" xr:uid="{08BF6851-3952-4205-89C6-098BD03ACFE9}"/>
-    <hyperlink ref="B187" r:id="rId456" xr:uid="{50EE62EE-5745-48D3-BFA2-A56A27D99214}"/>
-    <hyperlink ref="B451" r:id="rId457" xr:uid="{069B6A3F-37A5-432E-8E3B-5796EA85B0D5}"/>
-    <hyperlink ref="B452" r:id="rId458" xr:uid="{4A003CAF-E9D9-4066-BB9C-B0D7745C2590}"/>
-    <hyperlink ref="B552" r:id="rId459" xr:uid="{6267FE5E-84B0-4919-A127-B6132A448C13}"/>
-    <hyperlink ref="B553" r:id="rId460" xr:uid="{6FD7735F-947E-4C3C-A4F7-CC8015B951F7}"/>
-    <hyperlink ref="B434" r:id="rId461" xr:uid="{F960342B-0999-45A2-8CCC-26D2D2F4A335}"/>
-    <hyperlink ref="B554" r:id="rId462" xr:uid="{11835747-CC00-4435-A7D2-15E71CB56C2E}"/>
+    <hyperlink ref="B148" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B149" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B150" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B151" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B152" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B153" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B154" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B155" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B156" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B157" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B159" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B160" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B161" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B162" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B163" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B164" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B165" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B166" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B167" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B168" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B169" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B170" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B171" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B174" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B175" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B176" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B177" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B178" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B179" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B180" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B181" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B182" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B186" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B188" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B192" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B194" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B195" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B196" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B197" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B198" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B199" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B200" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B201" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B202" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B203" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B204" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B205" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B206" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B207" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B208" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B209" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B210" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B211" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B212" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B213" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B214" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B215" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B216" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B217" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B218" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B219" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B220" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B221" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B222" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B223" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B224" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B225" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B228" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B229" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B230" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B231" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B232" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B233" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B234" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B235" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B236" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B237" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B238" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B239" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B240" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B241" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B242" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B243" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B244" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B245" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B246" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B247" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B248" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B249" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B252" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B253" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B254" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B255" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B256" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B257" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B258" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B259" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B260" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B261" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B262" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B263" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B264" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B265" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B266" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B267" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B268" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B269" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B270" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B271" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B272" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B273" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B274" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B275" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B276" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B277" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B278" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B279" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B280" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B281" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B282" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B283" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B284" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B285" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B286" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B303" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B304" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B305" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B306" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B307" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B308" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B309" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B311" r:id="rId258" display="Subset Sum Problem" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B312" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B313" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B314" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B315" r:id="rId262" display="Combinational Sum" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B316" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B317" r:id="rId264" display="Print all permutations of a string " xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B318" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B319" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B320" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B321" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B322" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B325" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B326" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B327" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B328" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B329" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B330" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B331" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B332" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B333" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B334" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B335" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B336" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B337" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B338" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B339" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B340" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B341" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B342" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B343" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B344" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B345" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B346" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B347" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B348" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B349" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B350" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B351" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B352" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B353" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B354" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B355" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B356" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B357" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B358" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B359" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B360" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B361" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B362" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B369" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B370" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B371" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B372" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B373" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B374" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B375" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B376" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B377" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B378" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B379" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B380" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B381" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B382" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B383" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B384" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B385" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B386" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B391" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B392" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B393" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B394" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B395" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B396" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B397" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B398" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B399" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B400" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B401" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B402" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B403" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B404" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B405" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B406" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B407" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B408" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B409" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B410" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B411" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B412" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B413" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B414" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B415" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B416" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B417" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B418" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B419" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B420" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B421" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B422" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B423" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B424" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B425" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B426" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B427" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B428" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B430" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B429" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B431" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B432" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B433" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B442" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B443" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B444" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B445" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B446" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B447" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B463" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B464" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B465" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B466" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B467" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B468" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B469" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B470" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B475" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B476" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B477" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B478" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B479" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B480" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B483" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B485" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B486" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B487" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B488" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B489" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B490" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B491" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B494" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B495" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B496" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B497" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B498" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B499" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B500" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B501" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B502" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B503" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B505" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B506" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B507" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B508" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B509" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B510" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B511" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B512" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B514" r:id="rId415" display="Count All Palindromic Subsequence in a given String" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B513" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B518" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B520" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B521" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B522" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B523" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B524" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B525" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B526" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B527" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B528" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B529" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B536" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B535" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B534" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B533" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B532" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B531" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B530" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B539" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B540" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B541" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B542" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B543" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B544" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B545" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B548" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B546" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B547" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B390" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B298" r:id="rId446" xr:uid="{E53BE2F0-AC22-43D0-BD53-D61960B98828}"/>
+    <hyperlink ref="B299" r:id="rId447" xr:uid="{E8F3B1B0-B6F1-4A92-B8C0-23AD6DE75C47}"/>
+    <hyperlink ref="B295" r:id="rId448" xr:uid="{05D37F33-406F-4F93-A25C-A905369D9C0C}"/>
+    <hyperlink ref="B293" r:id="rId449" xr:uid="{6EAC365B-70F1-4B65-8A5B-C50F8B553371}"/>
+    <hyperlink ref="B301" r:id="rId450" xr:uid="{7FE6547E-0A9F-45C2-B56D-F257159EE50E}"/>
+    <hyperlink ref="B300" r:id="rId451" xr:uid="{B1CDC9F4-B1E5-43E5-B6DC-6FAD971F94AE}"/>
+    <hyperlink ref="B297" r:id="rId452" xr:uid="{4FBECC30-01EC-434D-AEDE-94C4F9056BF5}"/>
+    <hyperlink ref="B450" r:id="rId453" xr:uid="{1EDA4193-29A4-46BF-89A2-F2BC29C9F0C0}"/>
+    <hyperlink ref="B451" r:id="rId454" xr:uid="{344B9E2D-1679-418F-A694-A3926C319D5E}"/>
+    <hyperlink ref="B452" r:id="rId455" xr:uid="{08BF6851-3952-4205-89C6-098BD03ACFE9}"/>
+    <hyperlink ref="B189" r:id="rId456" xr:uid="{50EE62EE-5745-48D3-BFA2-A56A27D99214}"/>
+    <hyperlink ref="B453" r:id="rId457" xr:uid="{069B6A3F-37A5-432E-8E3B-5796EA85B0D5}"/>
+    <hyperlink ref="B454" r:id="rId458" xr:uid="{4A003CAF-E9D9-4066-BB9C-B0D7745C2590}"/>
+    <hyperlink ref="B554" r:id="rId459" xr:uid="{6267FE5E-84B0-4919-A127-B6132A448C13}"/>
+    <hyperlink ref="B555" r:id="rId460" xr:uid="{6FD7735F-947E-4C3C-A4F7-CC8015B951F7}"/>
+    <hyperlink ref="B436" r:id="rId461" xr:uid="{F960342B-0999-45A2-8CCC-26D2D2F4A335}"/>
+    <hyperlink ref="B556" r:id="rId462" xr:uid="{11835747-CC00-4435-A7D2-15E71CB56C2E}"/>
     <hyperlink ref="B101" r:id="rId463" xr:uid="{6CAD03C6-4CF8-4609-A8CB-94588CF0601E}"/>
-    <hyperlink ref="B363" r:id="rId464" xr:uid="{A9F9A6B2-4A7A-4EA9-98C3-64EB83456E30}"/>
-    <hyperlink ref="B555" r:id="rId465" xr:uid="{6CBBE9B2-B38F-46D8-B4ED-8222A1206E1F}"/>
-    <hyperlink ref="B556" r:id="rId466" xr:uid="{D8A7A526-91A5-4590-84D6-2AFA791B5E1D}"/>
+    <hyperlink ref="B365" r:id="rId464" xr:uid="{A9F9A6B2-4A7A-4EA9-98C3-64EB83456E30}"/>
+    <hyperlink ref="B557" r:id="rId465" xr:uid="{6CBBE9B2-B38F-46D8-B4ED-8222A1206E1F}"/>
+    <hyperlink ref="B558" r:id="rId466" xr:uid="{D8A7A526-91A5-4590-84D6-2AFA791B5E1D}"/>
     <hyperlink ref="B144" r:id="rId467" xr:uid="{10F7B7EF-A77E-4D04-9927-9E8B6B48C368}"/>
     <hyperlink ref="B145" r:id="rId468" xr:uid="{5C051B0F-E90B-4812-B33B-39FB86914E36}"/>
-    <hyperlink ref="B146" r:id="rId469" xr:uid="{07C00C5F-3F41-4175-913B-AB276CE52658}"/>
-    <hyperlink ref="B453" r:id="rId470" xr:uid="{66CC3629-2FD8-49F5-931C-CA5F2885B18C}"/>
-    <hyperlink ref="B454" r:id="rId471" xr:uid="{980A8CD4-4B15-436D-8001-B64FDA2B8C78}"/>
-    <hyperlink ref="B455" r:id="rId472" xr:uid="{F5F68118-82A9-4B92-9433-BE2F9EEB45DB}"/>
-    <hyperlink ref="B456" r:id="rId473" xr:uid="{45473A19-46D3-4614-B309-1B116D5817AC}"/>
-    <hyperlink ref="B469" r:id="rId474" xr:uid="{6CE71D28-5AC5-4E4F-8B26-54E16C1FEF68}"/>
-    <hyperlink ref="B470" r:id="rId475" xr:uid="{86CEF577-0E57-40FB-8226-A1B9D66313D9}"/>
-    <hyperlink ref="B471" r:id="rId476" xr:uid="{2C74544F-E912-4C5A-8F33-B5F8786E68D7}"/>
-    <hyperlink ref="B472" r:id="rId477" xr:uid="{3CD261D3-5E3C-47C1-B929-F5C8890F02B4}"/>
-    <hyperlink ref="C496" r:id="rId478" display="https://leetcode.com/problems/minimum-path-sum/" xr:uid="{CD625DD7-8859-424F-A22D-7B74CC4681B3}"/>
-    <hyperlink ref="C510" r:id="rId479" xr:uid="{DEA418C2-9318-4C58-9850-7624F99686BC}"/>
-    <hyperlink ref="B479" r:id="rId480" xr:uid="{95D4953E-76C6-4AAB-AB8E-972C09CB2BB5}"/>
-    <hyperlink ref="B502" r:id="rId481" xr:uid="{61CD9F39-5D29-4A16-9637-974268DB4501}"/>
-    <hyperlink ref="B490" r:id="rId482" xr:uid="{B85EEB96-17D8-4755-BB20-FD797CDB4CA7}"/>
-    <hyperlink ref="B491" r:id="rId483" xr:uid="{96AB5A0F-CA51-47D2-849B-F76D178C2F9B}"/>
-    <hyperlink ref="B480" r:id="rId484" xr:uid="{DDCF1F8E-F2FC-41D4-B535-43272D41EC68}"/>
-    <hyperlink ref="C154" r:id="rId485" xr:uid="{7977B9AE-11AC-4883-87F6-9FACB62A09D9}"/>
-    <hyperlink ref="B517" r:id="rId486" xr:uid="{46047BFA-0147-4E03-B637-0C3C575EB513}"/>
-    <hyperlink ref="B513" r:id="rId487" xr:uid="{1673FD3A-B06B-4547-BCFC-997AA1022EFC}"/>
-    <hyperlink ref="C512" r:id="rId488" xr:uid="{B140118B-3309-4D65-B8F2-5C81C975C3F7}"/>
-    <hyperlink ref="C513" r:id="rId489" xr:uid="{15FF0E57-3712-4FDF-8A41-69055B2B38A0}"/>
-    <hyperlink ref="B514" r:id="rId490" xr:uid="{CB49817E-3ACC-4F78-B7B5-48C49CA3A44E}"/>
-    <hyperlink ref="B515" r:id="rId491" xr:uid="{0D1E8650-55F7-4F0F-B577-FC48E4266037}"/>
-    <hyperlink ref="B482" r:id="rId492" xr:uid="{2BA62D31-D76A-42A9-83BA-3257D24DD96C}"/>
-    <hyperlink ref="B557" r:id="rId493" display="Subarray Sum divisible by K (Leetcode 560)" xr:uid="{1B448318-FB50-44D5-BEF5-B03FF97781CC}"/>
+    <hyperlink ref="B147" r:id="rId469" xr:uid="{07C00C5F-3F41-4175-913B-AB276CE52658}"/>
+    <hyperlink ref="B455" r:id="rId470" xr:uid="{66CC3629-2FD8-49F5-931C-CA5F2885B18C}"/>
+    <hyperlink ref="B456" r:id="rId471" xr:uid="{980A8CD4-4B15-436D-8001-B64FDA2B8C78}"/>
+    <hyperlink ref="B457" r:id="rId472" xr:uid="{F5F68118-82A9-4B92-9433-BE2F9EEB45DB}"/>
+    <hyperlink ref="B458" r:id="rId473" xr:uid="{45473A19-46D3-4614-B309-1B116D5817AC}"/>
+    <hyperlink ref="B471" r:id="rId474" xr:uid="{6CE71D28-5AC5-4E4F-8B26-54E16C1FEF68}"/>
+    <hyperlink ref="B472" r:id="rId475" xr:uid="{86CEF577-0E57-40FB-8226-A1B9D66313D9}"/>
+    <hyperlink ref="B473" r:id="rId476" xr:uid="{2C74544F-E912-4C5A-8F33-B5F8786E68D7}"/>
+    <hyperlink ref="B474" r:id="rId477" xr:uid="{3CD261D3-5E3C-47C1-B929-F5C8890F02B4}"/>
+    <hyperlink ref="C498" r:id="rId478" display="https://leetcode.com/problems/minimum-path-sum/" xr:uid="{CD625DD7-8859-424F-A22D-7B74CC4681B3}"/>
+    <hyperlink ref="C512" r:id="rId479" xr:uid="{DEA418C2-9318-4C58-9850-7624F99686BC}"/>
+    <hyperlink ref="B481" r:id="rId480" xr:uid="{95D4953E-76C6-4AAB-AB8E-972C09CB2BB5}"/>
+    <hyperlink ref="B504" r:id="rId481" xr:uid="{61CD9F39-5D29-4A16-9637-974268DB4501}"/>
+    <hyperlink ref="B492" r:id="rId482" xr:uid="{B85EEB96-17D8-4755-BB20-FD797CDB4CA7}"/>
+    <hyperlink ref="B493" r:id="rId483" xr:uid="{96AB5A0F-CA51-47D2-849B-F76D178C2F9B}"/>
+    <hyperlink ref="B482" r:id="rId484" xr:uid="{DDCF1F8E-F2FC-41D4-B535-43272D41EC68}"/>
+    <hyperlink ref="C155" r:id="rId485" xr:uid="{7977B9AE-11AC-4883-87F6-9FACB62A09D9}"/>
+    <hyperlink ref="B519" r:id="rId486" xr:uid="{46047BFA-0147-4E03-B637-0C3C575EB513}"/>
+    <hyperlink ref="B515" r:id="rId487" xr:uid="{1673FD3A-B06B-4547-BCFC-997AA1022EFC}"/>
+    <hyperlink ref="C514" r:id="rId488" xr:uid="{B140118B-3309-4D65-B8F2-5C81C975C3F7}"/>
+    <hyperlink ref="C515" r:id="rId489" xr:uid="{15FF0E57-3712-4FDF-8A41-69055B2B38A0}"/>
+    <hyperlink ref="B516" r:id="rId490" xr:uid="{CB49817E-3ACC-4F78-B7B5-48C49CA3A44E}"/>
+    <hyperlink ref="B517" r:id="rId491" xr:uid="{0D1E8650-55F7-4F0F-B577-FC48E4266037}"/>
+    <hyperlink ref="B484" r:id="rId492" xr:uid="{2BA62D31-D76A-42A9-83BA-3257D24DD96C}"/>
+    <hyperlink ref="B559" r:id="rId493" display="Subarray Sum divisible by K (Leetcode 560)" xr:uid="{1B448318-FB50-44D5-BEF5-B03FF97781CC}"/>
+    <hyperlink ref="B146" r:id="rId494" display="Deleter Nth node from last in a linked list" xr:uid="{AD15AD9F-B62D-4AE3-87BA-1A94868D15BA}"/>
+    <hyperlink ref="B158" r:id="rId495" xr:uid="{4477C72C-A754-450A-99A4-AA548069DA50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId494"/>
+  <pageSetup orientation="portrait" r:id="rId496"/>
 </worksheet>
 </file>
--- a/DSA_QUESTIONS.xlsx
+++ b/DSA_QUESTIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CC7BCA-2579-421F-AE10-BF47359ABB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5CAA73-9759-4CB9-B9CB-2C65F4D1AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="549">
   <si>
     <t xml:space="preserve">Problem: </t>
   </si>
@@ -1843,22 +1843,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">                                                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dynamic Programming</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">                                                                           </t>
     </r>
     <r>
@@ -2134,17 +2118,81 @@
     <t xml:space="preserve">Merge Two Sorted List </t>
   </si>
   <si>
-    <t>Do it inplace  (Reursive and Iterative)</t>
-  </si>
-  <si>
     <t>Delete Nth node from last in a linked list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamic Programming</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Do it inplace  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reursive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Iterative)</t>
+    </r>
+  </si>
+  <si>
+    <t>First solve it using the brute force solution and then solve it 
+using the optimized way using merge sort and analayse the time complexity using pen and paper</t>
+  </si>
+  <si>
+    <t>Insertion Sort on Linked List</t>
+  </si>
+  <si>
+    <t>Proof Of Floyed Cycle Detection Algorithm(Link)</t>
+  </si>
+  <si>
+    <t>Implement a Singly Linked List</t>
+  </si>
+  <si>
+    <t>Use Oops Concepts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2337,6 +2385,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2389,7 +2445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2456,7 +2512,10 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2776,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
@@ -2808,17 +2867,17 @@
         <v>0</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="19.8">
       <c r="A5" s="7"/>
       <c r="B5" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -3874,92 +3933,96 @@
       </c>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" ht="36.6">
-      <c r="A142" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C142" s="35" t="s">
-        <v>492</v>
+    <row r="142" spans="1:4" ht="19.8">
+      <c r="A142" s="2"/>
+      <c r="B142" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>548</v>
       </c>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" ht="19.8">
+    <row r="143" spans="1:4" ht="36.6">
       <c r="A143" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="B143" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C143" s="29"/>
+      <c r="B143" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>492</v>
+      </c>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" ht="19.8">
       <c r="A144" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="B144" s="21" t="s">
-        <v>478</v>
+      <c r="B144" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="C144" s="29"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" ht="19.8">
-      <c r="A145" s="2"/>
-      <c r="B145" s="20" t="s">
-        <v>479</v>
+      <c r="A145" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>478</v>
       </c>
       <c r="C145" s="29"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" ht="19.8">
       <c r="A146" s="2"/>
-      <c r="B146" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="C146" s="29" t="s">
-        <v>540</v>
-      </c>
+      <c r="B146" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C146" s="29"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" ht="19.8">
       <c r="A147" s="2"/>
-      <c r="B147" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="C147" s="29"/>
+      <c r="B147" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>539</v>
+      </c>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" ht="19.8">
       <c r="A148" s="2"/>
-      <c r="B148" s="20" t="s">
-        <v>128</v>
+      <c r="B148" s="22" t="s">
+        <v>498</v>
       </c>
       <c r="C148" s="29"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" ht="19.8">
       <c r="A149" s="2"/>
-      <c r="B149" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C149" s="29"/>
+      <c r="B149" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>546</v>
+      </c>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" ht="19.8">
       <c r="A150" s="2"/>
       <c r="B150" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C150" s="29"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" ht="19.8">
       <c r="A151" s="2"/>
-      <c r="B151" s="19" t="s">
-        <v>131</v>
+      <c r="B151" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="C151" s="29"/>
       <c r="D151" s="1"/>
@@ -3967,15 +4030,15 @@
     <row r="152" spans="1:4" ht="19.8">
       <c r="A152" s="2"/>
       <c r="B152" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" s="29"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" ht="19.8">
       <c r="A153" s="2"/>
-      <c r="B153" s="20" t="s">
-        <v>133</v>
+      <c r="B153" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="C153" s="29"/>
       <c r="D153" s="1"/>
@@ -3983,7 +4046,7 @@
     <row r="154" spans="1:4" ht="19.8">
       <c r="A154" s="2"/>
       <c r="B154" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C154" s="29"/>
       <c r="D154" s="1"/>
@@ -3991,51 +4054,51 @@
     <row r="155" spans="1:4" ht="19.8">
       <c r="A155" s="2"/>
       <c r="B155" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>528</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C155" s="29"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" ht="19.8">
       <c r="A156" s="2"/>
       <c r="B156" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C156" s="29"/>
+        <v>135</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>527</v>
+      </c>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" ht="19.8">
       <c r="A157" s="2"/>
-      <c r="B157" s="16" t="s">
-        <v>137</v>
+      <c r="B157" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="C157" s="29"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" ht="19.8">
       <c r="A158" s="2"/>
-      <c r="B158" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="C158" s="29" t="s">
-        <v>542</v>
-      </c>
+      <c r="B158" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C158" s="29"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" ht="19.8">
       <c r="A159" s="2"/>
-      <c r="B159" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C159" s="29"/>
+      <c r="B159" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>543</v>
+      </c>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" ht="19.8">
       <c r="A160" s="2"/>
-      <c r="B160" s="16" t="s">
-        <v>139</v>
+      <c r="B160" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="C160" s="29"/>
       <c r="D160" s="1"/>
@@ -4043,15 +4106,15 @@
     <row r="161" spans="1:4" ht="19.8">
       <c r="A161" s="2"/>
       <c r="B161" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C161" s="29"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" ht="19.8">
       <c r="A162" s="2"/>
-      <c r="B162" s="16" t="s">
-        <v>141</v>
+      <c r="B162" s="28" t="s">
+        <v>545</v>
       </c>
       <c r="C162" s="29"/>
       <c r="D162" s="1"/>
@@ -4059,49 +4122,49 @@
     <row r="163" spans="1:4" ht="19.8">
       <c r="A163" s="2"/>
       <c r="B163" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C163" s="29"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" ht="19.8">
       <c r="A164" s="2"/>
-      <c r="B164" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C164" s="29" t="s">
-        <v>539</v>
-      </c>
+      <c r="B164" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C164" s="29"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" ht="19.8">
       <c r="A165" s="2"/>
       <c r="B165" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C165" s="29"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" ht="19.8">
       <c r="A166" s="2"/>
-      <c r="B166" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C166" s="29"/>
+      <c r="B166" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>538</v>
+      </c>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" ht="19.8">
       <c r="A167" s="2"/>
       <c r="B167" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C167" s="29"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" ht="19.8">
       <c r="A168" s="2"/>
-      <c r="B168" s="16" t="s">
-        <v>147</v>
+      <c r="B168" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="C168" s="29"/>
       <c r="D168" s="1"/>
@@ -4109,7 +4172,7 @@
     <row r="169" spans="1:4" ht="19.8">
       <c r="A169" s="2"/>
       <c r="B169" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C169" s="29"/>
       <c r="D169" s="1"/>
@@ -4117,7 +4180,7 @@
     <row r="170" spans="1:4" ht="19.8">
       <c r="A170" s="2"/>
       <c r="B170" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C170" s="29"/>
       <c r="D170" s="1"/>
@@ -4125,45 +4188,45 @@
     <row r="171" spans="1:4" ht="19.8">
       <c r="A171" s="2"/>
       <c r="B171" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C171" s="29"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" ht="19.8">
       <c r="A172" s="2"/>
-      <c r="B172" s="18" t="s">
-        <v>151</v>
-      </c>
+      <c r="B172" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C172" s="29"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" ht="19.8">
       <c r="A173" s="2"/>
-      <c r="B173" s="18" t="s">
-        <v>152</v>
-      </c>
+      <c r="B173" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C173" s="29"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" ht="19.8">
       <c r="A174" s="2"/>
-      <c r="B174" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C174" s="29"/>
+      <c r="B174" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" ht="19.8">
       <c r="A175" s="2"/>
-      <c r="B175" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C175" s="29"/>
+      <c r="B175" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" ht="19.8">
       <c r="A176" s="2"/>
       <c r="B176" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C176" s="29"/>
       <c r="D176" s="1"/>
@@ -4171,7 +4234,7 @@
     <row r="177" spans="1:4" ht="19.8">
       <c r="A177" s="2"/>
       <c r="B177" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C177" s="29"/>
       <c r="D177" s="1"/>
@@ -4179,23 +4242,25 @@
     <row r="178" spans="1:4" ht="19.8">
       <c r="A178" s="2"/>
       <c r="B178" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C178" s="29"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" ht="19.8">
+    <row r="179" spans="1:4" ht="54.6">
       <c r="A179" s="2"/>
-      <c r="B179" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C179" s="29"/>
+      <c r="B179" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C179" s="40" t="s">
+        <v>544</v>
+      </c>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" ht="19.8">
       <c r="A180" s="2"/>
       <c r="B180" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C180" s="29"/>
       <c r="D180" s="1"/>
@@ -4203,7 +4268,7 @@
     <row r="181" spans="1:4" ht="19.8">
       <c r="A181" s="2"/>
       <c r="B181" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C181" s="29"/>
       <c r="D181" s="1"/>
@@ -4211,68 +4276,72 @@
     <row r="182" spans="1:4" ht="19.8">
       <c r="A182" s="2"/>
       <c r="B182" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C182" s="29"/>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" ht="19.8">
       <c r="A183" s="2"/>
+      <c r="B183" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C183" s="29"/>
+      <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" ht="19.8">
       <c r="A184" s="2"/>
-      <c r="B184" s="18" t="s">
-        <v>499</v>
-      </c>
+      <c r="B184" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C184" s="29"/>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" ht="19.8">
       <c r="A185" s="2"/>
-      <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" ht="19.8">
       <c r="A186" s="2"/>
-      <c r="B186" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C186" s="29" t="s">
-        <v>513</v>
+      <c r="B186" s="18" t="s">
+        <v>499</v>
       </c>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" ht="20.399999999999999">
+    <row r="187" spans="1:4" ht="19.8">
       <c r="A187" s="2"/>
-      <c r="B187" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C187" s="29"/>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" ht="19.8">
       <c r="A188" s="2"/>
-      <c r="B188" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C188" s="29"/>
+      <c r="B188" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C188" s="29" t="s">
+        <v>512</v>
+      </c>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" ht="19.8">
+    <row r="189" spans="1:4" ht="20.399999999999999">
       <c r="A189" s="2"/>
-      <c r="B189" s="22" t="s">
-        <v>500</v>
+      <c r="B189" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="C189" s="29"/>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" ht="19.8">
       <c r="A190" s="2"/>
-      <c r="B190" s="23"/>
+      <c r="B190" s="23" t="s">
+        <v>163</v>
+      </c>
       <c r="C190" s="29"/>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" ht="19.8">
       <c r="A191" s="2"/>
-      <c r="B191" s="23"/>
+      <c r="B191" s="22" t="s">
+        <v>500</v>
+      </c>
       <c r="C191" s="29"/>
       <c r="D191" s="1"/>
     </row>
@@ -5126,7 +5195,7 @@
         <v>458</v>
       </c>
       <c r="C301" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D301" s="1"/>
     </row>
@@ -6245,9 +6314,9 @@
     <row r="448" spans="1:4">
       <c r="D448" s="1"/>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" ht="21">
       <c r="B449" s="18" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="D449" s="1"/>
     </row>
@@ -6259,7 +6328,7 @@
         <v>461</v>
       </c>
       <c r="C450" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D450" s="1"/>
     </row>
@@ -6277,7 +6346,7 @@
         <v>480</v>
       </c>
       <c r="B452" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D452" s="1"/>
     </row>
@@ -6307,7 +6376,7 @@
         <v>482</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D456" s="1"/>
     </row>
@@ -6487,7 +6556,7 @@
     <row r="481" spans="1:4" ht="19.8">
       <c r="A481" s="2"/>
       <c r="B481" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C481" s="29"/>
       <c r="D481" s="1"/>
@@ -6495,7 +6564,7 @@
     <row r="482" spans="1:4" ht="19.8">
       <c r="A482" s="2"/>
       <c r="B482" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C482" s="29"/>
       <c r="D482" s="1"/>
@@ -6506,14 +6575,14 @@
         <v>384</v>
       </c>
       <c r="C483" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D483" s="1"/>
     </row>
     <row r="484" spans="1:4" ht="19.8">
       <c r="A484" s="2"/>
       <c r="B484" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C484" s="29"/>
       <c r="D484" s="1"/>
@@ -6577,7 +6646,7 @@
     <row r="492" spans="1:4" ht="19.8">
       <c r="A492" s="2"/>
       <c r="B492" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C492" s="29"/>
       <c r="D492" s="1"/>
@@ -6585,7 +6654,7 @@
     <row r="493" spans="1:4" ht="19.8">
       <c r="A493" s="2"/>
       <c r="B493" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C493" s="29"/>
       <c r="D493" s="1"/>
@@ -6675,10 +6744,10 @@
     <row r="504" spans="1:4" ht="19.8">
       <c r="A504" s="2"/>
       <c r="B504" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C504" s="29" t="s">
         <v>522</v>
-      </c>
-      <c r="C504" s="29" t="s">
-        <v>523</v>
       </c>
       <c r="D504" s="1"/>
     </row>
@@ -6753,44 +6822,44 @@
         <v>410</v>
       </c>
       <c r="C513" s="29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D513" s="1"/>
     </row>
-    <row r="514" spans="1:4" ht="32.4">
+    <row r="514" spans="1:4" ht="54.6">
       <c r="A514" s="2"/>
       <c r="B514" s="39" t="s">
-        <v>530</v>
-      </c>
-      <c r="C514" s="40" t="s">
-        <v>532</v>
+        <v>529</v>
+      </c>
+      <c r="C514" s="41" t="s">
+        <v>531</v>
       </c>
       <c r="D514" s="1"/>
     </row>
-    <row r="515" spans="1:4" ht="32.4">
+    <row r="515" spans="1:4" ht="36.6">
       <c r="A515" s="2"/>
       <c r="B515" s="39" t="s">
-        <v>531</v>
-      </c>
-      <c r="C515" s="40" t="s">
-        <v>533</v>
+        <v>530</v>
+      </c>
+      <c r="C515" s="41" t="s">
+        <v>532</v>
       </c>
       <c r="D515" s="1"/>
     </row>
     <row r="516" spans="1:4" ht="19.8">
       <c r="A516" s="2"/>
       <c r="B516" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="C516" s="40"/>
+        <v>533</v>
+      </c>
+      <c r="C516" s="41"/>
       <c r="D516" s="1"/>
     </row>
     <row r="517" spans="1:4" ht="19.8">
       <c r="A517" s="2"/>
       <c r="B517" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="C517" s="40"/>
+        <v>534</v>
+      </c>
+      <c r="C517" s="41"/>
       <c r="D517" s="1"/>
     </row>
     <row r="518" spans="1:4" ht="19.8">
@@ -6804,7 +6873,7 @@
     <row r="519" spans="1:4" ht="19.8">
       <c r="A519" s="2"/>
       <c r="B519" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C519" s="29"/>
       <c r="D519" s="1"/>
@@ -6951,7 +7020,7 @@
     <row r="538" spans="1:4" ht="19.8">
       <c r="A538" s="2"/>
       <c r="B538" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C538" s="29"/>
       <c r="D538" s="1"/>
@@ -7029,7 +7098,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="B551" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -7064,12 +7133,12 @@
     </row>
     <row r="559" spans="1:4">
       <c r="B559" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="598" spans="2:2">
       <c r="B598" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -7198,42 +7267,42 @@
     <hyperlink ref="B139" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
     <hyperlink ref="B108" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
     <hyperlink ref="B115" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B142" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B148" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B149" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B150" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B151" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B152" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B153" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B154" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B155" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B156" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B157" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B159" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B160" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B161" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B162" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B163" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B164" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B165" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B166" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B167" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B168" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B169" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B170" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B171" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B174" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B175" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B176" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B177" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B178" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B179" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B180" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B181" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B182" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B186" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B188" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B143" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B144" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B149" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B150" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B151" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B152" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B153" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B154" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B155" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B156" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B157" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B158" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B160" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B161" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B163" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B164" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B165" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B166" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B167" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B168" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B169" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B170" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B171" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B172" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B173" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B176" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B177" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B178" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B179" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B180" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B181" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B182" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B183" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B184" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B190" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
     <hyperlink ref="B192" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
     <hyperlink ref="B194" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
     <hyperlink ref="B195" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
@@ -7529,7 +7598,7 @@
     <hyperlink ref="B450" r:id="rId453" xr:uid="{1EDA4193-29A4-46BF-89A2-F2BC29C9F0C0}"/>
     <hyperlink ref="B451" r:id="rId454" xr:uid="{344B9E2D-1679-418F-A694-A3926C319D5E}"/>
     <hyperlink ref="B452" r:id="rId455" xr:uid="{08BF6851-3952-4205-89C6-098BD03ACFE9}"/>
-    <hyperlink ref="B189" r:id="rId456" xr:uid="{50EE62EE-5745-48D3-BFA2-A56A27D99214}"/>
+    <hyperlink ref="B191" r:id="rId456" xr:uid="{50EE62EE-5745-48D3-BFA2-A56A27D99214}"/>
     <hyperlink ref="B453" r:id="rId457" xr:uid="{069B6A3F-37A5-432E-8E3B-5796EA85B0D5}"/>
     <hyperlink ref="B454" r:id="rId458" xr:uid="{4A003CAF-E9D9-4066-BB9C-B0D7745C2590}"/>
     <hyperlink ref="B554" r:id="rId459" xr:uid="{6267FE5E-84B0-4919-A127-B6132A448C13}"/>
@@ -7540,9 +7609,9 @@
     <hyperlink ref="B365" r:id="rId464" xr:uid="{A9F9A6B2-4A7A-4EA9-98C3-64EB83456E30}"/>
     <hyperlink ref="B557" r:id="rId465" xr:uid="{6CBBE9B2-B38F-46D8-B4ED-8222A1206E1F}"/>
     <hyperlink ref="B558" r:id="rId466" xr:uid="{D8A7A526-91A5-4590-84D6-2AFA791B5E1D}"/>
-    <hyperlink ref="B144" r:id="rId467" xr:uid="{10F7B7EF-A77E-4D04-9927-9E8B6B48C368}"/>
-    <hyperlink ref="B145" r:id="rId468" xr:uid="{5C051B0F-E90B-4812-B33B-39FB86914E36}"/>
-    <hyperlink ref="B147" r:id="rId469" xr:uid="{07C00C5F-3F41-4175-913B-AB276CE52658}"/>
+    <hyperlink ref="B145" r:id="rId467" xr:uid="{10F7B7EF-A77E-4D04-9927-9E8B6B48C368}"/>
+    <hyperlink ref="B146" r:id="rId468" xr:uid="{5C051B0F-E90B-4812-B33B-39FB86914E36}"/>
+    <hyperlink ref="B148" r:id="rId469" xr:uid="{07C00C5F-3F41-4175-913B-AB276CE52658}"/>
     <hyperlink ref="B455" r:id="rId470" xr:uid="{66CC3629-2FD8-49F5-931C-CA5F2885B18C}"/>
     <hyperlink ref="B456" r:id="rId471" xr:uid="{980A8CD4-4B15-436D-8001-B64FDA2B8C78}"/>
     <hyperlink ref="B457" r:id="rId472" xr:uid="{F5F68118-82A9-4B92-9433-BE2F9EEB45DB}"/>
@@ -7558,7 +7627,7 @@
     <hyperlink ref="B492" r:id="rId482" xr:uid="{B85EEB96-17D8-4755-BB20-FD797CDB4CA7}"/>
     <hyperlink ref="B493" r:id="rId483" xr:uid="{96AB5A0F-CA51-47D2-849B-F76D178C2F9B}"/>
     <hyperlink ref="B482" r:id="rId484" xr:uid="{DDCF1F8E-F2FC-41D4-B535-43272D41EC68}"/>
-    <hyperlink ref="C155" r:id="rId485" xr:uid="{7977B9AE-11AC-4883-87F6-9FACB62A09D9}"/>
+    <hyperlink ref="C156" r:id="rId485" xr:uid="{7977B9AE-11AC-4883-87F6-9FACB62A09D9}"/>
     <hyperlink ref="B519" r:id="rId486" xr:uid="{46047BFA-0147-4E03-B637-0C3C575EB513}"/>
     <hyperlink ref="B515" r:id="rId487" xr:uid="{1673FD3A-B06B-4547-BCFC-997AA1022EFC}"/>
     <hyperlink ref="C514" r:id="rId488" xr:uid="{B140118B-3309-4D65-B8F2-5C81C975C3F7}"/>
@@ -7567,10 +7636,13 @@
     <hyperlink ref="B517" r:id="rId491" xr:uid="{0D1E8650-55F7-4F0F-B577-FC48E4266037}"/>
     <hyperlink ref="B484" r:id="rId492" xr:uid="{2BA62D31-D76A-42A9-83BA-3257D24DD96C}"/>
     <hyperlink ref="B559" r:id="rId493" display="Subarray Sum divisible by K (Leetcode 560)" xr:uid="{1B448318-FB50-44D5-BEF5-B03FF97781CC}"/>
-    <hyperlink ref="B146" r:id="rId494" display="Deleter Nth node from last in a linked list" xr:uid="{AD15AD9F-B62D-4AE3-87BA-1A94868D15BA}"/>
-    <hyperlink ref="B158" r:id="rId495" xr:uid="{4477C72C-A754-450A-99A4-AA548069DA50}"/>
+    <hyperlink ref="B147" r:id="rId494" display="Deleter Nth node from last in a linked list" xr:uid="{AD15AD9F-B62D-4AE3-87BA-1A94868D15BA}"/>
+    <hyperlink ref="B159" r:id="rId495" xr:uid="{4477C72C-A754-450A-99A4-AA548069DA50}"/>
+    <hyperlink ref="B162" r:id="rId496" xr:uid="{3CD126E0-9217-476D-8457-CC724E616C3E}"/>
+    <hyperlink ref="C149" r:id="rId497" display="Proof Of Floyed Cycle Detection Algorithm" xr:uid="{C48AD1BF-4690-4AE4-A0F6-A12BCCF90B52}"/>
+    <hyperlink ref="B142" r:id="rId498" xr:uid="{18A9CDA4-F59B-4A26-B016-440F8F852ECB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId496"/>
+  <pageSetup orientation="portrait" r:id="rId499"/>
 </worksheet>
 </file>
--- a/DSA_QUESTIONS.xlsx
+++ b/DSA_QUESTIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5CAA73-9759-4CB9-B9CB-2C65F4D1AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A4AB7-BDDA-4531-A18F-FED9BEA4CBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="551">
   <si>
     <t xml:space="preserve">Problem: </t>
   </si>
@@ -1548,13 +1548,628 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">                                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> String</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Binary Search</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linked List Components (Leetcode 817</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Binary Tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Binary Tree Coloring Game (Leetcode 1145</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Greedy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recursion And Backtracking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stacks And Queues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Heaps</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Graph</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disjoint Set Union</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bit Manipulation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hashmap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minimum Cost For Ticket (Leetcode 983</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Print Each Level in a New Line</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.Maths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Backtracking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maths</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maths</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design Of Data_Structures</t>
+    </r>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>Tag: (Most Efficient Approach)/Hint</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Array</t>
+    </r>
+  </si>
+  <si>
+    <t>Print Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Print Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Improved Complexity --&gt;Suffix Tree</t>
+  </si>
+  <si>
+    <t>Shortest Common SuperSequence</t>
+  </si>
+  <si>
+    <t>Print Shortest Common SuperSequence</t>
+  </si>
+  <si>
+    <t>Minimum number of deletions and insertions to transform one string into another</t>
+  </si>
+  <si>
+    <t>LPS(S)=LCS(S,REVERSE(S))</t>
+  </si>
+  <si>
+    <t>Leetcode Link</t>
+  </si>
+  <si>
+    <t>Count Pailendromic Substring</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String (Duplicate Subsequence Allowed)</t>
+  </si>
+  <si>
+    <t>Count Different Pailendromic Subsequence (Leetcode 730)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YHSjvswCXC8&amp;t=235s&amp;ab_ch
+annel=Pepcoding</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch
+?v=fvYlinirmFg&amp;ab_channel=Pepcoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum No. of Deletion in a String to make it a pailendrome </t>
+  </si>
+  <si>
+    <t>Minimum No. of Insertion in a String to make it a pailendrome  (Leetcode1312)</t>
+  </si>
+  <si>
+    <t>same as LCS.only a slight variation is required.</t>
+  </si>
+  <si>
+    <t>Find length of longest subsequence of one string which is substring of another string</t>
+  </si>
+  <si>
+    <t>Subarray Sum divisible by K (Leetcode 974)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O(Node) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Do it in a single Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Two Sorted List </t>
+  </si>
+  <si>
+    <t>Delete Nth node from last in a linked list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamic Programming</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Do it inplace  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reursive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Iterative)</t>
+    </r>
+  </si>
+  <si>
+    <t>First solve it using the brute force solution and then solve it 
+using the optimized way using merge sort and analayse the time complexity using pen and paper</t>
+  </si>
+  <si>
+    <t>Insertion Sort on Linked List</t>
+  </si>
+  <si>
+    <t>Proof Of Floyed Cycle Detection Algorithm(Link)</t>
+  </si>
+  <si>
+    <t>Implement a Singly Linked List</t>
+  </si>
+  <si>
+    <t>Use Oops Concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blue</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:-Revision</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Red</t>
+      <t xml:space="preserve">     Red</t>
     </r>
     <r>
       <rPr>
@@ -1602,597 +2217,12 @@
       <t xml:space="preserve"> --&gt;Good to go to next Question. </t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> String</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Binary Search</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Linked List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Linked List Components (Leetcode 817</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Binary Tree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Binary Tree Coloring Game (Leetcode 1145</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Greedy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Recursion And Backtracking</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stacks And Queues</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Heaps</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Graph</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Disjoint Set Union</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bit Manipulation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                                                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hashmap</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Minimum Cost For Ticket (Leetcode 983</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Print Each Level in a New Line</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.Maths</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. Backtracking</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Maths</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Maths</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design Of Data_Structures</t>
-    </r>
-  </si>
-  <si>
-    <t>Time Complexity</t>
-  </si>
-  <si>
-    <t>Tag: (Most Efficient Approach)/Hint</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                                                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Array</t>
-    </r>
-  </si>
-  <si>
-    <t>Print Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>Print Longest Common Substring</t>
-  </si>
-  <si>
-    <t>Improved Complexity --&gt;Suffix Tree</t>
-  </si>
-  <si>
-    <t>Shortest Common SuperSequence</t>
-  </si>
-  <si>
-    <t>Print Shortest Common SuperSequence</t>
-  </si>
-  <si>
-    <t>Minimum number of deletions and insertions to transform one string into another</t>
-  </si>
-  <si>
-    <t>LPS(S)=LCS(S,REVERSE(S))</t>
-  </si>
-  <si>
-    <t>Leetcode Link</t>
-  </si>
-  <si>
-    <t>Count Pailendromic Substring</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String (Duplicate Subsequence Allowed)</t>
-  </si>
-  <si>
-    <t>Count Different Pailendromic Subsequence (Leetcode 730)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YHSjvswCXC8&amp;t=235s&amp;ab_ch
-annel=Pepcoding</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch
-?v=fvYlinirmFg&amp;ab_channel=Pepcoding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum No. of Deletion in a String to make it a pailendrome </t>
-  </si>
-  <si>
-    <t>Minimum No. of Insertion in a String to make it a pailendrome  (Leetcode1312)</t>
-  </si>
-  <si>
-    <t>same as LCS.only a slight variation is required.</t>
-  </si>
-  <si>
-    <t>Find length of longest subsequence of one string which is substring of another string</t>
-  </si>
-  <si>
-    <t>Subarray Sum divisible by K (Leetcode 974)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> O(Node) time and O(1) space</t>
-  </si>
-  <si>
-    <t>Do it in a single Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Two Sorted List </t>
-  </si>
-  <si>
-    <t>Delete Nth node from last in a linked list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dynamic Programming</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Do it inplace  (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reursive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and Iterative)</t>
-    </r>
-  </si>
-  <si>
-    <t>First solve it using the brute force solution and then solve it 
-using the optimized way using merge sort and analayse the time complexity using pen and paper</t>
-  </si>
-  <si>
-    <t>Insertion Sort on Linked List</t>
-  </si>
-  <si>
-    <t>Proof Of Floyed Cycle Detection Algorithm(Link)</t>
-  </si>
-  <si>
-    <t>Implement a Singly Linked List</t>
-  </si>
-  <si>
-    <t>Use Oops Concepts</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2393,6 +2423,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2445,7 +2497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2517,6 +2569,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2835,25 +2890,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="104.796875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="109.8984375" style="18" customWidth="1"/>
     <col min="3" max="3" width="59.3984375" style="18" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="21.8984375" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" t="s">
+        <v>549</v>
+      </c>
       <c r="B1" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="C1" s="15"/>
+        <v>550</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="16"/>
@@ -2867,17 +2927,17 @@
         <v>0</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="19.8">
       <c r="A5" s="7"/>
       <c r="B5" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -3263,7 +3323,7 @@
     <row r="55" spans="1:4" ht="19.8">
       <c r="A55" s="2"/>
       <c r="B55" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D55" s="1"/>
     </row>
@@ -3616,7 +3676,7 @@
     <row r="100" spans="1:4" ht="19.8">
       <c r="A100" s="2"/>
       <c r="B100" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D100" s="1"/>
     </row>
@@ -3929,17 +3989,17 @@
     <row r="141" spans="1:4" ht="19.8">
       <c r="A141" s="2"/>
       <c r="B141" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" ht="19.8">
       <c r="A142" s="2"/>
       <c r="B142" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C142" s="18" t="s">
         <v>547</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>548</v>
       </c>
       <c r="D142" s="1"/>
     </row>
@@ -3986,17 +4046,17 @@
     <row r="147" spans="1:4" ht="19.8">
       <c r="A147" s="2"/>
       <c r="B147" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C147" s="29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" ht="19.8">
       <c r="A148" s="2"/>
       <c r="B148" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C148" s="29"/>
       <c r="D148" s="1"/>
@@ -4007,7 +4067,7 @@
         <v>128</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D149" s="1"/>
     </row>
@@ -4065,7 +4125,7 @@
         <v>135</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D156" s="1"/>
     </row>
@@ -4088,10 +4148,10 @@
     <row r="159" spans="1:4" ht="19.8">
       <c r="A159" s="2"/>
       <c r="B159" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D159" s="1"/>
     </row>
@@ -4114,7 +4174,7 @@
     <row r="162" spans="1:4" ht="19.8">
       <c r="A162" s="2"/>
       <c r="B162" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C162" s="29"/>
       <c r="D162" s="1"/>
@@ -4149,7 +4209,7 @@
         <v>143</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D166" s="1"/>
     </row>
@@ -4253,7 +4313,7 @@
         <v>156</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D179" s="1"/>
     </row>
@@ -4303,7 +4363,7 @@
     <row r="186" spans="1:4" ht="19.8">
       <c r="A186" s="2"/>
       <c r="B186" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D186" s="1"/>
     </row>
@@ -4317,7 +4377,7 @@
         <v>162</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D188" s="1"/>
     </row>
@@ -4340,7 +4400,7 @@
     <row r="191" spans="1:4" ht="19.8">
       <c r="A191" s="2"/>
       <c r="B191" s="22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C191" s="29"/>
       <c r="D191" s="1"/>
@@ -4630,7 +4690,7 @@
     <row r="227" spans="1:4" ht="19.8">
       <c r="A227" s="2"/>
       <c r="B227" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D227" s="1"/>
     </row>
@@ -4817,7 +4877,7 @@
     <row r="251" spans="1:4" ht="19.8">
       <c r="A251" s="2"/>
       <c r="B251" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D251" s="1"/>
     </row>
@@ -5108,7 +5168,7 @@
     <row r="288" spans="1:4" ht="19.8">
       <c r="A288" s="2"/>
       <c r="B288" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D288" s="1"/>
     </row>
@@ -5195,7 +5255,7 @@
         <v>458</v>
       </c>
       <c r="C301" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D301" s="1"/>
     </row>
@@ -5368,7 +5428,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="B324" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D324" s="1"/>
     </row>
@@ -5681,7 +5741,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="B364" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D364" s="1"/>
     </row>
@@ -5858,7 +5918,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="B389" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D389" s="1"/>
     </row>
@@ -6223,7 +6283,7 @@
     <row r="435" spans="1:4" ht="19.8">
       <c r="A435" s="4"/>
       <c r="B435" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C435" s="29"/>
       <c r="D435" s="1"/>
@@ -6259,7 +6319,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="B441" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D441" s="1"/>
     </row>
@@ -6316,7 +6376,7 @@
     </row>
     <row r="449" spans="1:4" ht="21">
       <c r="B449" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D449" s="1"/>
     </row>
@@ -6328,7 +6388,7 @@
         <v>461</v>
       </c>
       <c r="C450" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D450" s="1"/>
     </row>
@@ -6346,7 +6406,7 @@
         <v>480</v>
       </c>
       <c r="B452" s="22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D452" s="1"/>
     </row>
@@ -6376,7 +6436,7 @@
         <v>482</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D456" s="1"/>
     </row>
@@ -6556,7 +6616,7 @@
     <row r="481" spans="1:4" ht="19.8">
       <c r="A481" s="2"/>
       <c r="B481" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C481" s="29"/>
       <c r="D481" s="1"/>
@@ -6564,7 +6624,7 @@
     <row r="482" spans="1:4" ht="19.8">
       <c r="A482" s="2"/>
       <c r="B482" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C482" s="29"/>
       <c r="D482" s="1"/>
@@ -6575,14 +6635,14 @@
         <v>384</v>
       </c>
       <c r="C483" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D483" s="1"/>
     </row>
     <row r="484" spans="1:4" ht="19.8">
       <c r="A484" s="2"/>
       <c r="B484" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C484" s="29"/>
       <c r="D484" s="1"/>
@@ -6646,7 +6706,7 @@
     <row r="492" spans="1:4" ht="19.8">
       <c r="A492" s="2"/>
       <c r="B492" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C492" s="29"/>
       <c r="D492" s="1"/>
@@ -6654,7 +6714,7 @@
     <row r="493" spans="1:4" ht="19.8">
       <c r="A493" s="2"/>
       <c r="B493" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C493" s="29"/>
       <c r="D493" s="1"/>
@@ -6744,10 +6804,10 @@
     <row r="504" spans="1:4" ht="19.8">
       <c r="A504" s="2"/>
       <c r="B504" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C504" s="29" t="s">
         <v>521</v>
-      </c>
-      <c r="C504" s="29" t="s">
-        <v>522</v>
       </c>
       <c r="D504" s="1"/>
     </row>
@@ -6822,34 +6882,34 @@
         <v>410</v>
       </c>
       <c r="C513" s="29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D513" s="1"/>
     </row>
     <row r="514" spans="1:4" ht="54.6">
       <c r="A514" s="2"/>
       <c r="B514" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C514" s="41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D514" s="1"/>
     </row>
     <row r="515" spans="1:4" ht="36.6">
       <c r="A515" s="2"/>
       <c r="B515" s="39" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C515" s="41" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D515" s="1"/>
     </row>
     <row r="516" spans="1:4" ht="19.8">
       <c r="A516" s="2"/>
       <c r="B516" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C516" s="41"/>
       <c r="D516" s="1"/>
@@ -6857,7 +6917,7 @@
     <row r="517" spans="1:4" ht="19.8">
       <c r="A517" s="2"/>
       <c r="B517" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C517" s="41"/>
       <c r="D517" s="1"/>
@@ -6873,7 +6933,7 @@
     <row r="519" spans="1:4" ht="19.8">
       <c r="A519" s="2"/>
       <c r="B519" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C519" s="29"/>
       <c r="D519" s="1"/>
@@ -7020,7 +7080,7 @@
     <row r="538" spans="1:4" ht="19.8">
       <c r="A538" s="2"/>
       <c r="B538" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C538" s="29"/>
       <c r="D538" s="1"/>
@@ -7098,7 +7158,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="B551" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -7133,12 +7193,12 @@
     </row>
     <row r="559" spans="1:4">
       <c r="B559" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="598" spans="2:2">
       <c r="B598" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/DSA_QUESTIONS.xlsx
+++ b/DSA_QUESTIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A4AB7-BDDA-4531-A18F-FED9BEA4CBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668BBB74-F0B1-4BFD-8109-101F4116E8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="560">
   <si>
     <t xml:space="preserve">Problem: </t>
   </si>
@@ -1959,22 +1959,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design Of Data_Structures</t>
-    </r>
-  </si>
-  <si>
     <t>Time Complexity</t>
   </si>
   <si>
@@ -2089,35 +2073,6 @@
       </rPr>
       <t>Dynamic Programming</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Do it inplace  (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reursive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and Iterative)</t>
-    </r>
-  </si>
-  <si>
-    <t>First solve it using the brute force solution and then solve it 
-using the optimized way using merge sort and analayse the time complexity using pen and paper</t>
   </si>
   <si>
     <t>Insertion Sort on Linked List</t>
@@ -2217,12 +2172,62 @@
       <t xml:space="preserve"> --&gt;Good to go to next Question. </t>
     </r>
   </si>
+  <si>
+    <t>FoldOf Linked List</t>
+  </si>
+  <si>
+    <t>Unfold Of a Linked List</t>
+  </si>
+  <si>
+    <t>First solve it using the brute force solution and then solve it 
+using the optimized way using merge sort and analayse the time complexity using pen and paper. (Good Question to analyse time Complexity Concepts).</t>
+  </si>
+  <si>
+    <t>Analyse the time complexity of the algorithm.</t>
+  </si>
+  <si>
+    <t>Do it inplace  (Reursive and Iterative)</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List (Leetcode 328)</t>
+  </si>
+  <si>
+    <t>Reverse Linked List in Ranges (Leetcode 92)</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in Even Length Groups (Leetcode 2074)</t>
+  </si>
+  <si>
+    <t>(Difference Methods and Floyd Cycle Detection Method)</t>
+  </si>
+  <si>
+    <t>(Using HashMap and Without HashMap)</t>
+  </si>
+  <si>
+    <t>Insert at a given Position in a doubly Linked List</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design Questions</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2445,6 +2450,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2497,7 +2509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2573,6 +2585,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2888,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:E598"/>
+  <dimension ref="A1:E605"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B613" sqref="B613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
@@ -2906,13 +2919,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2927,17 +2940,17 @@
         <v>0</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="19.8">
       <c r="A5" s="7"/>
       <c r="B5" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -3996,10 +4009,10 @@
     <row r="142" spans="1:4" ht="19.8">
       <c r="A142" s="2"/>
       <c r="B142" s="19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D142" s="1"/>
     </row>
@@ -4019,7 +4032,7 @@
       <c r="A144" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C144" s="29"/>
@@ -4029,7 +4042,7 @@
       <c r="A145" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="B145" s="21" t="s">
+      <c r="B145" s="20" t="s">
         <v>478</v>
       </c>
       <c r="C145" s="29"/>
@@ -4046,10 +4059,10 @@
     <row r="147" spans="1:4" ht="19.8">
       <c r="A147" s="2"/>
       <c r="B147" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="C147" s="29" t="s">
-        <v>538</v>
+        <v>539</v>
+      </c>
+      <c r="C147" s="38" t="s">
+        <v>537</v>
       </c>
       <c r="D147" s="1"/>
     </row>
@@ -4067,7 +4080,7 @@
         <v>128</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D149" s="1"/>
     </row>
@@ -4080,8 +4093,10 @@
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" ht="19.8">
-      <c r="A151" s="2"/>
-      <c r="B151" s="16" t="s">
+      <c r="A151" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B151" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C151" s="29"/>
@@ -4125,7 +4140,7 @@
         <v>135</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D156" s="1"/>
     </row>
@@ -4138,34 +4153,42 @@
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" ht="19.8">
-      <c r="A158" s="2"/>
-      <c r="B158" s="16" t="s">
+      <c r="A158" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B158" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C158" s="29"/>
+      <c r="C158" s="38" t="s">
+        <v>556</v>
+      </c>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" ht="19.8">
       <c r="A159" s="2"/>
       <c r="B159" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="C159" s="29" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="C159" s="38" t="s">
+        <v>552</v>
       </c>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" ht="19.8">
       <c r="A160" s="2"/>
-      <c r="B160" s="28" t="s">
+      <c r="B160" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C160" s="29"/>
+      <c r="C160" s="38" t="s">
+        <v>551</v>
+      </c>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" ht="19.8">
-      <c r="A161" s="2"/>
-      <c r="B161" s="16" t="s">
+      <c r="A161" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B161" s="32" t="s">
         <v>139</v>
       </c>
       <c r="C161" s="29"/>
@@ -4174,7 +4197,7 @@
     <row r="162" spans="1:4" ht="19.8">
       <c r="A162" s="2"/>
       <c r="B162" s="28" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C162" s="29"/>
       <c r="D162" s="1"/>
@@ -4208,8 +4231,8 @@
       <c r="B166" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C166" s="29" t="s">
-        <v>537</v>
+      <c r="C166" s="38" t="s">
+        <v>536</v>
       </c>
       <c r="D166" s="1"/>
     </row>
@@ -4263,72 +4286,76 @@
     </row>
     <row r="173" spans="1:4" ht="19.8">
       <c r="A173" s="2"/>
-      <c r="B173" s="16" t="s">
-        <v>150</v>
+      <c r="B173" s="20" t="s">
+        <v>558</v>
       </c>
       <c r="C173" s="29"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" ht="19.8">
       <c r="A174" s="2"/>
-      <c r="B174" s="18" t="s">
-        <v>151</v>
-      </c>
+      <c r="B174" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C174" s="29"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" ht="19.8">
       <c r="A175" s="2"/>
       <c r="B175" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" ht="19.8">
       <c r="A176" s="2"/>
-      <c r="B176" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C176" s="29"/>
+      <c r="B176" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" ht="19.8">
       <c r="A177" s="2"/>
       <c r="B177" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C177" s="29"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" spans="1:4" ht="19.8">
       <c r="A178" s="2"/>
-      <c r="B178" s="16" t="s">
-        <v>155</v>
+      <c r="B178" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="C178" s="29"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" ht="54.6">
-      <c r="A179" s="2"/>
-      <c r="B179" s="19" t="s">
+    <row r="179" spans="1:4" ht="19.8">
+      <c r="A179" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B179" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C179" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" ht="72.599999999999994">
+      <c r="A180" s="2"/>
+      <c r="B180" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C179" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="1:4" ht="19.8">
-      <c r="A180" s="2"/>
-      <c r="B180" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C180" s="29"/>
+      <c r="C180" s="40" t="s">
+        <v>550</v>
+      </c>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" ht="19.8">
       <c r="A181" s="2"/>
       <c r="B181" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C181" s="29"/>
       <c r="D181" s="1"/>
@@ -4336,340 +4363,331 @@
     <row r="182" spans="1:4" ht="19.8">
       <c r="A182" s="2"/>
       <c r="B182" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C182" s="29"/>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" ht="19.8">
       <c r="A183" s="2"/>
-      <c r="B183" s="16" t="s">
-        <v>160</v>
+      <c r="B183" s="43" t="s">
+        <v>159</v>
       </c>
       <c r="C183" s="29"/>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" ht="19.8">
-      <c r="A184" s="2"/>
-      <c r="B184" s="16" t="s">
-        <v>161</v>
+      <c r="A184" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B184" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="C184" s="29"/>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" ht="19.8">
       <c r="A185" s="2"/>
+      <c r="B185" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C185" s="29"/>
+      <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" ht="19.8">
       <c r="A186" s="2"/>
-      <c r="B186" s="18" t="s">
-        <v>498</v>
-      </c>
+      <c r="B186" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="C186" s="29"/>
       <c r="D186" s="1"/>
     </row>
     <row r="187" spans="1:4" ht="19.8">
       <c r="A187" s="2"/>
+      <c r="B187" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="C187" s="29"/>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" ht="19.8">
       <c r="A188" s="2"/>
       <c r="B188" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C188" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="D188" s="1"/>
-    </row>
-    <row r="189" spans="1:4" ht="20.399999999999999">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="19.8">
       <c r="A189" s="2"/>
-      <c r="B189" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C189" s="29"/>
-      <c r="D189" s="1"/>
+      <c r="B189" s="20" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="190" spans="1:4" ht="19.8">
       <c r="A190" s="2"/>
-      <c r="B190" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C190" s="29"/>
-      <c r="D190" s="1"/>
+      <c r="B190" s="16" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="191" spans="1:4" ht="19.8">
       <c r="A191" s="2"/>
-      <c r="B191" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="C191" s="29"/>
-      <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" ht="19.8">
       <c r="A192" s="2"/>
-      <c r="B192" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C192" s="29"/>
-      <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="1:5" ht="19.8">
+    </row>
+    <row r="193" spans="1:4" ht="19.8">
       <c r="A193" s="2"/>
-      <c r="B193" s="16"/>
-      <c r="C193" s="29"/>
+      <c r="B193" s="18" t="s">
+        <v>498</v>
+      </c>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:5" ht="19.8">
+    <row r="194" spans="1:4" ht="19.8">
       <c r="A194" s="2"/>
-      <c r="B194" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C194" s="29"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:5" ht="19.8">
+    <row r="195" spans="1:4" ht="19.8">
       <c r="A195" s="2"/>
-      <c r="B195" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C195" s="29"/>
+      <c r="B195" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C195" s="29" t="s">
+        <v>511</v>
+      </c>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:5" ht="19.8">
+    <row r="196" spans="1:4" ht="20.399999999999999">
       <c r="A196" s="2"/>
-      <c r="B196" s="16" t="s">
-        <v>439</v>
+      <c r="B196" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="C196" s="29"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:5" ht="19.8">
+    <row r="197" spans="1:4" ht="19.8">
       <c r="A197" s="2"/>
-      <c r="B197" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C197" s="33" t="s">
-        <v>440</v>
-      </c>
+      <c r="B197" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C197" s="29"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:5" ht="19.8">
+    <row r="198" spans="1:4" ht="19.8">
       <c r="A198" s="2"/>
-      <c r="B198" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C198" s="33" t="s">
-        <v>440</v>
-      </c>
+      <c r="B198" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="C198" s="29"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:5" ht="19.8">
+    <row r="199" spans="1:4" ht="19.8">
       <c r="A199" s="2"/>
       <c r="B199" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C199" s="29"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:5" ht="19.8">
+    <row r="200" spans="1:4" ht="19.8">
       <c r="A200" s="2"/>
-      <c r="B200" s="16" t="s">
-        <v>170</v>
-      </c>
+      <c r="B200" s="16"/>
       <c r="C200" s="29"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:5" ht="19.8">
+    <row r="201" spans="1:4" ht="19.8">
       <c r="A201" s="2"/>
       <c r="B201" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C201" s="29"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:5" ht="19.8">
+    <row r="202" spans="1:4" ht="19.8">
       <c r="A202" s="2"/>
       <c r="B202" s="16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C202" s="29"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:5" ht="21">
+    <row r="203" spans="1:4" ht="19.8">
       <c r="A203" s="2"/>
       <c r="B203" s="16" t="s">
-        <v>173</v>
+        <v>439</v>
       </c>
       <c r="C203" s="29"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="19.8">
+    </row>
+    <row r="204" spans="1:4" ht="19.8">
       <c r="A204" s="2"/>
       <c r="B204" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C204" s="29"/>
+        <v>167</v>
+      </c>
+      <c r="C204" s="33" t="s">
+        <v>440</v>
+      </c>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:5" ht="19.8">
+    <row r="205" spans="1:4" ht="19.8">
       <c r="A205" s="2"/>
       <c r="B205" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C205" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="C205" s="33" t="s">
+        <v>440</v>
+      </c>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:5" ht="19.8">
+    <row r="206" spans="1:4" ht="19.8">
       <c r="A206" s="2"/>
       <c r="B206" s="16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C206" s="29"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:5" ht="19.8">
+    <row r="207" spans="1:4" ht="19.8">
       <c r="A207" s="2"/>
       <c r="B207" s="16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C207" s="29"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:5" ht="19.8">
+    <row r="208" spans="1:4" ht="19.8">
       <c r="A208" s="2"/>
       <c r="B208" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C208" s="29"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4" ht="19.8">
+    <row r="209" spans="1:5" ht="19.8">
       <c r="A209" s="2"/>
       <c r="B209" s="16" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C209" s="29"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4" ht="19.8">
+    <row r="210" spans="1:5" ht="21">
       <c r="A210" s="2"/>
       <c r="B210" s="16" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C210" s="29"/>
       <c r="D210" s="1"/>
-    </row>
-    <row r="211" spans="1:4" ht="19.8">
+      <c r="E210" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="19.8">
       <c r="A211" s="2"/>
       <c r="B211" s="16" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C211" s="29"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4" ht="19.8">
+    <row r="212" spans="1:5" ht="19.8">
       <c r="A212" s="2"/>
       <c r="B212" s="16" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C212" s="29"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4" ht="19.8">
+    <row r="213" spans="1:5" ht="19.8">
       <c r="A213" s="2"/>
       <c r="B213" s="16" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C213" s="29"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4" ht="19.8">
+    <row r="214" spans="1:5" ht="19.8">
       <c r="A214" s="2"/>
       <c r="B214" s="16" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C214" s="29"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4" ht="19.8">
+    <row r="215" spans="1:5" ht="19.8">
       <c r="A215" s="2"/>
       <c r="B215" s="16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C215" s="29"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4" ht="19.8">
+    <row r="216" spans="1:5" ht="19.8">
       <c r="A216" s="2"/>
       <c r="B216" s="16" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C216" s="29"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4" ht="19.8">
+    <row r="217" spans="1:5" ht="19.8">
       <c r="A217" s="2"/>
       <c r="B217" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C217" s="29"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4" ht="19.8">
+    <row r="218" spans="1:5" ht="19.8">
       <c r="A218" s="2"/>
       <c r="B218" s="16" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C218" s="29"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4" ht="19.8">
+    <row r="219" spans="1:5" ht="19.8">
       <c r="A219" s="2"/>
       <c r="B219" s="16" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C219" s="29"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4" ht="19.8">
+    <row r="220" spans="1:5" ht="19.8">
       <c r="A220" s="2"/>
       <c r="B220" s="16" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C220" s="29"/>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="1:4" ht="19.8">
+    <row r="221" spans="1:5" ht="19.8">
       <c r="A221" s="2"/>
       <c r="B221" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C221" s="29"/>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="1:4" ht="19.8">
+    <row r="222" spans="1:5" ht="19.8">
       <c r="A222" s="2"/>
       <c r="B222" s="16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C222" s="29"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:4" ht="19.8">
+    <row r="223" spans="1:5" ht="19.8">
       <c r="A223" s="2"/>
       <c r="B223" s="16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C223" s="29"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:4" ht="19.8">
+    <row r="224" spans="1:5" ht="19.8">
       <c r="A224" s="2"/>
       <c r="B224" s="16" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C224" s="29"/>
       <c r="D224" s="1"/>
@@ -4677,34 +4695,39 @@
     <row r="225" spans="1:4" ht="19.8">
       <c r="A225" s="2"/>
       <c r="B225" s="16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C225" s="29"/>
       <c r="D225" s="1"/>
     </row>
     <row r="226" spans="1:4" ht="19.8">
       <c r="A226" s="2"/>
+      <c r="B226" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="C226" s="29"/>
       <c r="D226" s="1"/>
     </row>
     <row r="227" spans="1:4" ht="19.8">
       <c r="A227" s="2"/>
-      <c r="B227" s="18" t="s">
-        <v>500</v>
-      </c>
+      <c r="B227" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C227" s="29"/>
       <c r="D227" s="1"/>
     </row>
     <row r="228" spans="1:4" ht="19.8">
       <c r="A228" s="2"/>
       <c r="B228" s="16" t="s">
-        <v>196</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C228" s="29"/>
       <c r="D228" s="1"/>
     </row>
     <row r="229" spans="1:4" ht="19.8">
       <c r="A229" s="2"/>
       <c r="B229" s="16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C229" s="29"/>
       <c r="D229" s="1"/>
@@ -4712,7 +4735,7 @@
     <row r="230" spans="1:4" ht="19.8">
       <c r="A230" s="2"/>
       <c r="B230" s="16" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C230" s="29"/>
       <c r="D230" s="1"/>
@@ -4720,7 +4743,7 @@
     <row r="231" spans="1:4" ht="19.8">
       <c r="A231" s="2"/>
       <c r="B231" s="16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C231" s="29"/>
       <c r="D231" s="1"/>
@@ -4728,39 +4751,34 @@
     <row r="232" spans="1:4" ht="19.8">
       <c r="A232" s="2"/>
       <c r="B232" s="16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C232" s="29"/>
       <c r="D232" s="1"/>
     </row>
     <row r="233" spans="1:4" ht="19.8">
       <c r="A233" s="2"/>
-      <c r="B233" s="16" t="s">
-        <v>201</v>
-      </c>
       <c r="C233" s="29"/>
       <c r="D233" s="1"/>
     </row>
     <row r="234" spans="1:4" ht="19.8">
       <c r="A234" s="2"/>
-      <c r="B234" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C234" s="29"/>
+      <c r="B234" s="18" t="s">
+        <v>500</v>
+      </c>
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" ht="19.8">
       <c r="A235" s="2"/>
       <c r="B235" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C235" s="37"/>
+        <v>196</v>
+      </c>
       <c r="D235" s="1"/>
     </row>
     <row r="236" spans="1:4" ht="19.8">
       <c r="A236" s="2"/>
       <c r="B236" s="16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C236" s="29"/>
       <c r="D236" s="1"/>
@@ -4768,7 +4786,7 @@
     <row r="237" spans="1:4" ht="19.8">
       <c r="A237" s="2"/>
       <c r="B237" s="16" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C237" s="29"/>
       <c r="D237" s="1"/>
@@ -4776,7 +4794,7 @@
     <row r="238" spans="1:4" ht="19.8">
       <c r="A238" s="2"/>
       <c r="B238" s="16" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C238" s="29"/>
       <c r="D238" s="1"/>
@@ -4784,7 +4802,7 @@
     <row r="239" spans="1:4" ht="19.8">
       <c r="A239" s="2"/>
       <c r="B239" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C239" s="29"/>
       <c r="D239" s="1"/>
@@ -4792,15 +4810,15 @@
     <row r="240" spans="1:4" ht="19.8">
       <c r="A240" s="2"/>
       <c r="B240" s="16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C240" s="29"/>
       <c r="D240" s="1"/>
     </row>
     <row r="241" spans="1:4" ht="19.8">
       <c r="A241" s="2"/>
-      <c r="B241" s="16" t="s">
-        <v>209</v>
+      <c r="B241" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="C241" s="29"/>
       <c r="D241" s="1"/>
@@ -4808,15 +4826,15 @@
     <row r="242" spans="1:4" ht="19.8">
       <c r="A242" s="2"/>
       <c r="B242" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C242" s="29"/>
+        <v>203</v>
+      </c>
+      <c r="C242" s="37"/>
       <c r="D242" s="1"/>
     </row>
     <row r="243" spans="1:4" ht="19.8">
       <c r="A243" s="2"/>
       <c r="B243" s="16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C243" s="29"/>
       <c r="D243" s="1"/>
@@ -4824,7 +4842,7 @@
     <row r="244" spans="1:4" ht="19.8">
       <c r="A244" s="2"/>
       <c r="B244" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C244" s="29"/>
       <c r="D244" s="1"/>
@@ -4832,7 +4850,7 @@
     <row r="245" spans="1:4" ht="19.8">
       <c r="A245" s="2"/>
       <c r="B245" s="16" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C245" s="29"/>
       <c r="D245" s="1"/>
@@ -4840,7 +4858,7 @@
     <row r="246" spans="1:4" ht="19.8">
       <c r="A246" s="2"/>
       <c r="B246" s="16" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C246" s="29"/>
       <c r="D246" s="1"/>
@@ -4848,7 +4866,7 @@
     <row r="247" spans="1:4" ht="19.8">
       <c r="A247" s="2"/>
       <c r="B247" s="16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C247" s="29"/>
       <c r="D247" s="1"/>
@@ -4856,7 +4874,7 @@
     <row r="248" spans="1:4" ht="19.8">
       <c r="A248" s="2"/>
       <c r="B248" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C248" s="29"/>
       <c r="D248" s="1"/>
@@ -4864,34 +4882,39 @@
     <row r="249" spans="1:4" ht="19.8">
       <c r="A249" s="2"/>
       <c r="B249" s="16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C249" s="29"/>
       <c r="D249" s="1"/>
     </row>
     <row r="250" spans="1:4" ht="19.8">
       <c r="A250" s="2"/>
+      <c r="B250" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="C250" s="29"/>
       <c r="D250" s="1"/>
     </row>
     <row r="251" spans="1:4" ht="19.8">
       <c r="A251" s="2"/>
-      <c r="B251" s="18" t="s">
-        <v>501</v>
-      </c>
+      <c r="B251" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C251" s="29"/>
       <c r="D251" s="1"/>
     </row>
     <row r="252" spans="1:4" ht="19.8">
       <c r="A252" s="2"/>
       <c r="B252" s="16" t="s">
-        <v>218</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C252" s="29"/>
       <c r="D252" s="1"/>
     </row>
     <row r="253" spans="1:4" ht="19.8">
       <c r="A253" s="2"/>
       <c r="B253" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C253" s="29"/>
       <c r="D253" s="1"/>
@@ -4899,7 +4922,7 @@
     <row r="254" spans="1:4" ht="19.8">
       <c r="A254" s="2"/>
       <c r="B254" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C254" s="29"/>
       <c r="D254" s="1"/>
@@ -4907,7 +4930,7 @@
     <row r="255" spans="1:4" ht="19.8">
       <c r="A255" s="2"/>
       <c r="B255" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C255" s="29"/>
       <c r="D255" s="1"/>
@@ -4915,39 +4938,34 @@
     <row r="256" spans="1:4" ht="19.8">
       <c r="A256" s="2"/>
       <c r="B256" s="16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C256" s="29"/>
       <c r="D256" s="1"/>
     </row>
     <row r="257" spans="1:4" ht="19.8">
       <c r="A257" s="2"/>
-      <c r="B257" s="16" t="s">
-        <v>223</v>
-      </c>
       <c r="C257" s="29"/>
       <c r="D257" s="1"/>
     </row>
     <row r="258" spans="1:4" ht="19.8">
       <c r="A258" s="2"/>
-      <c r="B258" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C258" s="29"/>
+      <c r="B258" s="18" t="s">
+        <v>501</v>
+      </c>
       <c r="D258" s="1"/>
     </row>
     <row r="259" spans="1:4" ht="19.8">
       <c r="A259" s="2"/>
       <c r="B259" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C259" s="29"/>
+        <v>218</v>
+      </c>
       <c r="D259" s="1"/>
     </row>
     <row r="260" spans="1:4" ht="19.8">
       <c r="A260" s="2"/>
       <c r="B260" s="16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C260" s="29"/>
       <c r="D260" s="1"/>
@@ -4955,7 +4973,7 @@
     <row r="261" spans="1:4" ht="19.8">
       <c r="A261" s="2"/>
       <c r="B261" s="16" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C261" s="29"/>
       <c r="D261" s="1"/>
@@ -4963,7 +4981,7 @@
     <row r="262" spans="1:4" ht="19.8">
       <c r="A262" s="2"/>
       <c r="B262" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C262" s="29"/>
       <c r="D262" s="1"/>
@@ -4971,7 +4989,7 @@
     <row r="263" spans="1:4" ht="19.8">
       <c r="A263" s="2"/>
       <c r="B263" s="16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C263" s="29"/>
       <c r="D263" s="1"/>
@@ -4979,7 +4997,7 @@
     <row r="264" spans="1:4" ht="19.8">
       <c r="A264" s="2"/>
       <c r="B264" s="16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C264" s="29"/>
       <c r="D264" s="1"/>
@@ -4987,7 +5005,7 @@
     <row r="265" spans="1:4" ht="19.8">
       <c r="A265" s="2"/>
       <c r="B265" s="16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C265" s="29"/>
       <c r="D265" s="1"/>
@@ -4995,7 +5013,7 @@
     <row r="266" spans="1:4" ht="19.8">
       <c r="A266" s="2"/>
       <c r="B266" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C266" s="29"/>
       <c r="D266" s="1"/>
@@ -5003,7 +5021,7 @@
     <row r="267" spans="1:4" ht="19.8">
       <c r="A267" s="2"/>
       <c r="B267" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C267" s="29"/>
       <c r="D267" s="1"/>
@@ -5011,7 +5029,7 @@
     <row r="268" spans="1:4" ht="19.8">
       <c r="A268" s="2"/>
       <c r="B268" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C268" s="29"/>
       <c r="D268" s="1"/>
@@ -5019,7 +5037,7 @@
     <row r="269" spans="1:4" ht="19.8">
       <c r="A269" s="2"/>
       <c r="B269" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C269" s="29"/>
       <c r="D269" s="1"/>
@@ -5027,7 +5045,7 @@
     <row r="270" spans="1:4" ht="19.8">
       <c r="A270" s="2"/>
       <c r="B270" s="16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C270" s="29"/>
       <c r="D270" s="1"/>
@@ -5035,7 +5053,7 @@
     <row r="271" spans="1:4" ht="19.8">
       <c r="A271" s="2"/>
       <c r="B271" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C271" s="29"/>
       <c r="D271" s="1"/>
@@ -5043,7 +5061,7 @@
     <row r="272" spans="1:4" ht="19.8">
       <c r="A272" s="2"/>
       <c r="B272" s="16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C272" s="29"/>
       <c r="D272" s="1"/>
@@ -5051,7 +5069,7 @@
     <row r="273" spans="1:4" ht="19.8">
       <c r="A273" s="2"/>
       <c r="B273" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C273" s="29"/>
       <c r="D273" s="1"/>
@@ -5059,7 +5077,7 @@
     <row r="274" spans="1:4" ht="19.8">
       <c r="A274" s="2"/>
       <c r="B274" s="16" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C274" s="29"/>
       <c r="D274" s="1"/>
@@ -5067,7 +5085,7 @@
     <row r="275" spans="1:4" ht="19.8">
       <c r="A275" s="2"/>
       <c r="B275" s="16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C275" s="29"/>
       <c r="D275" s="1"/>
@@ -5075,7 +5093,7 @@
     <row r="276" spans="1:4" ht="19.8">
       <c r="A276" s="2"/>
       <c r="B276" s="16" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C276" s="29"/>
       <c r="D276" s="1"/>
@@ -5083,7 +5101,7 @@
     <row r="277" spans="1:4" ht="19.8">
       <c r="A277" s="2"/>
       <c r="B277" s="16" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C277" s="29"/>
       <c r="D277" s="1"/>
@@ -5091,7 +5109,7 @@
     <row r="278" spans="1:4" ht="19.8">
       <c r="A278" s="2"/>
       <c r="B278" s="16" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C278" s="29"/>
       <c r="D278" s="1"/>
@@ -5099,7 +5117,7 @@
     <row r="279" spans="1:4" ht="19.8">
       <c r="A279" s="2"/>
       <c r="B279" s="16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C279" s="29"/>
       <c r="D279" s="1"/>
@@ -5107,7 +5125,7 @@
     <row r="280" spans="1:4" ht="19.8">
       <c r="A280" s="2"/>
       <c r="B280" s="16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C280" s="29"/>
       <c r="D280" s="1"/>
@@ -5115,7 +5133,7 @@
     <row r="281" spans="1:4" ht="19.8">
       <c r="A281" s="2"/>
       <c r="B281" s="16" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C281" s="29"/>
       <c r="D281" s="1"/>
@@ -5123,7 +5141,7 @@
     <row r="282" spans="1:4" ht="19.8">
       <c r="A282" s="2"/>
       <c r="B282" s="16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C282" s="29"/>
       <c r="D282" s="1"/>
@@ -5131,7 +5149,7 @@
     <row r="283" spans="1:4" ht="19.8">
       <c r="A283" s="2"/>
       <c r="B283" s="16" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C283" s="29"/>
       <c r="D283" s="1"/>
@@ -5139,7 +5157,7 @@
     <row r="284" spans="1:4" ht="19.8">
       <c r="A284" s="2"/>
       <c r="B284" s="16" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C284" s="29"/>
       <c r="D284" s="1"/>
@@ -5147,7 +5165,7 @@
     <row r="285" spans="1:4" ht="19.8">
       <c r="A285" s="2"/>
       <c r="B285" s="16" t="s">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="C285" s="29"/>
       <c r="D285" s="1"/>
@@ -5155,182 +5173,184 @@
     <row r="286" spans="1:4" ht="19.8">
       <c r="A286" s="2"/>
       <c r="B286" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C286" s="29"/>
       <c r="D286" s="1"/>
     </row>
     <row r="287" spans="1:4" ht="19.8">
       <c r="A287" s="2"/>
+      <c r="B287" s="16" t="s">
+        <v>246</v>
+      </c>
       <c r="C287" s="29"/>
       <c r="D287" s="1"/>
     </row>
     <row r="288" spans="1:4" ht="19.8">
       <c r="A288" s="2"/>
-      <c r="B288" s="18" t="s">
+      <c r="B288" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C288" s="29"/>
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" spans="1:4" ht="19.8">
+      <c r="A289" s="2"/>
+      <c r="B289" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C289" s="29"/>
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4" ht="19.8">
+      <c r="A290" s="2"/>
+      <c r="B290" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C290" s="29"/>
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" ht="19.8">
+      <c r="A291" s="2"/>
+      <c r="B291" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C291" s="29"/>
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="1:4" ht="19.8">
+      <c r="A292" s="2"/>
+      <c r="B292" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C292" s="29"/>
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="1:4" ht="19.8">
+      <c r="A293" s="2"/>
+      <c r="B293" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C293" s="29"/>
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" spans="1:4" ht="19.8">
+      <c r="A294" s="2"/>
+      <c r="C294" s="29"/>
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4" ht="19.8">
+      <c r="A295" s="2"/>
+      <c r="B295" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="D288" s="1"/>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="B289" s="25" t="s">
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="B296" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="C289" s="18" t="s">
+      <c r="C296" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="D289" s="1"/>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="B290" s="25" t="s">
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="B297" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="D290" s="1"/>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="B291" s="18" t="s">
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="B298" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="D291" s="1"/>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="D292" s="1"/>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="B293" s="19" t="s">
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="B300" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="C300" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="D293" s="1"/>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="B294" s="25" t="s">
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="B301" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="D294" s="1"/>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="B295" s="19" t="s">
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="B302" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="C295" s="18" t="s">
+      <c r="C302" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="D295" s="1"/>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="B296" s="26" t="s">
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="B303" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D296" s="1"/>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="B297" s="27" t="s">
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="B304" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="D297" s="1"/>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="B298" s="19" t="s">
+      <c r="D304" s="1"/>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="B305" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="D298" s="1"/>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="B299" s="28" t="s">
+      <c r="D305" s="1"/>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="B306" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="D299" s="1"/>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="B300" s="28" t="s">
+      <c r="D306" s="1"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="B307" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="D300" s="1"/>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="B301" s="27" t="s">
+      <c r="D307" s="1"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="B308" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="C301" s="18" t="s">
+      <c r="C308" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="D301" s="1"/>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="B302" s="25" t="s">
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="B309" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="D302" s="1"/>
-    </row>
-    <row r="303" spans="1:4" ht="19.8">
-      <c r="A303" s="2"/>
-      <c r="B303" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C303" s="29"/>
-      <c r="D303" s="1"/>
-    </row>
-    <row r="304" spans="1:4" ht="19.8">
-      <c r="A304" s="2"/>
-      <c r="B304" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C304" s="29"/>
-      <c r="D304" s="1"/>
-    </row>
-    <row r="305" spans="1:4" ht="19.8">
-      <c r="A305" s="2"/>
-      <c r="B305" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C305" s="29"/>
-      <c r="D305" s="1"/>
-    </row>
-    <row r="306" spans="1:4" ht="19.8">
-      <c r="A306" s="2"/>
-      <c r="B306" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C306" s="29"/>
-      <c r="D306" s="1"/>
-    </row>
-    <row r="307" spans="1:4" ht="19.8">
-      <c r="A307" s="2"/>
-      <c r="B307" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C307" s="29"/>
-      <c r="D307" s="1"/>
-    </row>
-    <row r="308" spans="1:4" ht="19.8">
-      <c r="A308" s="2"/>
-      <c r="B308" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C308" s="29"/>
-      <c r="D308" s="1"/>
-    </row>
-    <row r="309" spans="1:4" ht="19.8">
-      <c r="A309" s="2"/>
-      <c r="B309" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C309" s="29"/>
       <c r="D309" s="1"/>
     </row>
     <row r="310" spans="1:4" ht="19.8">
       <c r="A310" s="2"/>
-      <c r="B310" s="16"/>
+      <c r="B310" s="16" t="s">
+        <v>252</v>
+      </c>
       <c r="C310" s="29"/>
       <c r="D310" s="1"/>
     </row>
     <row r="311" spans="1:4" ht="19.8">
       <c r="A311" s="2"/>
-      <c r="B311" s="20" t="s">
-        <v>451</v>
+      <c r="B311" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="C311" s="29"/>
       <c r="D311" s="1"/>
@@ -5338,7 +5358,7 @@
     <row r="312" spans="1:4" ht="19.8">
       <c r="A312" s="2"/>
       <c r="B312" s="16" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C312" s="29"/>
       <c r="D312" s="1"/>
@@ -5346,7 +5366,7 @@
     <row r="313" spans="1:4" ht="19.8">
       <c r="A313" s="2"/>
       <c r="B313" s="16" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C313" s="29"/>
       <c r="D313" s="1"/>
@@ -5354,15 +5374,15 @@
     <row r="314" spans="1:4" ht="19.8">
       <c r="A314" s="2"/>
       <c r="B314" s="16" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C314" s="29"/>
       <c r="D314" s="1"/>
     </row>
     <row r="315" spans="1:4" ht="19.8">
       <c r="A315" s="2"/>
-      <c r="B315" s="20" t="s">
-        <v>443</v>
+      <c r="B315" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="C315" s="29"/>
       <c r="D315" s="1"/>
@@ -5370,23 +5390,21 @@
     <row r="316" spans="1:4" ht="19.8">
       <c r="A316" s="2"/>
       <c r="B316" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C316" s="29"/>
       <c r="D316" s="1"/>
     </row>
     <row r="317" spans="1:4" ht="19.8">
       <c r="A317" s="2"/>
-      <c r="B317" s="20" t="s">
-        <v>447</v>
-      </c>
+      <c r="B317" s="16"/>
       <c r="C317" s="29"/>
       <c r="D317" s="1"/>
     </row>
     <row r="318" spans="1:4" ht="19.8">
       <c r="A318" s="2"/>
-      <c r="B318" s="16" t="s">
-        <v>263</v>
+      <c r="B318" s="20" t="s">
+        <v>451</v>
       </c>
       <c r="C318" s="29"/>
       <c r="D318" s="1"/>
@@ -5394,7 +5412,7 @@
     <row r="319" spans="1:4" ht="19.8">
       <c r="A319" s="2"/>
       <c r="B319" s="16" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C319" s="29"/>
       <c r="D319" s="1"/>
@@ -5402,7 +5420,7 @@
     <row r="320" spans="1:4" ht="19.8">
       <c r="A320" s="2"/>
       <c r="B320" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C320" s="29"/>
       <c r="D320" s="1"/>
@@ -5410,32 +5428,39 @@
     <row r="321" spans="1:4" ht="19.8">
       <c r="A321" s="2"/>
       <c r="B321" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C321" s="29"/>
       <c r="D321" s="1"/>
     </row>
     <row r="322" spans="1:4" ht="19.8">
       <c r="A322" s="2"/>
-      <c r="B322" s="16" t="s">
-        <v>267</v>
+      <c r="B322" s="20" t="s">
+        <v>443</v>
       </c>
       <c r="C322" s="29"/>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" ht="19.8">
+      <c r="A323" s="2"/>
+      <c r="B323" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C323" s="29"/>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="1:4">
-      <c r="B324" s="18" t="s">
-        <v>503</v>
-      </c>
+    <row r="324" spans="1:4" ht="19.8">
+      <c r="A324" s="2"/>
+      <c r="B324" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C324" s="29"/>
       <c r="D324" s="1"/>
     </row>
     <row r="325" spans="1:4" ht="19.8">
       <c r="A325" s="2"/>
       <c r="B325" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C325" s="29"/>
       <c r="D325" s="1"/>
@@ -5443,7 +5468,7 @@
     <row r="326" spans="1:4" ht="19.8">
       <c r="A326" s="2"/>
       <c r="B326" s="16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C326" s="29"/>
       <c r="D326" s="1"/>
@@ -5451,7 +5476,7 @@
     <row r="327" spans="1:4" ht="19.8">
       <c r="A327" s="2"/>
       <c r="B327" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C327" s="29"/>
       <c r="D327" s="1"/>
@@ -5459,7 +5484,7 @@
     <row r="328" spans="1:4" ht="19.8">
       <c r="A328" s="2"/>
       <c r="B328" s="16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C328" s="29"/>
       <c r="D328" s="1"/>
@@ -5467,31 +5492,24 @@
     <row r="329" spans="1:4" ht="19.8">
       <c r="A329" s="2"/>
       <c r="B329" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C329" s="29"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4" ht="19.8">
-      <c r="A330" s="2"/>
-      <c r="B330" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C330" s="29"/>
+    <row r="330" spans="1:4">
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4" ht="19.8">
-      <c r="A331" s="2"/>
-      <c r="B331" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C331" s="29"/>
+    <row r="331" spans="1:4">
+      <c r="B331" s="18" t="s">
+        <v>503</v>
+      </c>
       <c r="D331" s="1"/>
     </row>
     <row r="332" spans="1:4" ht="19.8">
       <c r="A332" s="2"/>
       <c r="B332" s="16" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C332" s="29"/>
       <c r="D332" s="1"/>
@@ -5499,7 +5517,7 @@
     <row r="333" spans="1:4" ht="19.8">
       <c r="A333" s="2"/>
       <c r="B333" s="16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C333" s="29"/>
       <c r="D333" s="1"/>
@@ -5507,7 +5525,7 @@
     <row r="334" spans="1:4" ht="19.8">
       <c r="A334" s="2"/>
       <c r="B334" s="16" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C334" s="29"/>
       <c r="D334" s="1"/>
@@ -5515,7 +5533,7 @@
     <row r="335" spans="1:4" ht="19.8">
       <c r="A335" s="2"/>
       <c r="B335" s="16" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C335" s="29"/>
       <c r="D335" s="1"/>
@@ -5523,7 +5541,7 @@
     <row r="336" spans="1:4" ht="19.8">
       <c r="A336" s="2"/>
       <c r="B336" s="16" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C336" s="29"/>
       <c r="D336" s="1"/>
@@ -5531,23 +5549,23 @@
     <row r="337" spans="1:4" ht="19.8">
       <c r="A337" s="2"/>
       <c r="B337" s="16" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C337" s="29"/>
       <c r="D337" s="1"/>
     </row>
     <row r="338" spans="1:4" ht="19.8">
       <c r="A338" s="2"/>
-      <c r="B338" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="C338" s="37"/>
+      <c r="B338" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C338" s="29"/>
       <c r="D338" s="1"/>
     </row>
     <row r="339" spans="1:4" ht="19.8">
       <c r="A339" s="2"/>
       <c r="B339" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C339" s="29"/>
       <c r="D339" s="1"/>
@@ -5555,7 +5573,7 @@
     <row r="340" spans="1:4" ht="19.8">
       <c r="A340" s="2"/>
       <c r="B340" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C340" s="29"/>
       <c r="D340" s="1"/>
@@ -5563,7 +5581,7 @@
     <row r="341" spans="1:4" ht="19.8">
       <c r="A341" s="2"/>
       <c r="B341" s="16" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C341" s="29"/>
       <c r="D341" s="1"/>
@@ -5571,7 +5589,7 @@
     <row r="342" spans="1:4" ht="19.8">
       <c r="A342" s="2"/>
       <c r="B342" s="16" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C342" s="29"/>
       <c r="D342" s="1"/>
@@ -5579,7 +5597,7 @@
     <row r="343" spans="1:4" ht="19.8">
       <c r="A343" s="2"/>
       <c r="B343" s="16" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C343" s="29"/>
       <c r="D343" s="1"/>
@@ -5587,23 +5605,23 @@
     <row r="344" spans="1:4" ht="19.8">
       <c r="A344" s="2"/>
       <c r="B344" s="16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C344" s="29"/>
       <c r="D344" s="1"/>
     </row>
     <row r="345" spans="1:4" ht="19.8">
       <c r="A345" s="2"/>
-      <c r="B345" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C345" s="29"/>
+      <c r="B345" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C345" s="37"/>
       <c r="D345" s="1"/>
     </row>
     <row r="346" spans="1:4" ht="19.8">
       <c r="A346" s="2"/>
       <c r="B346" s="16" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C346" s="29"/>
       <c r="D346" s="1"/>
@@ -5611,7 +5629,7 @@
     <row r="347" spans="1:4" ht="19.8">
       <c r="A347" s="2"/>
       <c r="B347" s="16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C347" s="29"/>
       <c r="D347" s="1"/>
@@ -5619,7 +5637,7 @@
     <row r="348" spans="1:4" ht="19.8">
       <c r="A348" s="2"/>
       <c r="B348" s="16" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C348" s="29"/>
       <c r="D348" s="1"/>
@@ -5627,7 +5645,7 @@
     <row r="349" spans="1:4" ht="19.8">
       <c r="A349" s="2"/>
       <c r="B349" s="16" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C349" s="29"/>
       <c r="D349" s="1"/>
@@ -5635,7 +5653,7 @@
     <row r="350" spans="1:4" ht="19.8">
       <c r="A350" s="2"/>
       <c r="B350" s="16" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C350" s="29"/>
       <c r="D350" s="1"/>
@@ -5643,7 +5661,7 @@
     <row r="351" spans="1:4" ht="19.8">
       <c r="A351" s="2"/>
       <c r="B351" s="16" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C351" s="29"/>
       <c r="D351" s="1"/>
@@ -5651,7 +5669,7 @@
     <row r="352" spans="1:4" ht="19.8">
       <c r="A352" s="2"/>
       <c r="B352" s="16" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C352" s="29"/>
       <c r="D352" s="1"/>
@@ -5659,7 +5677,7 @@
     <row r="353" spans="1:4" ht="19.8">
       <c r="A353" s="2"/>
       <c r="B353" s="16" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C353" s="29"/>
       <c r="D353" s="1"/>
@@ -5667,7 +5685,7 @@
     <row r="354" spans="1:4" ht="19.8">
       <c r="A354" s="2"/>
       <c r="B354" s="16" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C354" s="29"/>
       <c r="D354" s="1"/>
@@ -5675,7 +5693,7 @@
     <row r="355" spans="1:4" ht="19.8">
       <c r="A355" s="2"/>
       <c r="B355" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C355" s="29"/>
       <c r="D355" s="1"/>
@@ -5683,7 +5701,7 @@
     <row r="356" spans="1:4" ht="19.8">
       <c r="A356" s="2"/>
       <c r="B356" s="16" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C356" s="29"/>
       <c r="D356" s="1"/>
@@ -5691,7 +5709,7 @@
     <row r="357" spans="1:4" ht="19.8">
       <c r="A357" s="2"/>
       <c r="B357" s="16" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C357" s="29"/>
       <c r="D357" s="1"/>
@@ -5699,7 +5717,7 @@
     <row r="358" spans="1:4" ht="19.8">
       <c r="A358" s="2"/>
       <c r="B358" s="16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C358" s="29"/>
       <c r="D358" s="1"/>
@@ -5707,7 +5725,7 @@
     <row r="359" spans="1:4" ht="19.8">
       <c r="A359" s="2"/>
       <c r="B359" s="16" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C359" s="29"/>
       <c r="D359" s="1"/>
@@ -5715,7 +5733,7 @@
     <row r="360" spans="1:4" ht="19.8">
       <c r="A360" s="2"/>
       <c r="B360" s="16" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C360" s="29"/>
       <c r="D360" s="1"/>
@@ -5723,7 +5741,7 @@
     <row r="361" spans="1:4" ht="19.8">
       <c r="A361" s="2"/>
       <c r="B361" s="16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C361" s="29"/>
       <c r="D361" s="1"/>
@@ -5731,122 +5749,122 @@
     <row r="362" spans="1:4" ht="19.8">
       <c r="A362" s="2"/>
       <c r="B362" s="16" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C362" s="29"/>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" ht="19.8">
+      <c r="A363" s="2"/>
+      <c r="B363" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C363" s="29"/>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="1:4">
-      <c r="B364" s="18" t="s">
-        <v>504</v>
-      </c>
+    <row r="364" spans="1:4" ht="19.8">
+      <c r="A364" s="2"/>
+      <c r="B364" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C364" s="29"/>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="1:4">
-      <c r="B365" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="C365" s="18" t="s">
-        <v>474</v>
-      </c>
+    <row r="365" spans="1:4" ht="19.8">
+      <c r="A365" s="2"/>
+      <c r="B365" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C365" s="29"/>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" ht="19.8">
+      <c r="A366" s="2"/>
+      <c r="B366" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C366" s="29"/>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" ht="19.8">
+      <c r="A367" s="2"/>
+      <c r="B367" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C367" s="29"/>
       <c r="D367" s="1"/>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" ht="19.8">
+      <c r="A368" s="2"/>
+      <c r="B368" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C368" s="29"/>
       <c r="D368" s="1"/>
     </row>
     <row r="369" spans="1:4" ht="19.8">
-      <c r="A369" s="4"/>
+      <c r="A369" s="2"/>
       <c r="B369" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C369" s="29"/>
       <c r="D369" s="1"/>
     </row>
-    <row r="370" spans="1:4" ht="19.8">
-      <c r="A370" s="4"/>
-      <c r="B370" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C370" s="29"/>
+    <row r="370" spans="1:4">
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="1:4" ht="19.8">
-      <c r="A371" s="4"/>
-      <c r="B371" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C371" s="29"/>
+    <row r="371" spans="1:4">
+      <c r="B371" s="18" t="s">
+        <v>504</v>
+      </c>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="1:4" ht="19.8">
-      <c r="A372" s="4"/>
-      <c r="B372" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="C372" s="29"/>
+    <row r="372" spans="1:4">
+      <c r="B372" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="C372" s="18" t="s">
+        <v>474</v>
+      </c>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="1:4" ht="19.8">
-      <c r="A373" s="4"/>
-      <c r="B373" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C373" s="29"/>
+    <row r="373" spans="1:4">
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="1:4" ht="19.8">
-      <c r="A374" s="4"/>
-      <c r="B374" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C374" s="29"/>
+    <row r="374" spans="1:4">
       <c r="D374" s="1"/>
     </row>
-    <row r="375" spans="1:4" ht="19.8">
-      <c r="A375" s="4"/>
-      <c r="B375" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="C375" s="29"/>
+    <row r="375" spans="1:4">
       <c r="D375" s="1"/>
     </row>
     <row r="376" spans="1:4" ht="19.8">
       <c r="A376" s="4"/>
       <c r="B376" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C376" s="29"/>
       <c r="D376" s="1"/>
     </row>
     <row r="377" spans="1:4" ht="19.8">
       <c r="A377" s="4"/>
-      <c r="B377" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="C377" s="37"/>
+      <c r="B377" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C377" s="29"/>
       <c r="D377" s="1"/>
     </row>
     <row r="378" spans="1:4" ht="19.8">
       <c r="A378" s="4"/>
       <c r="B378" s="16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C378" s="29"/>
       <c r="D378" s="1"/>
     </row>
     <row r="379" spans="1:4" ht="19.8">
       <c r="A379" s="4"/>
-      <c r="B379" s="16" t="s">
-        <v>315</v>
+      <c r="B379" s="19" t="s">
+        <v>475</v>
       </c>
       <c r="C379" s="29"/>
       <c r="D379" s="1"/>
@@ -5854,7 +5872,7 @@
     <row r="380" spans="1:4" ht="19.8">
       <c r="A380" s="4"/>
       <c r="B380" s="16" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C380" s="29"/>
       <c r="D380" s="1"/>
@@ -5862,7 +5880,7 @@
     <row r="381" spans="1:4" ht="19.8">
       <c r="A381" s="4"/>
       <c r="B381" s="16" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C381" s="29"/>
       <c r="D381" s="1"/>
@@ -5870,7 +5888,7 @@
     <row r="382" spans="1:4" ht="19.8">
       <c r="A382" s="4"/>
       <c r="B382" s="16" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C382" s="29"/>
       <c r="D382" s="1"/>
@@ -5878,23 +5896,23 @@
     <row r="383" spans="1:4" ht="19.8">
       <c r="A383" s="4"/>
       <c r="B383" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C383" s="29"/>
       <c r="D383" s="1"/>
     </row>
     <row r="384" spans="1:4" ht="19.8">
       <c r="A384" s="4"/>
-      <c r="B384" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="C384" s="29"/>
+      <c r="B384" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C384" s="37"/>
       <c r="D384" s="1"/>
     </row>
     <row r="385" spans="1:4" ht="19.8">
       <c r="A385" s="4"/>
       <c r="B385" s="16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C385" s="29"/>
       <c r="D385" s="1"/>
@@ -5902,30 +5920,39 @@
     <row r="386" spans="1:4" ht="19.8">
       <c r="A386" s="4"/>
       <c r="B386" s="16" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C386" s="29"/>
       <c r="D386" s="1"/>
     </row>
     <row r="387" spans="1:4" ht="19.8">
       <c r="A387" s="4"/>
-      <c r="B387" s="16"/>
+      <c r="B387" s="16" t="s">
+        <v>316</v>
+      </c>
       <c r="C387" s="29"/>
       <c r="D387" s="1"/>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" ht="19.8">
+      <c r="A388" s="4"/>
+      <c r="B388" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C388" s="29"/>
       <c r="D388" s="1"/>
     </row>
-    <row r="389" spans="1:4">
-      <c r="B389" s="18" t="s">
-        <v>505</v>
-      </c>
+    <row r="389" spans="1:4" ht="19.8">
+      <c r="A389" s="4"/>
+      <c r="B389" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C389" s="29"/>
       <c r="D389" s="1"/>
     </row>
     <row r="390" spans="1:4" ht="19.8">
       <c r="A390" s="4"/>
       <c r="B390" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C390" s="29"/>
       <c r="D390" s="1"/>
@@ -5933,7 +5960,7 @@
     <row r="391" spans="1:4" ht="19.8">
       <c r="A391" s="4"/>
       <c r="B391" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C391" s="29"/>
       <c r="D391" s="1"/>
@@ -5941,7 +5968,7 @@
     <row r="392" spans="1:4" ht="19.8">
       <c r="A392" s="4"/>
       <c r="B392" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C392" s="29"/>
       <c r="D392" s="1"/>
@@ -5949,39 +5976,30 @@
     <row r="393" spans="1:4" ht="19.8">
       <c r="A393" s="4"/>
       <c r="B393" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C393" s="29"/>
       <c r="D393" s="1"/>
     </row>
     <row r="394" spans="1:4" ht="19.8">
       <c r="A394" s="4"/>
-      <c r="B394" s="16" t="s">
-        <v>327</v>
-      </c>
+      <c r="B394" s="16"/>
       <c r="C394" s="29"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4" ht="19.8">
-      <c r="A395" s="4"/>
-      <c r="B395" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C395" s="29"/>
+    <row r="395" spans="1:4">
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="1:4" ht="19.8">
-      <c r="A396" s="4"/>
-      <c r="B396" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C396" s="29"/>
+    <row r="396" spans="1:4">
+      <c r="B396" s="18" t="s">
+        <v>505</v>
+      </c>
       <c r="D396" s="1"/>
     </row>
     <row r="397" spans="1:4" ht="19.8">
       <c r="A397" s="4"/>
       <c r="B397" s="16" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C397" s="29"/>
       <c r="D397" s="1"/>
@@ -5989,7 +6007,7 @@
     <row r="398" spans="1:4" ht="19.8">
       <c r="A398" s="4"/>
       <c r="B398" s="16" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C398" s="29"/>
       <c r="D398" s="1"/>
@@ -5997,7 +6015,7 @@
     <row r="399" spans="1:4" ht="19.8">
       <c r="A399" s="4"/>
       <c r="B399" s="16" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C399" s="29"/>
       <c r="D399" s="1"/>
@@ -6005,7 +6023,7 @@
     <row r="400" spans="1:4" ht="19.8">
       <c r="A400" s="4"/>
       <c r="B400" s="16" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C400" s="29"/>
       <c r="D400" s="1"/>
@@ -6013,7 +6031,7 @@
     <row r="401" spans="1:4" ht="19.8">
       <c r="A401" s="4"/>
       <c r="B401" s="16" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C401" s="29"/>
       <c r="D401" s="1"/>
@@ -6021,7 +6039,7 @@
     <row r="402" spans="1:4" ht="19.8">
       <c r="A402" s="4"/>
       <c r="B402" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C402" s="29"/>
       <c r="D402" s="1"/>
@@ -6029,7 +6047,7 @@
     <row r="403" spans="1:4" ht="19.8">
       <c r="A403" s="4"/>
       <c r="B403" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C403" s="29"/>
       <c r="D403" s="1"/>
@@ -6037,7 +6055,7 @@
     <row r="404" spans="1:4" ht="19.8">
       <c r="A404" s="4"/>
       <c r="B404" s="16" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C404" s="29"/>
       <c r="D404" s="1"/>
@@ -6045,7 +6063,7 @@
     <row r="405" spans="1:4" ht="19.8">
       <c r="A405" s="4"/>
       <c r="B405" s="16" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C405" s="29"/>
       <c r="D405" s="1"/>
@@ -6053,7 +6071,7 @@
     <row r="406" spans="1:4" ht="19.8">
       <c r="A406" s="4"/>
       <c r="B406" s="16" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C406" s="29"/>
       <c r="D406" s="1"/>
@@ -6061,7 +6079,7 @@
     <row r="407" spans="1:4" ht="19.8">
       <c r="A407" s="4"/>
       <c r="B407" s="16" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C407" s="29"/>
       <c r="D407" s="1"/>
@@ -6069,7 +6087,7 @@
     <row r="408" spans="1:4" ht="19.8">
       <c r="A408" s="4"/>
       <c r="B408" s="16" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C408" s="29"/>
       <c r="D408" s="1"/>
@@ -6077,7 +6095,7 @@
     <row r="409" spans="1:4" ht="19.8">
       <c r="A409" s="4"/>
       <c r="B409" s="16" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C409" s="29"/>
       <c r="D409" s="1"/>
@@ -6085,7 +6103,7 @@
     <row r="410" spans="1:4" ht="19.8">
       <c r="A410" s="4"/>
       <c r="B410" s="16" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C410" s="29"/>
       <c r="D410" s="1"/>
@@ -6093,7 +6111,7 @@
     <row r="411" spans="1:4" ht="19.8">
       <c r="A411" s="4"/>
       <c r="B411" s="16" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C411" s="29"/>
       <c r="D411" s="1"/>
@@ -6101,7 +6119,7 @@
     <row r="412" spans="1:4" ht="19.8">
       <c r="A412" s="4"/>
       <c r="B412" s="16" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C412" s="29"/>
       <c r="D412" s="1"/>
@@ -6109,7 +6127,7 @@
     <row r="413" spans="1:4" ht="19.8">
       <c r="A413" s="4"/>
       <c r="B413" s="16" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C413" s="29"/>
       <c r="D413" s="1"/>
@@ -6117,7 +6135,7 @@
     <row r="414" spans="1:4" ht="19.8">
       <c r="A414" s="4"/>
       <c r="B414" s="16" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C414" s="29"/>
       <c r="D414" s="1"/>
@@ -6125,7 +6143,7 @@
     <row r="415" spans="1:4" ht="19.8">
       <c r="A415" s="4"/>
       <c r="B415" s="16" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C415" s="29"/>
       <c r="D415" s="1"/>
@@ -6133,7 +6151,7 @@
     <row r="416" spans="1:4" ht="19.8">
       <c r="A416" s="4"/>
       <c r="B416" s="16" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C416" s="29"/>
       <c r="D416" s="1"/>
@@ -6141,7 +6159,7 @@
     <row r="417" spans="1:4" ht="19.8">
       <c r="A417" s="4"/>
       <c r="B417" s="16" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C417" s="29"/>
       <c r="D417" s="1"/>
@@ -6149,7 +6167,7 @@
     <row r="418" spans="1:4" ht="19.8">
       <c r="A418" s="4"/>
       <c r="B418" s="16" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C418" s="29"/>
       <c r="D418" s="1"/>
@@ -6157,15 +6175,15 @@
     <row r="419" spans="1:4" ht="19.8">
       <c r="A419" s="4"/>
       <c r="B419" s="16" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C419" s="29"/>
       <c r="D419" s="1"/>
     </row>
     <row r="420" spans="1:4" ht="19.8">
       <c r="A420" s="4"/>
-      <c r="B420" s="20" t="s">
-        <v>353</v>
+      <c r="B420" s="16" t="s">
+        <v>346</v>
       </c>
       <c r="C420" s="29"/>
       <c r="D420" s="1"/>
@@ -6173,7 +6191,7 @@
     <row r="421" spans="1:4" ht="19.8">
       <c r="A421" s="4"/>
       <c r="B421" s="16" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C421" s="29"/>
       <c r="D421" s="1"/>
@@ -6181,7 +6199,7 @@
     <row r="422" spans="1:4" ht="19.8">
       <c r="A422" s="4"/>
       <c r="B422" s="16" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C422" s="29"/>
       <c r="D422" s="1"/>
@@ -6189,7 +6207,7 @@
     <row r="423" spans="1:4" ht="19.8">
       <c r="A423" s="4"/>
       <c r="B423" s="16" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C423" s="29"/>
       <c r="D423" s="1"/>
@@ -6197,7 +6215,7 @@
     <row r="424" spans="1:4" ht="19.8">
       <c r="A424" s="4"/>
       <c r="B424" s="16" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C424" s="29"/>
       <c r="D424" s="1"/>
@@ -6205,7 +6223,7 @@
     <row r="425" spans="1:4" ht="19.8">
       <c r="A425" s="4"/>
       <c r="B425" s="16" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C425" s="29"/>
       <c r="D425" s="1"/>
@@ -6213,15 +6231,15 @@
     <row r="426" spans="1:4" ht="19.8">
       <c r="A426" s="4"/>
       <c r="B426" s="16" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C426" s="29"/>
       <c r="D426" s="1"/>
     </row>
     <row r="427" spans="1:4" ht="19.8">
       <c r="A427" s="4"/>
-      <c r="B427" s="16" t="s">
-        <v>359</v>
+      <c r="B427" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="C427" s="29"/>
       <c r="D427" s="1"/>
@@ -6229,7 +6247,7 @@
     <row r="428" spans="1:4" ht="19.8">
       <c r="A428" s="4"/>
       <c r="B428" s="16" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C428" s="29"/>
       <c r="D428" s="1"/>
@@ -6237,7 +6255,7 @@
     <row r="429" spans="1:4" ht="19.8">
       <c r="A429" s="4"/>
       <c r="B429" s="16" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C429" s="29"/>
       <c r="D429" s="1"/>
@@ -6245,7 +6263,7 @@
     <row r="430" spans="1:4" ht="19.8">
       <c r="A430" s="4"/>
       <c r="B430" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C430" s="29"/>
       <c r="D430" s="1"/>
@@ -6253,7 +6271,7 @@
     <row r="431" spans="1:4" ht="19.8">
       <c r="A431" s="4"/>
       <c r="B431" s="16" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C431" s="29"/>
       <c r="D431" s="1"/>
@@ -6261,7 +6279,7 @@
     <row r="432" spans="1:4" ht="19.8">
       <c r="A432" s="4"/>
       <c r="B432" s="16" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C432" s="29"/>
       <c r="D432" s="1"/>
@@ -6269,264 +6287,264 @@
     <row r="433" spans="1:4" ht="19.8">
       <c r="A433" s="4"/>
       <c r="B433" s="16" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C433" s="29"/>
       <c r="D433" s="1"/>
     </row>
     <row r="434" spans="1:4" ht="19.8">
       <c r="A434" s="4"/>
-      <c r="B434" s="16"/>
+      <c r="B434" s="16" t="s">
+        <v>359</v>
+      </c>
       <c r="C434" s="29"/>
       <c r="D434" s="1"/>
     </row>
     <row r="435" spans="1:4" ht="19.8">
       <c r="A435" s="4"/>
-      <c r="B435" s="29" t="s">
-        <v>506</v>
+      <c r="B435" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="C435" s="29"/>
       <c r="D435" s="1"/>
     </row>
     <row r="436" spans="1:4" ht="19.8">
       <c r="A436" s="4"/>
-      <c r="B436" s="27" t="s">
-        <v>470</v>
+      <c r="B436" s="16" t="s">
+        <v>361</v>
       </c>
       <c r="C436" s="29"/>
       <c r="D436" s="1"/>
     </row>
     <row r="437" spans="1:4" ht="19.8">
       <c r="A437" s="4"/>
-      <c r="B437" s="29"/>
+      <c r="B437" s="16" t="s">
+        <v>362</v>
+      </c>
       <c r="C437" s="29"/>
       <c r="D437" s="1"/>
     </row>
     <row r="438" spans="1:4" ht="19.8">
       <c r="A438" s="4"/>
-      <c r="B438" s="29"/>
+      <c r="B438" s="16" t="s">
+        <v>363</v>
+      </c>
       <c r="C438" s="29"/>
       <c r="D438" s="1"/>
     </row>
     <row r="439" spans="1:4" ht="19.8">
       <c r="A439" s="4"/>
-      <c r="B439" s="29"/>
+      <c r="B439" s="16" t="s">
+        <v>364</v>
+      </c>
       <c r="C439" s="29"/>
       <c r="D439" s="1"/>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" ht="19.8">
+      <c r="A440" s="4"/>
+      <c r="B440" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C440" s="29"/>
       <c r="D440" s="1"/>
     </row>
-    <row r="441" spans="1:4">
-      <c r="B441" s="18" t="s">
-        <v>507</v>
-      </c>
+    <row r="441" spans="1:4" ht="19.8">
+      <c r="A441" s="4"/>
+      <c r="B441" s="16"/>
+      <c r="C441" s="29"/>
       <c r="D441" s="1"/>
     </row>
     <row r="442" spans="1:4" ht="19.8">
       <c r="A442" s="4"/>
-      <c r="B442" s="16" t="s">
-        <v>366</v>
+      <c r="B442" s="29" t="s">
+        <v>506</v>
       </c>
       <c r="C442" s="29"/>
       <c r="D442" s="1"/>
     </row>
     <row r="443" spans="1:4" ht="19.8">
       <c r="A443" s="4"/>
-      <c r="B443" s="16" t="s">
-        <v>367</v>
+      <c r="B443" s="27" t="s">
+        <v>470</v>
       </c>
       <c r="C443" s="29"/>
       <c r="D443" s="1"/>
     </row>
     <row r="444" spans="1:4" ht="19.8">
       <c r="A444" s="4"/>
-      <c r="B444" s="16" t="s">
-        <v>368</v>
-      </c>
+      <c r="B444" s="29"/>
       <c r="C444" s="29"/>
       <c r="D444" s="1"/>
     </row>
     <row r="445" spans="1:4" ht="19.8">
       <c r="A445" s="4"/>
-      <c r="B445" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="B445" s="29"/>
       <c r="C445" s="29"/>
       <c r="D445" s="1"/>
     </row>
     <row r="446" spans="1:4" ht="19.8">
       <c r="A446" s="4"/>
-      <c r="B446" s="16" t="s">
-        <v>369</v>
-      </c>
+      <c r="B446" s="29"/>
       <c r="C446" s="29"/>
       <c r="D446" s="1"/>
     </row>
-    <row r="447" spans="1:4" ht="19.8">
-      <c r="A447" s="4"/>
-      <c r="B447" s="16" t="s">
+    <row r="447" spans="1:4">
+      <c r="D447" s="1"/>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="B448" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="D448" s="1"/>
+    </row>
+    <row r="449" spans="1:4" ht="19.8">
+      <c r="A449" s="4"/>
+      <c r="B449" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C449" s="29"/>
+      <c r="D449" s="1"/>
+    </row>
+    <row r="450" spans="1:4" ht="19.8">
+      <c r="A450" s="4"/>
+      <c r="B450" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C450" s="29"/>
+      <c r="D450" s="1"/>
+    </row>
+    <row r="451" spans="1:4" ht="19.8">
+      <c r="A451" s="4"/>
+      <c r="B451" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C451" s="29"/>
+      <c r="D451" s="1"/>
+    </row>
+    <row r="452" spans="1:4" ht="19.8">
+      <c r="A452" s="4"/>
+      <c r="B452" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C452" s="29"/>
+      <c r="D452" s="1"/>
+    </row>
+    <row r="453" spans="1:4" ht="19.8">
+      <c r="A453" s="4"/>
+      <c r="B453" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C453" s="29"/>
+      <c r="D453" s="1"/>
+    </row>
+    <row r="454" spans="1:4" ht="19.8">
+      <c r="A454" s="4"/>
+      <c r="B454" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C447" s="29"/>
-      <c r="D447" s="1"/>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="D448" s="1"/>
-    </row>
-    <row r="449" spans="1:4" ht="21">
-      <c r="B449" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="D449" s="1"/>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="11" t="s">
+      <c r="C454" s="29"/>
+      <c r="D454" s="1"/>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="D455" s="1"/>
+    </row>
+    <row r="456" spans="1:4" ht="21">
+      <c r="B456" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="D456" s="1"/>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="B450" s="30" t="s">
+      <c r="B457" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="C450" s="18" t="s">
+      <c r="C457" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="D450" s="1"/>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="B451" s="31" t="s">
+      <c r="D457" s="1"/>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="B458" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="C451" s="18" t="s">
+      <c r="C458" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D451" s="1"/>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="12" t="s">
+      <c r="D458" s="1"/>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="B452" s="22" t="s">
+      <c r="B459" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="D452" s="1"/>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="B453" s="19" t="s">
+      <c r="D459" s="1"/>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="B460" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="D453" s="1"/>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="B454" s="19" t="s">
+      <c r="D460" s="1"/>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="B461" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="C454" s="18" t="s">
+      <c r="C461" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="D454" s="1"/>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="B455" s="20" t="s">
+      <c r="D461" s="1"/>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="B462" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="D455" s="1"/>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="B456" s="20" t="s">
+      <c r="D462" s="1"/>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="B463" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="C456" s="18" t="s">
+      <c r="C463" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="D456" s="1"/>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="B457" s="20" t="s">
+      <c r="D463" s="1"/>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="B464" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="D457" s="1"/>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="B458" s="20" t="s">
+      <c r="D464" s="1"/>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="B465" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="C458" s="34" t="s">
+      <c r="C465" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="D458" s="1"/>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="D459" s="1"/>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="D460" s="1"/>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="D461" s="1"/>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="D462" s="1"/>
-    </row>
-    <row r="463" spans="1:4" ht="19.8">
-      <c r="A463" s="2"/>
-      <c r="B463" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C463" s="29"/>
-      <c r="D463" s="1"/>
-    </row>
-    <row r="464" spans="1:4" ht="19.8">
-      <c r="A464" s="2"/>
-      <c r="B464" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C464" s="29"/>
-      <c r="D464" s="1"/>
-    </row>
-    <row r="465" spans="1:4" ht="19.8">
-      <c r="A465" s="2"/>
-      <c r="B465" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C465" s="29"/>
       <c r="D465" s="1"/>
     </row>
-    <row r="466" spans="1:4" ht="19.8">
-      <c r="A466" s="2"/>
-      <c r="B466" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C466" s="29"/>
+    <row r="466" spans="1:4">
       <c r="D466" s="1"/>
     </row>
-    <row r="467" spans="1:4" ht="19.8">
-      <c r="A467" s="2"/>
-      <c r="B467" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="C467" s="29"/>
+    <row r="467" spans="1:4">
       <c r="D467" s="1"/>
     </row>
-    <row r="468" spans="1:4" ht="19.8">
-      <c r="A468" s="2"/>
-      <c r="B468" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C468" s="29"/>
+    <row r="468" spans="1:4">
       <c r="D468" s="1"/>
     </row>
-    <row r="469" spans="1:4" ht="19.8">
-      <c r="A469" s="2"/>
-      <c r="B469" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C469" s="29"/>
+    <row r="469" spans="1:4">
       <c r="D469" s="1"/>
     </row>
     <row r="470" spans="1:4" ht="19.8">
       <c r="A470" s="2"/>
       <c r="B470" s="20" t="s">
-        <v>451</v>
+        <v>371</v>
       </c>
       <c r="C470" s="29"/>
       <c r="D470" s="1"/>
@@ -6534,41 +6552,39 @@
     <row r="471" spans="1:4" ht="19.8">
       <c r="A471" s="2"/>
       <c r="B471" s="20" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
       <c r="C471" s="29"/>
       <c r="D471" s="1"/>
     </row>
     <row r="472" spans="1:4" ht="19.8">
       <c r="A472" s="2"/>
-      <c r="B472" s="20" t="s">
-        <v>488</v>
+      <c r="B472" s="16" t="s">
+        <v>373</v>
       </c>
       <c r="C472" s="29"/>
       <c r="D472" s="1"/>
     </row>
     <row r="473" spans="1:4" ht="19.8">
       <c r="A473" s="2"/>
-      <c r="B473" s="20" t="s">
-        <v>489</v>
+      <c r="B473" s="16" t="s">
+        <v>374</v>
       </c>
       <c r="C473" s="29"/>
       <c r="D473" s="1"/>
     </row>
-    <row r="474" spans="1:4" ht="70.8">
+    <row r="474" spans="1:4" ht="19.8">
       <c r="A474" s="2"/>
-      <c r="B474" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="C474" s="14" t="s">
-        <v>493</v>
-      </c>
+      <c r="B474" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C474" s="29"/>
       <c r="D474" s="1"/>
     </row>
     <row r="475" spans="1:4" ht="19.8">
       <c r="A475" s="2"/>
       <c r="B475" s="16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C475" s="29"/>
       <c r="D475" s="1"/>
@@ -6576,31 +6592,31 @@
     <row r="476" spans="1:4" ht="19.8">
       <c r="A476" s="2"/>
       <c r="B476" s="16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C476" s="29"/>
       <c r="D476" s="1"/>
     </row>
     <row r="477" spans="1:4" ht="19.8">
       <c r="A477" s="2"/>
-      <c r="B477" s="16" t="s">
-        <v>380</v>
+      <c r="B477" s="20" t="s">
+        <v>451</v>
       </c>
       <c r="C477" s="29"/>
       <c r="D477" s="1"/>
     </row>
     <row r="478" spans="1:4" ht="19.8">
       <c r="A478" s="2"/>
-      <c r="B478" s="16" t="s">
-        <v>381</v>
+      <c r="B478" s="20" t="s">
+        <v>487</v>
       </c>
       <c r="C478" s="29"/>
       <c r="D478" s="1"/>
     </row>
     <row r="479" spans="1:4" ht="19.8">
       <c r="A479" s="2"/>
-      <c r="B479" s="16" t="s">
-        <v>382</v>
+      <c r="B479" s="20" t="s">
+        <v>488</v>
       </c>
       <c r="C479" s="29"/>
       <c r="D479" s="1"/>
@@ -6608,41 +6624,41 @@
     <row r="480" spans="1:4" ht="19.8">
       <c r="A480" s="2"/>
       <c r="B480" s="20" t="s">
-        <v>383</v>
+        <v>489</v>
       </c>
       <c r="C480" s="29"/>
       <c r="D480" s="1"/>
     </row>
-    <row r="481" spans="1:4" ht="19.8">
+    <row r="481" spans="1:4" ht="70.8">
       <c r="A481" s="2"/>
       <c r="B481" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="C481" s="29"/>
+        <v>490</v>
+      </c>
+      <c r="C481" s="14" t="s">
+        <v>493</v>
+      </c>
       <c r="D481" s="1"/>
     </row>
     <row r="482" spans="1:4" ht="19.8">
       <c r="A482" s="2"/>
-      <c r="B482" s="20" t="s">
-        <v>524</v>
+      <c r="B482" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="C482" s="29"/>
       <c r="D482" s="1"/>
     </row>
     <row r="483" spans="1:4" ht="19.8">
       <c r="A483" s="2"/>
-      <c r="B483" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C483" s="29" t="s">
-        <v>534</v>
-      </c>
+      <c r="B483" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C483" s="29"/>
       <c r="D483" s="1"/>
     </row>
     <row r="484" spans="1:4" ht="19.8">
       <c r="A484" s="2"/>
-      <c r="B484" s="39" t="s">
-        <v>535</v>
+      <c r="B484" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="C484" s="29"/>
       <c r="D484" s="1"/>
@@ -6650,7 +6666,7 @@
     <row r="485" spans="1:4" ht="19.8">
       <c r="A485" s="2"/>
       <c r="B485" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C485" s="29"/>
       <c r="D485" s="1"/>
@@ -6658,7 +6674,7 @@
     <row r="486" spans="1:4" ht="19.8">
       <c r="A486" s="2"/>
       <c r="B486" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C486" s="29"/>
       <c r="D486" s="1"/>
@@ -6666,63 +6682,65 @@
     <row r="487" spans="1:4" ht="19.8">
       <c r="A487" s="2"/>
       <c r="B487" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C487" s="29"/>
       <c r="D487" s="1"/>
     </row>
     <row r="488" spans="1:4" ht="19.8">
       <c r="A488" s="2"/>
-      <c r="B488" s="16" t="s">
-        <v>388</v>
+      <c r="B488" s="20" t="s">
+        <v>518</v>
       </c>
       <c r="C488" s="29"/>
       <c r="D488" s="1"/>
     </row>
     <row r="489" spans="1:4" ht="19.8">
       <c r="A489" s="2"/>
-      <c r="B489" s="16" t="s">
-        <v>389</v>
+      <c r="B489" s="20" t="s">
+        <v>523</v>
       </c>
       <c r="C489" s="29"/>
       <c r="D489" s="1"/>
     </row>
     <row r="490" spans="1:4" ht="19.8">
       <c r="A490" s="2"/>
-      <c r="B490" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="C490" s="29"/>
+      <c r="B490" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C490" s="29" t="s">
+        <v>533</v>
+      </c>
       <c r="D490" s="1"/>
     </row>
     <row r="491" spans="1:4" ht="19.8">
       <c r="A491" s="2"/>
-      <c r="B491" s="16" t="s">
-        <v>391</v>
+      <c r="B491" s="39" t="s">
+        <v>534</v>
       </c>
       <c r="C491" s="29"/>
       <c r="D491" s="1"/>
     </row>
     <row r="492" spans="1:4" ht="19.8">
       <c r="A492" s="2"/>
-      <c r="B492" s="20" t="s">
-        <v>522</v>
+      <c r="B492" s="16" t="s">
+        <v>385</v>
       </c>
       <c r="C492" s="29"/>
       <c r="D492" s="1"/>
     </row>
     <row r="493" spans="1:4" ht="19.8">
       <c r="A493" s="2"/>
-      <c r="B493" s="20" t="s">
-        <v>523</v>
+      <c r="B493" s="16" t="s">
+        <v>386</v>
       </c>
       <c r="C493" s="29"/>
       <c r="D493" s="1"/>
     </row>
     <row r="494" spans="1:4" ht="19.8">
       <c r="A494" s="2"/>
-      <c r="B494" s="16" t="s">
-        <v>392</v>
+      <c r="B494" s="20" t="s">
+        <v>387</v>
       </c>
       <c r="C494" s="29"/>
       <c r="D494" s="1"/>
@@ -6730,15 +6748,15 @@
     <row r="495" spans="1:4" ht="19.8">
       <c r="A495" s="2"/>
       <c r="B495" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="C495" s="38"/>
+        <v>388</v>
+      </c>
+      <c r="C495" s="29"/>
       <c r="D495" s="1"/>
     </row>
     <row r="496" spans="1:4" ht="19.8">
       <c r="A496" s="2"/>
       <c r="B496" s="16" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C496" s="29"/>
       <c r="D496" s="1"/>
@@ -6746,33 +6764,31 @@
     <row r="497" spans="1:4" ht="19.8">
       <c r="A497" s="2"/>
       <c r="B497" s="16" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C497" s="29"/>
       <c r="D497" s="1"/>
     </row>
     <row r="498" spans="1:4" ht="19.8">
       <c r="A498" s="2"/>
-      <c r="B498" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C498" s="38" t="s">
-        <v>484</v>
-      </c>
+      <c r="B498" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C498" s="29"/>
       <c r="D498" s="1"/>
     </row>
     <row r="499" spans="1:4" ht="19.8">
       <c r="A499" s="2"/>
-      <c r="B499" s="16" t="s">
-        <v>397</v>
+      <c r="B499" s="20" t="s">
+        <v>521</v>
       </c>
       <c r="C499" s="29"/>
       <c r="D499" s="1"/>
     </row>
     <row r="500" spans="1:4" ht="19.8">
       <c r="A500" s="2"/>
-      <c r="B500" s="16" t="s">
-        <v>398</v>
+      <c r="B500" s="20" t="s">
+        <v>522</v>
       </c>
       <c r="C500" s="29"/>
       <c r="D500" s="1"/>
@@ -6780,7 +6796,7 @@
     <row r="501" spans="1:4" ht="19.8">
       <c r="A501" s="2"/>
       <c r="B501" s="16" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C501" s="29"/>
       <c r="D501" s="1"/>
@@ -6788,41 +6804,41 @@
     <row r="502" spans="1:4" ht="19.8">
       <c r="A502" s="2"/>
       <c r="B502" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="C502" s="29"/>
+        <v>393</v>
+      </c>
+      <c r="C502" s="38"/>
       <c r="D502" s="1"/>
     </row>
     <row r="503" spans="1:4" ht="19.8">
       <c r="A503" s="2"/>
-      <c r="B503" s="20" t="s">
-        <v>401</v>
+      <c r="B503" s="16" t="s">
+        <v>394</v>
       </c>
       <c r="C503" s="29"/>
       <c r="D503" s="1"/>
     </row>
     <row r="504" spans="1:4" ht="19.8">
       <c r="A504" s="2"/>
-      <c r="B504" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="C504" s="29" t="s">
-        <v>521</v>
-      </c>
+      <c r="B504" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C504" s="29"/>
       <c r="D504" s="1"/>
     </row>
     <row r="505" spans="1:4" ht="19.8">
       <c r="A505" s="2"/>
-      <c r="B505" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="C505" s="29"/>
+      <c r="B505" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C505" s="38" t="s">
+        <v>484</v>
+      </c>
       <c r="D505" s="1"/>
     </row>
     <row r="506" spans="1:4" ht="19.8">
       <c r="A506" s="2"/>
       <c r="B506" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C506" s="29"/>
       <c r="D506" s="1"/>
@@ -6830,7 +6846,7 @@
     <row r="507" spans="1:4" ht="19.8">
       <c r="A507" s="2"/>
       <c r="B507" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C507" s="29"/>
       <c r="D507" s="1"/>
@@ -6838,158 +6854,160 @@
     <row r="508" spans="1:4" ht="19.8">
       <c r="A508" s="2"/>
       <c r="B508" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C508" s="29"/>
       <c r="D508" s="1"/>
     </row>
     <row r="509" spans="1:4" ht="19.8">
       <c r="A509" s="2"/>
-      <c r="B509" s="20" t="s">
-        <v>406</v>
-      </c>
+      <c r="B509" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C509" s="29"/>
       <c r="D509" s="1"/>
     </row>
     <row r="510" spans="1:4" ht="19.8">
       <c r="A510" s="2"/>
-      <c r="B510" s="16" t="s">
-        <v>407</v>
+      <c r="B510" s="20" t="s">
+        <v>401</v>
       </c>
       <c r="C510" s="29"/>
       <c r="D510" s="1"/>
     </row>
     <row r="511" spans="1:4" ht="19.8">
       <c r="A511" s="2"/>
-      <c r="B511" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C511" s="29"/>
+      <c r="B511" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C511" s="29" t="s">
+        <v>520</v>
+      </c>
       <c r="D511" s="1"/>
     </row>
     <row r="512" spans="1:4" ht="19.8">
       <c r="A512" s="2"/>
-      <c r="B512" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="C512" s="38" t="s">
-        <v>491</v>
-      </c>
+      <c r="B512" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C512" s="29"/>
       <c r="D512" s="1"/>
     </row>
     <row r="513" spans="1:4" ht="19.8">
       <c r="A513" s="2"/>
-      <c r="B513" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C513" s="29" t="s">
-        <v>525</v>
-      </c>
+      <c r="B513" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C513" s="29"/>
       <c r="D513" s="1"/>
     </row>
-    <row r="514" spans="1:4" ht="54.6">
+    <row r="514" spans="1:4" ht="19.8">
       <c r="A514" s="2"/>
-      <c r="B514" s="39" t="s">
-        <v>528</v>
-      </c>
-      <c r="C514" s="41" t="s">
-        <v>530</v>
-      </c>
+      <c r="B514" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C514" s="29"/>
       <c r="D514" s="1"/>
     </row>
-    <row r="515" spans="1:4" ht="36.6">
+    <row r="515" spans="1:4" ht="19.8">
       <c r="A515" s="2"/>
-      <c r="B515" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="C515" s="41" t="s">
-        <v>531</v>
-      </c>
+      <c r="B515" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C515" s="29"/>
       <c r="D515" s="1"/>
     </row>
     <row r="516" spans="1:4" ht="19.8">
       <c r="A516" s="2"/>
       <c r="B516" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="C516" s="41"/>
+        <v>406</v>
+      </c>
       <c r="D516" s="1"/>
     </row>
     <row r="517" spans="1:4" ht="19.8">
       <c r="A517" s="2"/>
-      <c r="B517" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="C517" s="41"/>
+      <c r="B517" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C517" s="29"/>
       <c r="D517" s="1"/>
     </row>
     <row r="518" spans="1:4" ht="19.8">
       <c r="A518" s="2"/>
-      <c r="B518" s="32" t="s">
-        <v>411</v>
+      <c r="B518" s="16" t="s">
+        <v>408</v>
       </c>
       <c r="C518" s="29"/>
       <c r="D518" s="1"/>
     </row>
     <row r="519" spans="1:4" ht="19.8">
       <c r="A519" s="2"/>
-      <c r="B519" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="C519" s="29"/>
+      <c r="B519" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C519" s="38" t="s">
+        <v>491</v>
+      </c>
       <c r="D519" s="1"/>
     </row>
     <row r="520" spans="1:4" ht="19.8">
       <c r="A520" s="2"/>
-      <c r="B520" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="C520" s="29"/>
+      <c r="B520" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C520" s="29" t="s">
+        <v>524</v>
+      </c>
       <c r="D520" s="1"/>
     </row>
-    <row r="521" spans="1:4" ht="19.8">
+    <row r="521" spans="1:4" ht="54.6">
       <c r="A521" s="2"/>
-      <c r="B521" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C521" s="29"/>
+      <c r="B521" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C521" s="41" t="s">
+        <v>529</v>
+      </c>
       <c r="D521" s="1"/>
     </row>
-    <row r="522" spans="1:4" ht="19.8">
+    <row r="522" spans="1:4" ht="36.6">
       <c r="A522" s="2"/>
-      <c r="B522" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C522" s="29"/>
+      <c r="B522" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="C522" s="41" t="s">
+        <v>530</v>
+      </c>
       <c r="D522" s="1"/>
     </row>
     <row r="523" spans="1:4" ht="19.8">
       <c r="A523" s="2"/>
-      <c r="B523" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C523" s="29"/>
+      <c r="B523" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="C523" s="41"/>
       <c r="D523" s="1"/>
     </row>
     <row r="524" spans="1:4" ht="19.8">
       <c r="A524" s="2"/>
-      <c r="B524" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="C524" s="29"/>
+      <c r="B524" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="C524" s="41"/>
       <c r="D524" s="1"/>
     </row>
     <row r="525" spans="1:4" ht="19.8">
       <c r="A525" s="2"/>
-      <c r="B525" s="20" t="s">
-        <v>417</v>
+      <c r="B525" s="32" t="s">
+        <v>411</v>
       </c>
       <c r="C525" s="29"/>
       <c r="D525" s="1"/>
     </row>
     <row r="526" spans="1:4" ht="19.8">
       <c r="A526" s="2"/>
-      <c r="B526" s="16" t="s">
-        <v>418</v>
+      <c r="B526" s="32" t="s">
+        <v>526</v>
       </c>
       <c r="C526" s="29"/>
       <c r="D526" s="1"/>
@@ -6997,7 +7015,7 @@
     <row r="527" spans="1:4" ht="19.8">
       <c r="A527" s="2"/>
       <c r="B527" s="16" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C527" s="29"/>
       <c r="D527" s="1"/>
@@ -7005,7 +7023,7 @@
     <row r="528" spans="1:4" ht="19.8">
       <c r="A528" s="2"/>
       <c r="B528" s="16" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C528" s="29"/>
       <c r="D528" s="1"/>
@@ -7013,7 +7031,7 @@
     <row r="529" spans="1:4" ht="19.8">
       <c r="A529" s="2"/>
       <c r="B529" s="16" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C529" s="29"/>
       <c r="D529" s="1"/>
@@ -7021,7 +7039,7 @@
     <row r="530" spans="1:4" ht="19.8">
       <c r="A530" s="2"/>
       <c r="B530" s="16" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C530" s="29"/>
       <c r="D530" s="1"/>
@@ -7029,15 +7047,15 @@
     <row r="531" spans="1:4" ht="19.8">
       <c r="A531" s="2"/>
       <c r="B531" s="16" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C531" s="29"/>
       <c r="D531" s="1"/>
     </row>
     <row r="532" spans="1:4" ht="19.8">
       <c r="A532" s="2"/>
-      <c r="B532" s="16" t="s">
-        <v>424</v>
+      <c r="B532" s="20" t="s">
+        <v>417</v>
       </c>
       <c r="C532" s="29"/>
       <c r="D532" s="1"/>
@@ -7045,7 +7063,7 @@
     <row r="533" spans="1:4" ht="19.8">
       <c r="A533" s="2"/>
       <c r="B533" s="16" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C533" s="29"/>
       <c r="D533" s="1"/>
@@ -7053,34 +7071,39 @@
     <row r="534" spans="1:4" ht="19.8">
       <c r="A534" s="2"/>
       <c r="B534" s="16" t="s">
-        <v>426</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C534" s="29"/>
       <c r="D534" s="1"/>
     </row>
     <row r="535" spans="1:4" ht="19.8">
-      <c r="A535" s="4"/>
+      <c r="A535" s="2"/>
       <c r="B535" s="16" t="s">
-        <v>427</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C535" s="29"/>
       <c r="D535" s="1"/>
     </row>
     <row r="536" spans="1:4" ht="19.8">
       <c r="A536" s="2"/>
       <c r="B536" s="16" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C536" s="29"/>
       <c r="D536" s="1"/>
     </row>
     <row r="537" spans="1:4" ht="19.8">
       <c r="A537" s="2"/>
+      <c r="B537" s="16" t="s">
+        <v>422</v>
+      </c>
       <c r="C537" s="29"/>
       <c r="D537" s="1"/>
     </row>
     <row r="538" spans="1:4" ht="19.8">
       <c r="A538" s="2"/>
-      <c r="B538" s="18" t="s">
-        <v>508</v>
+      <c r="B538" s="16" t="s">
+        <v>423</v>
       </c>
       <c r="C538" s="29"/>
       <c r="D538" s="1"/>
@@ -7088,7 +7111,7 @@
     <row r="539" spans="1:4" ht="19.8">
       <c r="A539" s="2"/>
       <c r="B539" s="16" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C539" s="29"/>
       <c r="D539" s="1"/>
@@ -7096,7 +7119,7 @@
     <row r="540" spans="1:4" ht="19.8">
       <c r="A540" s="2"/>
       <c r="B540" s="16" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C540" s="29"/>
       <c r="D540" s="1"/>
@@ -7104,101 +7127,152 @@
     <row r="541" spans="1:4" ht="19.8">
       <c r="A541" s="2"/>
       <c r="B541" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="C541" s="29"/>
+        <v>426</v>
+      </c>
       <c r="D541" s="1"/>
     </row>
     <row r="542" spans="1:4" ht="19.8">
-      <c r="A542" s="2"/>
+      <c r="A542" s="4"/>
       <c r="B542" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="C542" s="29"/>
+        <v>427</v>
+      </c>
       <c r="D542" s="1"/>
     </row>
     <row r="543" spans="1:4" ht="19.8">
       <c r="A543" s="2"/>
       <c r="B543" s="16" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C543" s="29"/>
       <c r="D543" s="1"/>
     </row>
     <row r="544" spans="1:4" ht="19.8">
       <c r="A544" s="2"/>
-      <c r="B544" s="16" t="s">
-        <v>434</v>
-      </c>
       <c r="C544" s="29"/>
       <c r="D544" s="1"/>
     </row>
     <row r="545" spans="1:4" ht="19.8">
       <c r="A545" s="2"/>
-      <c r="B545" s="16" t="s">
-        <v>435</v>
+      <c r="B545" s="18" t="s">
+        <v>508</v>
       </c>
       <c r="C545" s="29"/>
       <c r="D545" s="1"/>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" ht="19.8">
+      <c r="A546" s="2"/>
       <c r="B546" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C546" s="29"/>
+      <c r="D546" s="1"/>
+    </row>
+    <row r="547" spans="1:4" ht="19.8">
+      <c r="A547" s="2"/>
+      <c r="B547" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C547" s="29"/>
+      <c r="D547" s="1"/>
+    </row>
+    <row r="548" spans="1:4" ht="19.8">
+      <c r="A548" s="2"/>
+      <c r="B548" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C548" s="29"/>
+      <c r="D548" s="1"/>
+    </row>
+    <row r="549" spans="1:4" ht="19.8">
+      <c r="A549" s="2"/>
+      <c r="B549" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C549" s="29"/>
+      <c r="D549" s="1"/>
+    </row>
+    <row r="550" spans="1:4" ht="19.8">
+      <c r="A550" s="2"/>
+      <c r="B550" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C550" s="29"/>
+      <c r="D550" s="1"/>
+    </row>
+    <row r="551" spans="1:4" ht="19.8">
+      <c r="A551" s="2"/>
+      <c r="B551" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C551" s="29"/>
+      <c r="D551" s="1"/>
+    </row>
+    <row r="552" spans="1:4" ht="19.8">
+      <c r="A552" s="2"/>
+      <c r="B552" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C552" s="29"/>
+      <c r="D552" s="1"/>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="B553" s="16" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
-      <c r="B547" s="16" t="s">
+    <row r="554" spans="1:4">
+      <c r="B554" s="16" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
-      <c r="B548" s="16" t="s">
+    <row r="555" spans="1:4">
+      <c r="B555" s="16" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
-      <c r="B551" s="18" t="s">
+    <row r="558" spans="1:4">
+      <c r="B558" s="18" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
-      <c r="C552" s="18" t="s">
+    <row r="559" spans="1:4">
+      <c r="C559" s="18" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
-      <c r="B554" s="19" t="s">
+    <row r="561" spans="2:2">
+      <c r="B561" s="19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
-      <c r="B555" s="27" t="s">
+    <row r="562" spans="2:2">
+      <c r="B562" s="27" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
-      <c r="B556" s="19" t="s">
+    <row r="563" spans="2:2">
+      <c r="B563" s="19" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
-      <c r="B557" s="19" t="s">
+    <row r="564" spans="2:2">
+      <c r="B564" s="19" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
-      <c r="B558" s="19" t="s">
+    <row r="565" spans="2:2">
+      <c r="B565" s="19" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
-      <c r="B559" s="20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="598" spans="2:2">
-      <c r="B598" s="18" t="s">
-        <v>515</v>
+    <row r="566" spans="2:2">
+      <c r="B566" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2">
+      <c r="B605" s="18" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -7351,358 +7425,364 @@
     <hyperlink ref="B170" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
     <hyperlink ref="B171" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
     <hyperlink ref="B172" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B173" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B176" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B177" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B178" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B179" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B180" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B181" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B182" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B183" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B184" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B190" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B192" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B194" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B195" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B196" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B197" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B198" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B199" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B200" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B201" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B202" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B203" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B204" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B205" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B206" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B207" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B208" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B209" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B210" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B211" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B212" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B213" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B214" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B215" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B216" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B217" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B218" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B219" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B220" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B221" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B222" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B223" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B224" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B225" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B228" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B229" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B230" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B231" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B232" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B233" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B234" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B235" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B236" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B237" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B238" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B239" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B240" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B241" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B242" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B243" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B244" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B245" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B246" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B247" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B248" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B249" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B252" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B253" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B254" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B255" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B256" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B257" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B258" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B259" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B260" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B261" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B262" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B263" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B264" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B265" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B266" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B267" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B268" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B269" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B270" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B271" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B272" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B273" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B274" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B275" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B276" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B277" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B278" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B279" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B280" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B281" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B282" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B283" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B284" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B285" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B286" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B303" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B304" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B305" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B306" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B307" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B308" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B309" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B311" r:id="rId258" display="Subset Sum Problem" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B312" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B313" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B314" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B315" r:id="rId262" display="Combinational Sum" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B316" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B317" r:id="rId264" display="Print all permutations of a string " xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B318" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B319" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B320" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B321" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B322" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B325" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B326" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B327" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B328" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B329" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B330" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B331" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B332" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B333" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B334" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B335" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B336" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B337" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B338" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B339" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B340" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B341" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B342" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B343" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B344" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B345" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B346" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B347" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B348" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B349" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B350" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B351" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B352" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B353" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B354" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B355" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B356" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B357" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B358" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B359" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B360" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B361" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B362" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B369" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B370" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B371" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B372" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B373" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B374" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B375" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B376" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B377" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B378" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B379" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B380" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B381" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B382" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B383" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B384" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B385" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B386" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B391" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B392" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B393" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B394" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B395" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B396" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B397" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B398" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B399" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B400" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B401" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B402" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B403" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B404" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B405" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B406" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B407" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B408" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B409" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B410" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B411" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B412" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B413" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B414" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B415" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B416" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B417" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B418" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B419" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B420" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B421" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B422" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B423" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B424" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B425" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B426" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B427" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B428" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B430" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B429" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B431" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B432" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B433" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B442" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B443" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B444" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B445" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B446" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B447" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B463" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B464" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B465" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B466" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B467" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B468" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B469" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B470" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B475" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B476" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B477" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B478" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B479" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B480" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B483" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B485" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B486" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B487" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B488" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B489" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B490" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B491" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B494" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B495" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B496" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B497" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B498" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B499" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B500" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B501" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B502" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B503" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B505" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B506" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B507" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B508" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B509" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B510" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B511" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B512" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B514" r:id="rId415" display="Count All Palindromic Subsequence in a given String" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B513" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B518" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B520" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B521" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B522" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B523" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B524" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B525" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B526" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B527" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B528" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B529" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B536" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B535" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B534" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B533" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B532" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B531" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B530" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B539" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B540" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B541" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B542" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B543" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B544" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B545" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B548" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B546" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B547" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B390" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B298" r:id="rId446" xr:uid="{E53BE2F0-AC22-43D0-BD53-D61960B98828}"/>
-    <hyperlink ref="B299" r:id="rId447" xr:uid="{E8F3B1B0-B6F1-4A92-B8C0-23AD6DE75C47}"/>
-    <hyperlink ref="B295" r:id="rId448" xr:uid="{05D37F33-406F-4F93-A25C-A905369D9C0C}"/>
-    <hyperlink ref="B293" r:id="rId449" xr:uid="{6EAC365B-70F1-4B65-8A5B-C50F8B553371}"/>
-    <hyperlink ref="B301" r:id="rId450" xr:uid="{7FE6547E-0A9F-45C2-B56D-F257159EE50E}"/>
-    <hyperlink ref="B300" r:id="rId451" xr:uid="{B1CDC9F4-B1E5-43E5-B6DC-6FAD971F94AE}"/>
-    <hyperlink ref="B297" r:id="rId452" xr:uid="{4FBECC30-01EC-434D-AEDE-94C4F9056BF5}"/>
-    <hyperlink ref="B450" r:id="rId453" xr:uid="{1EDA4193-29A4-46BF-89A2-F2BC29C9F0C0}"/>
-    <hyperlink ref="B451" r:id="rId454" xr:uid="{344B9E2D-1679-418F-A694-A3926C319D5E}"/>
-    <hyperlink ref="B452" r:id="rId455" xr:uid="{08BF6851-3952-4205-89C6-098BD03ACFE9}"/>
-    <hyperlink ref="B191" r:id="rId456" xr:uid="{50EE62EE-5745-48D3-BFA2-A56A27D99214}"/>
-    <hyperlink ref="B453" r:id="rId457" xr:uid="{069B6A3F-37A5-432E-8E3B-5796EA85B0D5}"/>
-    <hyperlink ref="B454" r:id="rId458" xr:uid="{4A003CAF-E9D9-4066-BB9C-B0D7745C2590}"/>
-    <hyperlink ref="B554" r:id="rId459" xr:uid="{6267FE5E-84B0-4919-A127-B6132A448C13}"/>
-    <hyperlink ref="B555" r:id="rId460" xr:uid="{6FD7735F-947E-4C3C-A4F7-CC8015B951F7}"/>
-    <hyperlink ref="B436" r:id="rId461" xr:uid="{F960342B-0999-45A2-8CCC-26D2D2F4A335}"/>
-    <hyperlink ref="B556" r:id="rId462" xr:uid="{11835747-CC00-4435-A7D2-15E71CB56C2E}"/>
+    <hyperlink ref="B174" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B177" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B178" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B179" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B180" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B181" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B182" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B183" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B184" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B185" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B195" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B197" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B199" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B201" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B202" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B203" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B204" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B205" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B206" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B207" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B208" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B209" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B210" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B211" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B212" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B213" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B214" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B215" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B216" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B217" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B218" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B219" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B220" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B221" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B222" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B223" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B224" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B225" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B226" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B227" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B228" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B229" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B230" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B231" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B232" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B235" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B236" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B237" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B238" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B239" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B240" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B241" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B242" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B243" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B244" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B245" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B246" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B247" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B248" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B249" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B250" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B251" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B252" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B253" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B254" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B255" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B256" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B259" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B260" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B261" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B262" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B263" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B264" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B265" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B266" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B267" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B268" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B269" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B270" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B271" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B272" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B273" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B274" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B275" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B276" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B277" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B278" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B279" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B280" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B281" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B282" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B283" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B284" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B285" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B286" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B287" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B288" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B289" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B290" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B291" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B292" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B293" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B310" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B311" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B312" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B313" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B314" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B315" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B316" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B318" r:id="rId258" display="Subset Sum Problem" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B319" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B320" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B321" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B322" r:id="rId262" display="Combinational Sum" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B323" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B324" r:id="rId264" display="Print all permutations of a string " xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B325" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B326" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B327" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B328" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B329" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B332" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B333" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B334" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B335" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B336" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B337" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B338" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B339" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B340" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B341" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B342" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B343" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B344" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B345" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B346" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B347" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B348" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B349" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B350" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B351" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B352" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B353" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B354" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B355" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B356" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B357" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B358" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B359" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B360" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B361" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B362" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B363" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B364" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B365" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B366" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B367" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B368" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B369" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B376" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B377" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B378" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B379" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B380" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B381" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B382" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B383" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B384" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B385" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B386" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B387" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B388" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B389" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B390" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B391" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B392" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B393" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B398" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B399" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B400" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B401" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B402" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B403" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B404" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B405" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B406" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B407" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B408" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B409" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B410" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B411" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B412" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B413" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B414" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B415" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B416" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B417" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B418" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B419" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B420" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B421" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B422" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B423" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B424" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B425" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B426" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B427" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B428" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B429" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B430" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B431" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B432" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B433" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B434" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B435" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B437" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B436" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B438" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B439" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B440" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B449" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B450" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B451" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B452" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B453" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B454" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B470" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B471" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B472" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B473" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B474" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B475" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B476" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B477" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B482" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B483" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B484" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B485" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B486" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B487" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B490" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B492" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B493" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B494" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B495" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B496" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B497" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B498" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B501" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B502" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B503" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B504" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B505" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B506" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B507" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B508" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B509" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B510" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B512" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B513" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B514" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B515" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B516" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B517" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B518" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B519" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B521" r:id="rId415" display="Count All Palindromic Subsequence in a given String" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B520" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B525" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B527" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B528" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B529" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B530" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B531" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B532" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B533" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B534" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B535" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B536" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B543" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B542" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B541" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B540" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B539" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B538" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B537" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B546" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B547" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B548" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B549" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B550" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B551" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B552" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B555" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B553" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B554" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B397" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B305" r:id="rId446" xr:uid="{E53BE2F0-AC22-43D0-BD53-D61960B98828}"/>
+    <hyperlink ref="B306" r:id="rId447" xr:uid="{E8F3B1B0-B6F1-4A92-B8C0-23AD6DE75C47}"/>
+    <hyperlink ref="B302" r:id="rId448" xr:uid="{05D37F33-406F-4F93-A25C-A905369D9C0C}"/>
+    <hyperlink ref="B300" r:id="rId449" xr:uid="{6EAC365B-70F1-4B65-8A5B-C50F8B553371}"/>
+    <hyperlink ref="B308" r:id="rId450" xr:uid="{7FE6547E-0A9F-45C2-B56D-F257159EE50E}"/>
+    <hyperlink ref="B307" r:id="rId451" xr:uid="{B1CDC9F4-B1E5-43E5-B6DC-6FAD971F94AE}"/>
+    <hyperlink ref="B304" r:id="rId452" xr:uid="{4FBECC30-01EC-434D-AEDE-94C4F9056BF5}"/>
+    <hyperlink ref="B457" r:id="rId453" xr:uid="{1EDA4193-29A4-46BF-89A2-F2BC29C9F0C0}"/>
+    <hyperlink ref="B458" r:id="rId454" xr:uid="{344B9E2D-1679-418F-A694-A3926C319D5E}"/>
+    <hyperlink ref="B459" r:id="rId455" xr:uid="{08BF6851-3952-4205-89C6-098BD03ACFE9}"/>
+    <hyperlink ref="B198" r:id="rId456" xr:uid="{50EE62EE-5745-48D3-BFA2-A56A27D99214}"/>
+    <hyperlink ref="B460" r:id="rId457" xr:uid="{069B6A3F-37A5-432E-8E3B-5796EA85B0D5}"/>
+    <hyperlink ref="B461" r:id="rId458" xr:uid="{4A003CAF-E9D9-4066-BB9C-B0D7745C2590}"/>
+    <hyperlink ref="B561" r:id="rId459" xr:uid="{6267FE5E-84B0-4919-A127-B6132A448C13}"/>
+    <hyperlink ref="B562" r:id="rId460" xr:uid="{6FD7735F-947E-4C3C-A4F7-CC8015B951F7}"/>
+    <hyperlink ref="B443" r:id="rId461" xr:uid="{F960342B-0999-45A2-8CCC-26D2D2F4A335}"/>
+    <hyperlink ref="B563" r:id="rId462" xr:uid="{11835747-CC00-4435-A7D2-15E71CB56C2E}"/>
     <hyperlink ref="B101" r:id="rId463" xr:uid="{6CAD03C6-4CF8-4609-A8CB-94588CF0601E}"/>
-    <hyperlink ref="B365" r:id="rId464" xr:uid="{A9F9A6B2-4A7A-4EA9-98C3-64EB83456E30}"/>
-    <hyperlink ref="B557" r:id="rId465" xr:uid="{6CBBE9B2-B38F-46D8-B4ED-8222A1206E1F}"/>
-    <hyperlink ref="B558" r:id="rId466" xr:uid="{D8A7A526-91A5-4590-84D6-2AFA791B5E1D}"/>
+    <hyperlink ref="B372" r:id="rId464" xr:uid="{A9F9A6B2-4A7A-4EA9-98C3-64EB83456E30}"/>
+    <hyperlink ref="B564" r:id="rId465" xr:uid="{6CBBE9B2-B38F-46D8-B4ED-8222A1206E1F}"/>
+    <hyperlink ref="B565" r:id="rId466" xr:uid="{D8A7A526-91A5-4590-84D6-2AFA791B5E1D}"/>
     <hyperlink ref="B145" r:id="rId467" xr:uid="{10F7B7EF-A77E-4D04-9927-9E8B6B48C368}"/>
     <hyperlink ref="B146" r:id="rId468" xr:uid="{5C051B0F-E90B-4812-B33B-39FB86914E36}"/>
     <hyperlink ref="B148" r:id="rId469" xr:uid="{07C00C5F-3F41-4175-913B-AB276CE52658}"/>
-    <hyperlink ref="B455" r:id="rId470" xr:uid="{66CC3629-2FD8-49F5-931C-CA5F2885B18C}"/>
-    <hyperlink ref="B456" r:id="rId471" xr:uid="{980A8CD4-4B15-436D-8001-B64FDA2B8C78}"/>
-    <hyperlink ref="B457" r:id="rId472" xr:uid="{F5F68118-82A9-4B92-9433-BE2F9EEB45DB}"/>
-    <hyperlink ref="B458" r:id="rId473" xr:uid="{45473A19-46D3-4614-B309-1B116D5817AC}"/>
-    <hyperlink ref="B471" r:id="rId474" xr:uid="{6CE71D28-5AC5-4E4F-8B26-54E16C1FEF68}"/>
-    <hyperlink ref="B472" r:id="rId475" xr:uid="{86CEF577-0E57-40FB-8226-A1B9D66313D9}"/>
-    <hyperlink ref="B473" r:id="rId476" xr:uid="{2C74544F-E912-4C5A-8F33-B5F8786E68D7}"/>
-    <hyperlink ref="B474" r:id="rId477" xr:uid="{3CD261D3-5E3C-47C1-B929-F5C8890F02B4}"/>
-    <hyperlink ref="C498" r:id="rId478" display="https://leetcode.com/problems/minimum-path-sum/" xr:uid="{CD625DD7-8859-424F-A22D-7B74CC4681B3}"/>
-    <hyperlink ref="C512" r:id="rId479" xr:uid="{DEA418C2-9318-4C58-9850-7624F99686BC}"/>
-    <hyperlink ref="B481" r:id="rId480" xr:uid="{95D4953E-76C6-4AAB-AB8E-972C09CB2BB5}"/>
-    <hyperlink ref="B504" r:id="rId481" xr:uid="{61CD9F39-5D29-4A16-9637-974268DB4501}"/>
-    <hyperlink ref="B492" r:id="rId482" xr:uid="{B85EEB96-17D8-4755-BB20-FD797CDB4CA7}"/>
-    <hyperlink ref="B493" r:id="rId483" xr:uid="{96AB5A0F-CA51-47D2-849B-F76D178C2F9B}"/>
-    <hyperlink ref="B482" r:id="rId484" xr:uid="{DDCF1F8E-F2FC-41D4-B535-43272D41EC68}"/>
+    <hyperlink ref="B462" r:id="rId470" xr:uid="{66CC3629-2FD8-49F5-931C-CA5F2885B18C}"/>
+    <hyperlink ref="B463" r:id="rId471" xr:uid="{980A8CD4-4B15-436D-8001-B64FDA2B8C78}"/>
+    <hyperlink ref="B464" r:id="rId472" xr:uid="{F5F68118-82A9-4B92-9433-BE2F9EEB45DB}"/>
+    <hyperlink ref="B465" r:id="rId473" xr:uid="{45473A19-46D3-4614-B309-1B116D5817AC}"/>
+    <hyperlink ref="B478" r:id="rId474" xr:uid="{6CE71D28-5AC5-4E4F-8B26-54E16C1FEF68}"/>
+    <hyperlink ref="B479" r:id="rId475" xr:uid="{86CEF577-0E57-40FB-8226-A1B9D66313D9}"/>
+    <hyperlink ref="B480" r:id="rId476" xr:uid="{2C74544F-E912-4C5A-8F33-B5F8786E68D7}"/>
+    <hyperlink ref="B481" r:id="rId477" xr:uid="{3CD261D3-5E3C-47C1-B929-F5C8890F02B4}"/>
+    <hyperlink ref="C505" r:id="rId478" display="https://leetcode.com/problems/minimum-path-sum/" xr:uid="{CD625DD7-8859-424F-A22D-7B74CC4681B3}"/>
+    <hyperlink ref="C519" r:id="rId479" xr:uid="{DEA418C2-9318-4C58-9850-7624F99686BC}"/>
+    <hyperlink ref="B488" r:id="rId480" xr:uid="{95D4953E-76C6-4AAB-AB8E-972C09CB2BB5}"/>
+    <hyperlink ref="B511" r:id="rId481" xr:uid="{61CD9F39-5D29-4A16-9637-974268DB4501}"/>
+    <hyperlink ref="B499" r:id="rId482" xr:uid="{B85EEB96-17D8-4755-BB20-FD797CDB4CA7}"/>
+    <hyperlink ref="B500" r:id="rId483" xr:uid="{96AB5A0F-CA51-47D2-849B-F76D178C2F9B}"/>
+    <hyperlink ref="B489" r:id="rId484" xr:uid="{DDCF1F8E-F2FC-41D4-B535-43272D41EC68}"/>
     <hyperlink ref="C156" r:id="rId485" xr:uid="{7977B9AE-11AC-4883-87F6-9FACB62A09D9}"/>
-    <hyperlink ref="B519" r:id="rId486" xr:uid="{46047BFA-0147-4E03-B637-0C3C575EB513}"/>
-    <hyperlink ref="B515" r:id="rId487" xr:uid="{1673FD3A-B06B-4547-BCFC-997AA1022EFC}"/>
-    <hyperlink ref="C514" r:id="rId488" xr:uid="{B140118B-3309-4D65-B8F2-5C81C975C3F7}"/>
-    <hyperlink ref="C515" r:id="rId489" xr:uid="{15FF0E57-3712-4FDF-8A41-69055B2B38A0}"/>
-    <hyperlink ref="B516" r:id="rId490" xr:uid="{CB49817E-3ACC-4F78-B7B5-48C49CA3A44E}"/>
-    <hyperlink ref="B517" r:id="rId491" xr:uid="{0D1E8650-55F7-4F0F-B577-FC48E4266037}"/>
-    <hyperlink ref="B484" r:id="rId492" xr:uid="{2BA62D31-D76A-42A9-83BA-3257D24DD96C}"/>
-    <hyperlink ref="B559" r:id="rId493" display="Subarray Sum divisible by K (Leetcode 560)" xr:uid="{1B448318-FB50-44D5-BEF5-B03FF97781CC}"/>
+    <hyperlink ref="B526" r:id="rId486" xr:uid="{46047BFA-0147-4E03-B637-0C3C575EB513}"/>
+    <hyperlink ref="B522" r:id="rId487" xr:uid="{1673FD3A-B06B-4547-BCFC-997AA1022EFC}"/>
+    <hyperlink ref="C521" r:id="rId488" xr:uid="{B140118B-3309-4D65-B8F2-5C81C975C3F7}"/>
+    <hyperlink ref="C522" r:id="rId489" xr:uid="{15FF0E57-3712-4FDF-8A41-69055B2B38A0}"/>
+    <hyperlink ref="B523" r:id="rId490" xr:uid="{CB49817E-3ACC-4F78-B7B5-48C49CA3A44E}"/>
+    <hyperlink ref="B524" r:id="rId491" xr:uid="{0D1E8650-55F7-4F0F-B577-FC48E4266037}"/>
+    <hyperlink ref="B491" r:id="rId492" xr:uid="{2BA62D31-D76A-42A9-83BA-3257D24DD96C}"/>
+    <hyperlink ref="B566" r:id="rId493" display="Subarray Sum divisible by K (Leetcode 560)" xr:uid="{1B448318-FB50-44D5-BEF5-B03FF97781CC}"/>
     <hyperlink ref="B147" r:id="rId494" display="Deleter Nth node from last in a linked list" xr:uid="{AD15AD9F-B62D-4AE3-87BA-1A94868D15BA}"/>
     <hyperlink ref="B159" r:id="rId495" xr:uid="{4477C72C-A754-450A-99A4-AA548069DA50}"/>
     <hyperlink ref="B162" r:id="rId496" xr:uid="{3CD126E0-9217-476D-8457-CC724E616C3E}"/>
     <hyperlink ref="C149" r:id="rId497" display="Proof Of Floyed Cycle Detection Algorithm" xr:uid="{C48AD1BF-4690-4AE4-A0F6-A12BCCF90B52}"/>
     <hyperlink ref="B142" r:id="rId498" xr:uid="{18A9CDA4-F59B-4A26-B016-440F8F852ECB}"/>
+    <hyperlink ref="B186" r:id="rId499" xr:uid="{C282D2DF-96B3-4C8C-A33B-ECE25B030903}"/>
+    <hyperlink ref="B187" r:id="rId500" xr:uid="{C137A0AC-7A61-4A4D-B996-7B273DF91FCE}"/>
+    <hyperlink ref="B188" r:id="rId501" xr:uid="{C15B1153-5E03-469A-AA7E-FA684BBA6CA7}"/>
+    <hyperlink ref="B189" r:id="rId502" xr:uid="{B405035D-C892-4265-973C-F7BD99282FB2}"/>
+    <hyperlink ref="B190" r:id="rId503" xr:uid="{3B98672F-9586-48D7-800B-49EA3320D7C3}"/>
+    <hyperlink ref="B173" r:id="rId504" xr:uid="{A075EEC7-3B58-4EC7-9436-141D8F3A7648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId499"/>
+  <pageSetup orientation="portrait" r:id="rId505"/>
 </worksheet>
 </file>
--- a/DSA_QUESTIONS.xlsx
+++ b/DSA_QUESTIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668BBB74-F0B1-4BFD-8109-101F4116E8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FAD49C-592B-434E-9920-79901853F79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="568">
   <si>
     <t xml:space="preserve">Problem: </t>
   </si>
@@ -799,9 +799,6 @@
   </si>
   <si>
     <t>m Coloring Problem</t>
-  </si>
-  <si>
-    <t>Print all palindromic partitions of a string</t>
   </si>
   <si>
     <t>The Knight’s tour problem</t>
@@ -2222,12 +2219,65 @@
       <t>Design Questions</t>
     </r>
   </si>
+  <si>
+    <t>Donot Swap the elements try to mangae the pointer only.</t>
+  </si>
+  <si>
+    <t>The Key Idea here is that first move n positions from the head
+of the Linked list. After that fix a pointer to the head and 
+another Pointer to the nth node then move one step at a time
+untill the forward(fast) Pointer reaches to the last node then 
+automatically the backward pointer will point to the node
+which is nth from the end. (Done in single Pass).</t>
+  </si>
+  <si>
+    <t>Swapping Nodes In a Linked List(Leetcode 1721)</t>
+  </si>
+  <si>
+    <t>Similar concept related to finding nth node from the end in a 
+Linked List in one pass</t>
+  </si>
+  <si>
+    <t>House Robber 3(Leetcode 337)</t>
+  </si>
+  <si>
+    <t>Think Dp.</t>
+  </si>
+  <si>
+    <t>Binary Tree Camera(Leetcode 968)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pailendrome Parititioning(Leetcode 131</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(1. Recursion + Backtracking.) 2. Dynamic Programming </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2450,13 +2500,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2509,7 +2552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2585,7 +2628,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2901,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:E605"/>
+  <dimension ref="A1:E612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B613" sqref="B613"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
@@ -2919,13 +2965,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>547</v>
-      </c>
       <c r="C1" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2934,23 +2980,23 @@
     </row>
     <row r="4" spans="1:5" ht="19.8">
       <c r="A4" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="19.8">
       <c r="A5" s="7"/>
       <c r="B5" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -3336,7 +3382,7 @@
     <row r="55" spans="1:4" ht="19.8">
       <c r="A55" s="2"/>
       <c r="B55" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D55" s="1"/>
     </row>
@@ -3689,14 +3735,14 @@
     <row r="100" spans="1:4" ht="19.8">
       <c r="A100" s="2"/>
       <c r="B100" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="19.8">
       <c r="A101" s="2"/>
       <c r="B101" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D101" s="1"/>
     </row>
@@ -4002,35 +4048,35 @@
     <row r="141" spans="1:4" ht="19.8">
       <c r="A141" s="2"/>
       <c r="B141" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" ht="19.8">
       <c r="A142" s="2"/>
       <c r="B142" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="C142" s="18" t="s">
         <v>543</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>544</v>
       </c>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" ht="36.6">
       <c r="A143" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" ht="19.8">
       <c r="A144" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>127</v>
@@ -4040,10 +4086,10 @@
     </row>
     <row r="145" spans="1:4" ht="19.8">
       <c r="A145" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C145" s="29"/>
       <c r="D145" s="1"/>
@@ -4051,7 +4097,7 @@
     <row r="146" spans="1:4" ht="19.8">
       <c r="A146" s="2"/>
       <c r="B146" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C146" s="29"/>
       <c r="D146" s="1"/>
@@ -4059,17 +4105,17 @@
     <row r="147" spans="1:4" ht="19.8">
       <c r="A147" s="2"/>
       <c r="B147" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C147" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" ht="19.8">
       <c r="A148" s="2"/>
       <c r="B148" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C148" s="29"/>
       <c r="D148" s="1"/>
@@ -4080,7 +4126,7 @@
         <v>128</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D149" s="1"/>
     </row>
@@ -4094,7 +4140,7 @@
     </row>
     <row r="151" spans="1:4" ht="19.8">
       <c r="A151" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B151" s="20" t="s">
         <v>130</v>
@@ -4140,7 +4186,7 @@
         <v>135</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D156" s="1"/>
     </row>
@@ -4154,23 +4200,23 @@
     </row>
     <row r="158" spans="1:4" ht="19.8">
       <c r="A158" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B158" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C158" s="38" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" ht="19.8">
       <c r="A159" s="2"/>
       <c r="B159" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C159" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D159" s="1"/>
     </row>
@@ -4180,13 +4226,13 @@
         <v>138</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" ht="19.8">
       <c r="A161" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B161" s="32" t="s">
         <v>139</v>
@@ -4196,10 +4242,12 @@
     </row>
     <row r="162" spans="1:4" ht="19.8">
       <c r="A162" s="2"/>
-      <c r="B162" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="C162" s="29"/>
+      <c r="B162" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C162" s="38" t="s">
+        <v>559</v>
+      </c>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" ht="19.8">
@@ -4232,7 +4280,7 @@
         <v>143</v>
       </c>
       <c r="C166" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D166" s="1"/>
     </row>
@@ -4287,7 +4335,7 @@
     <row r="173" spans="1:4" ht="19.8">
       <c r="A173" s="2"/>
       <c r="B173" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C173" s="29"/>
       <c r="D173" s="1"/>
@@ -4332,13 +4380,13 @@
     </row>
     <row r="179" spans="1:4" ht="19.8">
       <c r="A179" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B179" s="32" t="s">
         <v>155</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D179" s="1"/>
     </row>
@@ -4348,7 +4396,7 @@
         <v>156</v>
       </c>
       <c r="C180" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D180" s="1"/>
     </row>
@@ -4370,20 +4418,22 @@
     </row>
     <row r="183" spans="1:4" ht="19.8">
       <c r="A183" s="2"/>
-      <c r="B183" s="43" t="s">
+      <c r="B183" s="20" t="s">
         <v>159</v>
       </c>
       <c r="C183" s="29"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" ht="19.8">
+    <row r="184" spans="1:4" ht="144.6">
       <c r="A184" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B184" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C184" s="29"/>
+      <c r="C184" s="35" t="s">
+        <v>560</v>
+      </c>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" ht="19.8">
@@ -4397,7 +4447,7 @@
     <row r="186" spans="1:4" ht="19.8">
       <c r="A186" s="2"/>
       <c r="B186" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C186" s="29"/>
       <c r="D186" s="1"/>
@@ -4405,7 +4455,7 @@
     <row r="187" spans="1:4" ht="19.8">
       <c r="A187" s="2"/>
       <c r="B187" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C187" s="29"/>
       <c r="D187" s="1"/>
@@ -4413,106 +4463,89 @@
     <row r="188" spans="1:4" ht="19.8">
       <c r="A188" s="2"/>
       <c r="B188" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="19.8">
       <c r="A189" s="2"/>
       <c r="B189" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="19.8">
       <c r="A190" s="2"/>
       <c r="B190" s="16" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="19.8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="36.6">
       <c r="A191" s="2"/>
+      <c r="B191" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="C191" s="43" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="192" spans="1:4" ht="19.8">
       <c r="A192" s="2"/>
     </row>
     <row r="193" spans="1:4" ht="19.8">
       <c r="A193" s="2"/>
-      <c r="B193" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:4" ht="19.8">
       <c r="A194" s="2"/>
-      <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="19.8">
       <c r="A195" s="2"/>
-      <c r="B195" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C195" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="1:4" ht="20.399999999999999">
+    </row>
+    <row r="196" spans="1:4" ht="19.8">
       <c r="A196" s="2"/>
-      <c r="B196" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C196" s="29"/>
-      <c r="D196" s="1"/>
     </row>
     <row r="197" spans="1:4" ht="19.8">
       <c r="A197" s="2"/>
-      <c r="B197" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C197" s="29"/>
-      <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:4" ht="19.8">
       <c r="A198" s="2"/>
-      <c r="B198" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="C198" s="29"/>
+      <c r="B198" s="18" t="s">
+        <v>497</v>
+      </c>
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4" ht="19.8">
       <c r="A199" s="2"/>
-      <c r="B199" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C199" s="29"/>
       <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4" ht="19.8">
       <c r="A200" s="2"/>
-      <c r="B200" s="16"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>510</v>
+      </c>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" ht="19.8">
+    <row r="201" spans="1:4" ht="20.399999999999999">
       <c r="A201" s="2"/>
-      <c r="B201" s="16" t="s">
-        <v>165</v>
+      <c r="B201" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="C201" s="29"/>
       <c r="D201" s="1"/>
     </row>
     <row r="202" spans="1:4" ht="19.8">
       <c r="A202" s="2"/>
-      <c r="B202" s="16" t="s">
-        <v>166</v>
+      <c r="B202" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="C202" s="29"/>
       <c r="D202" s="1"/>
     </row>
     <row r="203" spans="1:4" ht="19.8">
       <c r="A203" s="2"/>
-      <c r="B203" s="16" t="s">
-        <v>439</v>
+      <c r="B203" s="22" t="s">
+        <v>498</v>
       </c>
       <c r="C203" s="29"/>
       <c r="D203" s="1"/>
@@ -4520,27 +4553,21 @@
     <row r="204" spans="1:4" ht="19.8">
       <c r="A204" s="2"/>
       <c r="B204" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C204" s="33" t="s">
-        <v>440</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C204" s="29"/>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" ht="19.8">
       <c r="A205" s="2"/>
-      <c r="B205" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C205" s="33" t="s">
-        <v>440</v>
-      </c>
+      <c r="B205" s="16"/>
+      <c r="C205" s="29"/>
       <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4" ht="19.8">
       <c r="A206" s="2"/>
       <c r="B206" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C206" s="29"/>
       <c r="D206" s="1"/>
@@ -4548,58 +4575,63 @@
     <row r="207" spans="1:4" ht="19.8">
       <c r="A207" s="2"/>
       <c r="B207" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C207" s="29"/>
       <c r="D207" s="1"/>
     </row>
     <row r="208" spans="1:4" ht="19.8">
       <c r="A208" s="2"/>
-      <c r="B208" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C208" s="29"/>
+      <c r="B208" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C208" s="38" t="s">
+        <v>439</v>
+      </c>
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="1:5" ht="19.8">
       <c r="A209" s="2"/>
-      <c r="B209" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C209" s="29"/>
+      <c r="B209" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C209" s="33" t="s">
+        <v>439</v>
+      </c>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:5" ht="21">
+    <row r="210" spans="1:5" ht="19.8">
       <c r="A210" s="2"/>
-      <c r="B210" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C210" s="29"/>
+      <c r="B210" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C210" s="33"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="3" t="s">
-        <v>442</v>
-      </c>
     </row>
     <row r="211" spans="1:5" ht="19.8">
-      <c r="A211" s="2"/>
-      <c r="B211" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C211" s="29"/>
+      <c r="A211" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B211" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="C211" s="33" t="s">
+        <v>564</v>
+      </c>
       <c r="D211" s="1"/>
     </row>
     <row r="212" spans="1:5" ht="19.8">
-      <c r="A212" s="2"/>
-      <c r="B212" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C212" s="29"/>
+      <c r="A212" s="13"/>
+      <c r="B212" s="39" t="s">
+        <v>565</v>
+      </c>
+      <c r="C212" s="33"/>
       <c r="D212" s="1"/>
     </row>
     <row r="213" spans="1:5" ht="19.8">
       <c r="A213" s="2"/>
       <c r="B213" s="16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C213" s="29"/>
       <c r="D213" s="1"/>
@@ -4607,7 +4639,7 @@
     <row r="214" spans="1:5" ht="19.8">
       <c r="A214" s="2"/>
       <c r="B214" s="16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C214" s="29"/>
       <c r="D214" s="1"/>
@@ -4615,7 +4647,7 @@
     <row r="215" spans="1:5" ht="19.8">
       <c r="A215" s="2"/>
       <c r="B215" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C215" s="29"/>
       <c r="D215" s="1"/>
@@ -4623,23 +4655,26 @@
     <row r="216" spans="1:5" ht="19.8">
       <c r="A216" s="2"/>
       <c r="B216" s="16" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C216" s="29"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:5" ht="19.8">
+    <row r="217" spans="1:5" ht="21">
       <c r="A217" s="2"/>
       <c r="B217" s="16" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C217" s="29"/>
       <c r="D217" s="1"/>
+      <c r="E217" s="3" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="218" spans="1:5" ht="19.8">
       <c r="A218" s="2"/>
       <c r="B218" s="16" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C218" s="29"/>
       <c r="D218" s="1"/>
@@ -4647,7 +4682,7 @@
     <row r="219" spans="1:5" ht="19.8">
       <c r="A219" s="2"/>
       <c r="B219" s="16" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C219" s="29"/>
       <c r="D219" s="1"/>
@@ -4655,7 +4690,7 @@
     <row r="220" spans="1:5" ht="19.8">
       <c r="A220" s="2"/>
       <c r="B220" s="16" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C220" s="29"/>
       <c r="D220" s="1"/>
@@ -4663,7 +4698,7 @@
     <row r="221" spans="1:5" ht="19.8">
       <c r="A221" s="2"/>
       <c r="B221" s="16" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C221" s="29"/>
       <c r="D221" s="1"/>
@@ -4671,7 +4706,7 @@
     <row r="222" spans="1:5" ht="19.8">
       <c r="A222" s="2"/>
       <c r="B222" s="16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C222" s="29"/>
       <c r="D222" s="1"/>
@@ -4679,7 +4714,7 @@
     <row r="223" spans="1:5" ht="19.8">
       <c r="A223" s="2"/>
       <c r="B223" s="16" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C223" s="29"/>
       <c r="D223" s="1"/>
@@ -4687,7 +4722,7 @@
     <row r="224" spans="1:5" ht="19.8">
       <c r="A224" s="2"/>
       <c r="B224" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C224" s="29"/>
       <c r="D224" s="1"/>
@@ -4695,7 +4730,7 @@
     <row r="225" spans="1:4" ht="19.8">
       <c r="A225" s="2"/>
       <c r="B225" s="16" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C225" s="29"/>
       <c r="D225" s="1"/>
@@ -4703,7 +4738,7 @@
     <row r="226" spans="1:4" ht="19.8">
       <c r="A226" s="2"/>
       <c r="B226" s="16" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C226" s="29"/>
       <c r="D226" s="1"/>
@@ -4711,7 +4746,7 @@
     <row r="227" spans="1:4" ht="19.8">
       <c r="A227" s="2"/>
       <c r="B227" s="16" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C227" s="29"/>
       <c r="D227" s="1"/>
@@ -4719,7 +4754,7 @@
     <row r="228" spans="1:4" ht="19.8">
       <c r="A228" s="2"/>
       <c r="B228" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C228" s="29"/>
       <c r="D228" s="1"/>
@@ -4727,7 +4762,7 @@
     <row r="229" spans="1:4" ht="19.8">
       <c r="A229" s="2"/>
       <c r="B229" s="16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C229" s="29"/>
       <c r="D229" s="1"/>
@@ -4735,7 +4770,7 @@
     <row r="230" spans="1:4" ht="19.8">
       <c r="A230" s="2"/>
       <c r="B230" s="16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C230" s="29"/>
       <c r="D230" s="1"/>
@@ -4743,7 +4778,7 @@
     <row r="231" spans="1:4" ht="19.8">
       <c r="A231" s="2"/>
       <c r="B231" s="16" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C231" s="29"/>
       <c r="D231" s="1"/>
@@ -4751,34 +4786,39 @@
     <row r="232" spans="1:4" ht="19.8">
       <c r="A232" s="2"/>
       <c r="B232" s="16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C232" s="29"/>
       <c r="D232" s="1"/>
     </row>
     <row r="233" spans="1:4" ht="19.8">
       <c r="A233" s="2"/>
+      <c r="B233" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="C233" s="29"/>
       <c r="D233" s="1"/>
     </row>
     <row r="234" spans="1:4" ht="19.8">
       <c r="A234" s="2"/>
-      <c r="B234" s="18" t="s">
-        <v>500</v>
-      </c>
+      <c r="B234" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C234" s="29"/>
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" ht="19.8">
       <c r="A235" s="2"/>
       <c r="B235" s="16" t="s">
-        <v>196</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C235" s="29"/>
       <c r="D235" s="1"/>
     </row>
     <row r="236" spans="1:4" ht="19.8">
       <c r="A236" s="2"/>
       <c r="B236" s="16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C236" s="29"/>
       <c r="D236" s="1"/>
@@ -4786,7 +4826,7 @@
     <row r="237" spans="1:4" ht="19.8">
       <c r="A237" s="2"/>
       <c r="B237" s="16" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C237" s="29"/>
       <c r="D237" s="1"/>
@@ -4794,7 +4834,7 @@
     <row r="238" spans="1:4" ht="19.8">
       <c r="A238" s="2"/>
       <c r="B238" s="16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C238" s="29"/>
       <c r="D238" s="1"/>
@@ -4802,39 +4842,34 @@
     <row r="239" spans="1:4" ht="19.8">
       <c r="A239" s="2"/>
       <c r="B239" s="16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C239" s="29"/>
       <c r="D239" s="1"/>
     </row>
     <row r="240" spans="1:4" ht="19.8">
       <c r="A240" s="2"/>
-      <c r="B240" s="16" t="s">
-        <v>201</v>
-      </c>
       <c r="C240" s="29"/>
       <c r="D240" s="1"/>
     </row>
     <row r="241" spans="1:4" ht="19.8">
       <c r="A241" s="2"/>
-      <c r="B241" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C241" s="29"/>
+      <c r="B241" s="18" t="s">
+        <v>499</v>
+      </c>
       <c r="D241" s="1"/>
     </row>
     <row r="242" spans="1:4" ht="19.8">
       <c r="A242" s="2"/>
       <c r="B242" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C242" s="37"/>
+        <v>196</v>
+      </c>
       <c r="D242" s="1"/>
     </row>
     <row r="243" spans="1:4" ht="19.8">
       <c r="A243" s="2"/>
       <c r="B243" s="16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C243" s="29"/>
       <c r="D243" s="1"/>
@@ -4842,7 +4877,7 @@
     <row r="244" spans="1:4" ht="19.8">
       <c r="A244" s="2"/>
       <c r="B244" s="16" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C244" s="29"/>
       <c r="D244" s="1"/>
@@ -4850,7 +4885,7 @@
     <row r="245" spans="1:4" ht="19.8">
       <c r="A245" s="2"/>
       <c r="B245" s="16" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C245" s="29"/>
       <c r="D245" s="1"/>
@@ -4858,7 +4893,7 @@
     <row r="246" spans="1:4" ht="19.8">
       <c r="A246" s="2"/>
       <c r="B246" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C246" s="29"/>
       <c r="D246" s="1"/>
@@ -4866,15 +4901,15 @@
     <row r="247" spans="1:4" ht="19.8">
       <c r="A247" s="2"/>
       <c r="B247" s="16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C247" s="29"/>
       <c r="D247" s="1"/>
     </row>
     <row r="248" spans="1:4" ht="19.8">
       <c r="A248" s="2"/>
-      <c r="B248" s="16" t="s">
-        <v>209</v>
+      <c r="B248" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="C248" s="29"/>
       <c r="D248" s="1"/>
@@ -4882,15 +4917,15 @@
     <row r="249" spans="1:4" ht="19.8">
       <c r="A249" s="2"/>
       <c r="B249" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C249" s="29"/>
+        <v>203</v>
+      </c>
+      <c r="C249" s="37"/>
       <c r="D249" s="1"/>
     </row>
     <row r="250" spans="1:4" ht="19.8">
       <c r="A250" s="2"/>
       <c r="B250" s="16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C250" s="29"/>
       <c r="D250" s="1"/>
@@ -4898,7 +4933,7 @@
     <row r="251" spans="1:4" ht="19.8">
       <c r="A251" s="2"/>
       <c r="B251" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C251" s="29"/>
       <c r="D251" s="1"/>
@@ -4906,7 +4941,7 @@
     <row r="252" spans="1:4" ht="19.8">
       <c r="A252" s="2"/>
       <c r="B252" s="16" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C252" s="29"/>
       <c r="D252" s="1"/>
@@ -4914,7 +4949,7 @@
     <row r="253" spans="1:4" ht="19.8">
       <c r="A253" s="2"/>
       <c r="B253" s="16" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C253" s="29"/>
       <c r="D253" s="1"/>
@@ -4922,7 +4957,7 @@
     <row r="254" spans="1:4" ht="19.8">
       <c r="A254" s="2"/>
       <c r="B254" s="16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C254" s="29"/>
       <c r="D254" s="1"/>
@@ -4930,7 +4965,7 @@
     <row r="255" spans="1:4" ht="19.8">
       <c r="A255" s="2"/>
       <c r="B255" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C255" s="29"/>
       <c r="D255" s="1"/>
@@ -4938,34 +4973,39 @@
     <row r="256" spans="1:4" ht="19.8">
       <c r="A256" s="2"/>
       <c r="B256" s="16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C256" s="29"/>
       <c r="D256" s="1"/>
     </row>
     <row r="257" spans="1:4" ht="19.8">
       <c r="A257" s="2"/>
+      <c r="B257" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="C257" s="29"/>
       <c r="D257" s="1"/>
     </row>
     <row r="258" spans="1:4" ht="19.8">
       <c r="A258" s="2"/>
-      <c r="B258" s="18" t="s">
-        <v>501</v>
-      </c>
+      <c r="B258" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C258" s="29"/>
       <c r="D258" s="1"/>
     </row>
     <row r="259" spans="1:4" ht="19.8">
       <c r="A259" s="2"/>
       <c r="B259" s="16" t="s">
-        <v>218</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C259" s="29"/>
       <c r="D259" s="1"/>
     </row>
     <row r="260" spans="1:4" ht="19.8">
       <c r="A260" s="2"/>
       <c r="B260" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C260" s="29"/>
       <c r="D260" s="1"/>
@@ -4973,7 +5013,7 @@
     <row r="261" spans="1:4" ht="19.8">
       <c r="A261" s="2"/>
       <c r="B261" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C261" s="29"/>
       <c r="D261" s="1"/>
@@ -4981,7 +5021,7 @@
     <row r="262" spans="1:4" ht="19.8">
       <c r="A262" s="2"/>
       <c r="B262" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C262" s="29"/>
       <c r="D262" s="1"/>
@@ -4989,39 +5029,34 @@
     <row r="263" spans="1:4" ht="19.8">
       <c r="A263" s="2"/>
       <c r="B263" s="16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C263" s="29"/>
       <c r="D263" s="1"/>
     </row>
     <row r="264" spans="1:4" ht="19.8">
       <c r="A264" s="2"/>
-      <c r="B264" s="16" t="s">
-        <v>223</v>
-      </c>
       <c r="C264" s="29"/>
       <c r="D264" s="1"/>
     </row>
     <row r="265" spans="1:4" ht="19.8">
       <c r="A265" s="2"/>
-      <c r="B265" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C265" s="29"/>
+      <c r="B265" s="18" t="s">
+        <v>500</v>
+      </c>
       <c r="D265" s="1"/>
     </row>
     <row r="266" spans="1:4" ht="19.8">
       <c r="A266" s="2"/>
       <c r="B266" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C266" s="29"/>
+        <v>218</v>
+      </c>
       <c r="D266" s="1"/>
     </row>
     <row r="267" spans="1:4" ht="19.8">
       <c r="A267" s="2"/>
       <c r="B267" s="16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C267" s="29"/>
       <c r="D267" s="1"/>
@@ -5029,7 +5064,7 @@
     <row r="268" spans="1:4" ht="19.8">
       <c r="A268" s="2"/>
       <c r="B268" s="16" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C268" s="29"/>
       <c r="D268" s="1"/>
@@ -5037,7 +5072,7 @@
     <row r="269" spans="1:4" ht="19.8">
       <c r="A269" s="2"/>
       <c r="B269" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C269" s="29"/>
       <c r="D269" s="1"/>
@@ -5045,7 +5080,7 @@
     <row r="270" spans="1:4" ht="19.8">
       <c r="A270" s="2"/>
       <c r="B270" s="16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C270" s="29"/>
       <c r="D270" s="1"/>
@@ -5053,7 +5088,7 @@
     <row r="271" spans="1:4" ht="19.8">
       <c r="A271" s="2"/>
       <c r="B271" s="16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C271" s="29"/>
       <c r="D271" s="1"/>
@@ -5061,7 +5096,7 @@
     <row r="272" spans="1:4" ht="19.8">
       <c r="A272" s="2"/>
       <c r="B272" s="16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C272" s="29"/>
       <c r="D272" s="1"/>
@@ -5069,7 +5104,7 @@
     <row r="273" spans="1:4" ht="19.8">
       <c r="A273" s="2"/>
       <c r="B273" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C273" s="29"/>
       <c r="D273" s="1"/>
@@ -5077,7 +5112,7 @@
     <row r="274" spans="1:4" ht="19.8">
       <c r="A274" s="2"/>
       <c r="B274" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C274" s="29"/>
       <c r="D274" s="1"/>
@@ -5085,7 +5120,7 @@
     <row r="275" spans="1:4" ht="19.8">
       <c r="A275" s="2"/>
       <c r="B275" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C275" s="29"/>
       <c r="D275" s="1"/>
@@ -5093,7 +5128,7 @@
     <row r="276" spans="1:4" ht="19.8">
       <c r="A276" s="2"/>
       <c r="B276" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C276" s="29"/>
       <c r="D276" s="1"/>
@@ -5101,7 +5136,7 @@
     <row r="277" spans="1:4" ht="19.8">
       <c r="A277" s="2"/>
       <c r="B277" s="16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C277" s="29"/>
       <c r="D277" s="1"/>
@@ -5109,7 +5144,7 @@
     <row r="278" spans="1:4" ht="19.8">
       <c r="A278" s="2"/>
       <c r="B278" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C278" s="29"/>
       <c r="D278" s="1"/>
@@ -5117,7 +5152,7 @@
     <row r="279" spans="1:4" ht="19.8">
       <c r="A279" s="2"/>
       <c r="B279" s="16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C279" s="29"/>
       <c r="D279" s="1"/>
@@ -5125,7 +5160,7 @@
     <row r="280" spans="1:4" ht="19.8">
       <c r="A280" s="2"/>
       <c r="B280" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C280" s="29"/>
       <c r="D280" s="1"/>
@@ -5133,7 +5168,7 @@
     <row r="281" spans="1:4" ht="19.8">
       <c r="A281" s="2"/>
       <c r="B281" s="16" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C281" s="29"/>
       <c r="D281" s="1"/>
@@ -5141,7 +5176,7 @@
     <row r="282" spans="1:4" ht="19.8">
       <c r="A282" s="2"/>
       <c r="B282" s="16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C282" s="29"/>
       <c r="D282" s="1"/>
@@ -5149,7 +5184,7 @@
     <row r="283" spans="1:4" ht="19.8">
       <c r="A283" s="2"/>
       <c r="B283" s="16" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C283" s="29"/>
       <c r="D283" s="1"/>
@@ -5157,7 +5192,7 @@
     <row r="284" spans="1:4" ht="19.8">
       <c r="A284" s="2"/>
       <c r="B284" s="16" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C284" s="29"/>
       <c r="D284" s="1"/>
@@ -5165,7 +5200,7 @@
     <row r="285" spans="1:4" ht="19.8">
       <c r="A285" s="2"/>
       <c r="B285" s="16" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C285" s="29"/>
       <c r="D285" s="1"/>
@@ -5173,7 +5208,7 @@
     <row r="286" spans="1:4" ht="19.8">
       <c r="A286" s="2"/>
       <c r="B286" s="16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C286" s="29"/>
       <c r="D286" s="1"/>
@@ -5181,7 +5216,7 @@
     <row r="287" spans="1:4" ht="19.8">
       <c r="A287" s="2"/>
       <c r="B287" s="16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C287" s="29"/>
       <c r="D287" s="1"/>
@@ -5189,7 +5224,7 @@
     <row r="288" spans="1:4" ht="19.8">
       <c r="A288" s="2"/>
       <c r="B288" s="16" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C288" s="29"/>
       <c r="D288" s="1"/>
@@ -5197,7 +5232,7 @@
     <row r="289" spans="1:4" ht="19.8">
       <c r="A289" s="2"/>
       <c r="B289" s="16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C289" s="29"/>
       <c r="D289" s="1"/>
@@ -5205,7 +5240,7 @@
     <row r="290" spans="1:4" ht="19.8">
       <c r="A290" s="2"/>
       <c r="B290" s="16" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C290" s="29"/>
       <c r="D290" s="1"/>
@@ -5213,7 +5248,7 @@
     <row r="291" spans="1:4" ht="19.8">
       <c r="A291" s="2"/>
       <c r="B291" s="16" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C291" s="29"/>
       <c r="D291" s="1"/>
@@ -5221,7 +5256,7 @@
     <row r="292" spans="1:4" ht="19.8">
       <c r="A292" s="2"/>
       <c r="B292" s="16" t="s">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="C292" s="29"/>
       <c r="D292" s="1"/>
@@ -5229,182 +5264,184 @@
     <row r="293" spans="1:4" ht="19.8">
       <c r="A293" s="2"/>
       <c r="B293" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C293" s="29"/>
       <c r="D293" s="1"/>
     </row>
     <row r="294" spans="1:4" ht="19.8">
       <c r="A294" s="2"/>
+      <c r="B294" s="16" t="s">
+        <v>246</v>
+      </c>
       <c r="C294" s="29"/>
       <c r="D294" s="1"/>
     </row>
     <row r="295" spans="1:4" ht="19.8">
       <c r="A295" s="2"/>
-      <c r="B295" s="18" t="s">
-        <v>502</v>
-      </c>
+      <c r="B295" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C295" s="29"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4">
-      <c r="B296" s="25" t="s">
+    <row r="296" spans="1:4" ht="19.8">
+      <c r="A296" s="2"/>
+      <c r="B296" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C296" s="29"/>
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="1:4" ht="19.8">
+      <c r="A297" s="2"/>
+      <c r="B297" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C297" s="29"/>
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="1:4" ht="19.8">
+      <c r="A298" s="2"/>
+      <c r="B298" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C298" s="29"/>
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="1:4" ht="19.8">
+      <c r="A299" s="2"/>
+      <c r="B299" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C299" s="29"/>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4" ht="19.8">
+      <c r="A300" s="2"/>
+      <c r="B300" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C300" s="29"/>
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4" ht="19.8">
+      <c r="A301" s="2"/>
+      <c r="C301" s="29"/>
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" spans="1:4" ht="19.8">
+      <c r="A302" s="2"/>
+      <c r="B302" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="B303" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="B304" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="C296" s="18" t="s">
+      <c r="D304" s="1"/>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="B305" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="D305" s="1"/>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="D306" s="1"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="B307" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="C307" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="D307" s="1"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="B308" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="B309" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C309" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="D309" s="1"/>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="B310" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="D310" s="1"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="B311" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="D311" s="1"/>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="B312" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="D296" s="1"/>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="B297" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="D297" s="1"/>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="B298" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="D298" s="1"/>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="D299" s="1"/>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="B300" s="19" t="s">
+      <c r="D312" s="1"/>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="B313" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="B314" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D314" s="1"/>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="B315" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="C300" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="D300" s="1"/>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="B301" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="D301" s="1"/>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="B302" s="19" t="s">
+      <c r="C315" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="D315" s="1"/>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="B316" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="C302" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="D302" s="1"/>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="B303" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="D303" s="1"/>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="B304" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="D304" s="1"/>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="B305" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="D305" s="1"/>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="B306" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="D306" s="1"/>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="B307" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="D307" s="1"/>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="B308" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="C308" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="D308" s="1"/>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="B309" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="D309" s="1"/>
-    </row>
-    <row r="310" spans="1:4" ht="19.8">
-      <c r="A310" s="2"/>
-      <c r="B310" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C310" s="29"/>
-      <c r="D310" s="1"/>
-    </row>
-    <row r="311" spans="1:4" ht="19.8">
-      <c r="A311" s="2"/>
-      <c r="B311" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C311" s="29"/>
-      <c r="D311" s="1"/>
-    </row>
-    <row r="312" spans="1:4" ht="19.8">
-      <c r="A312" s="2"/>
-      <c r="B312" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C312" s="29"/>
-      <c r="D312" s="1"/>
-    </row>
-    <row r="313" spans="1:4" ht="19.8">
-      <c r="A313" s="2"/>
-      <c r="B313" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C313" s="29"/>
-      <c r="D313" s="1"/>
-    </row>
-    <row r="314" spans="1:4" ht="19.8">
-      <c r="A314" s="2"/>
-      <c r="B314" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C314" s="29"/>
-      <c r="D314" s="1"/>
-    </row>
-    <row r="315" spans="1:4" ht="19.8">
-      <c r="A315" s="2"/>
-      <c r="B315" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C315" s="29"/>
-      <c r="D315" s="1"/>
-    </row>
-    <row r="316" spans="1:4" ht="19.8">
-      <c r="A316" s="2"/>
-      <c r="B316" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C316" s="29"/>
       <c r="D316" s="1"/>
     </row>
     <row r="317" spans="1:4" ht="19.8">
       <c r="A317" s="2"/>
-      <c r="B317" s="16"/>
+      <c r="B317" s="16" t="s">
+        <v>252</v>
+      </c>
       <c r="C317" s="29"/>
       <c r="D317" s="1"/>
     </row>
     <row r="318" spans="1:4" ht="19.8">
       <c r="A318" s="2"/>
-      <c r="B318" s="20" t="s">
-        <v>451</v>
+      <c r="B318" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="C318" s="29"/>
       <c r="D318" s="1"/>
@@ -5412,7 +5449,7 @@
     <row r="319" spans="1:4" ht="19.8">
       <c r="A319" s="2"/>
       <c r="B319" s="16" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C319" s="29"/>
       <c r="D319" s="1"/>
@@ -5420,7 +5457,7 @@
     <row r="320" spans="1:4" ht="19.8">
       <c r="A320" s="2"/>
       <c r="B320" s="16" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C320" s="29"/>
       <c r="D320" s="1"/>
@@ -5428,39 +5465,39 @@
     <row r="321" spans="1:4" ht="19.8">
       <c r="A321" s="2"/>
       <c r="B321" s="16" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C321" s="29"/>
       <c r="D321" s="1"/>
     </row>
     <row r="322" spans="1:4" ht="19.8">
       <c r="A322" s="2"/>
-      <c r="B322" s="20" t="s">
-        <v>443</v>
+      <c r="B322" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="C322" s="29"/>
       <c r="D322" s="1"/>
     </row>
     <row r="323" spans="1:4" ht="19.8">
       <c r="A323" s="2"/>
-      <c r="B323" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C323" s="29"/>
+      <c r="B323" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="C323" s="29" t="s">
+        <v>567</v>
+      </c>
       <c r="D323" s="1"/>
     </row>
     <row r="324" spans="1:4" ht="19.8">
       <c r="A324" s="2"/>
-      <c r="B324" s="20" t="s">
-        <v>447</v>
-      </c>
+      <c r="B324" s="16"/>
       <c r="C324" s="29"/>
       <c r="D324" s="1"/>
     </row>
     <row r="325" spans="1:4" ht="19.8">
       <c r="A325" s="2"/>
-      <c r="B325" s="16" t="s">
-        <v>263</v>
+      <c r="B325" s="20" t="s">
+        <v>450</v>
       </c>
       <c r="C325" s="29"/>
       <c r="D325" s="1"/>
@@ -5468,7 +5505,7 @@
     <row r="326" spans="1:4" ht="19.8">
       <c r="A326" s="2"/>
       <c r="B326" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C326" s="29"/>
       <c r="D326" s="1"/>
@@ -5476,7 +5513,7 @@
     <row r="327" spans="1:4" ht="19.8">
       <c r="A327" s="2"/>
       <c r="B327" s="16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C327" s="29"/>
       <c r="D327" s="1"/>
@@ -5484,32 +5521,39 @@
     <row r="328" spans="1:4" ht="19.8">
       <c r="A328" s="2"/>
       <c r="B328" s="16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C328" s="29"/>
       <c r="D328" s="1"/>
     </row>
     <row r="329" spans="1:4" ht="19.8">
       <c r="A329" s="2"/>
-      <c r="B329" s="16" t="s">
-        <v>267</v>
+      <c r="B329" s="20" t="s">
+        <v>442</v>
       </c>
       <c r="C329" s="29"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" ht="19.8">
+      <c r="A330" s="2"/>
+      <c r="B330" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C330" s="29"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4">
-      <c r="B331" s="18" t="s">
-        <v>503</v>
-      </c>
+    <row r="331" spans="1:4" ht="19.8">
+      <c r="A331" s="2"/>
+      <c r="B331" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C331" s="29"/>
       <c r="D331" s="1"/>
     </row>
     <row r="332" spans="1:4" ht="19.8">
       <c r="A332" s="2"/>
       <c r="B332" s="16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C332" s="29"/>
       <c r="D332" s="1"/>
@@ -5517,7 +5561,7 @@
     <row r="333" spans="1:4" ht="19.8">
       <c r="A333" s="2"/>
       <c r="B333" s="16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C333" s="29"/>
       <c r="D333" s="1"/>
@@ -5525,7 +5569,7 @@
     <row r="334" spans="1:4" ht="19.8">
       <c r="A334" s="2"/>
       <c r="B334" s="16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C334" s="29"/>
       <c r="D334" s="1"/>
@@ -5533,7 +5577,7 @@
     <row r="335" spans="1:4" ht="19.8">
       <c r="A335" s="2"/>
       <c r="B335" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C335" s="29"/>
       <c r="D335" s="1"/>
@@ -5541,31 +5585,24 @@
     <row r="336" spans="1:4" ht="19.8">
       <c r="A336" s="2"/>
       <c r="B336" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C336" s="29"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" ht="19.8">
-      <c r="A337" s="2"/>
-      <c r="B337" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C337" s="29"/>
+    <row r="337" spans="1:4">
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="1:4" ht="19.8">
-      <c r="A338" s="2"/>
-      <c r="B338" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C338" s="29"/>
+    <row r="338" spans="1:4">
+      <c r="B338" s="18" t="s">
+        <v>502</v>
+      </c>
       <c r="D338" s="1"/>
     </row>
     <row r="339" spans="1:4" ht="19.8">
       <c r="A339" s="2"/>
       <c r="B339" s="16" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C339" s="29"/>
       <c r="D339" s="1"/>
@@ -5573,7 +5610,7 @@
     <row r="340" spans="1:4" ht="19.8">
       <c r="A340" s="2"/>
       <c r="B340" s="16" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C340" s="29"/>
       <c r="D340" s="1"/>
@@ -5581,7 +5618,7 @@
     <row r="341" spans="1:4" ht="19.8">
       <c r="A341" s="2"/>
       <c r="B341" s="16" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C341" s="29"/>
       <c r="D341" s="1"/>
@@ -5589,7 +5626,7 @@
     <row r="342" spans="1:4" ht="19.8">
       <c r="A342" s="2"/>
       <c r="B342" s="16" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C342" s="29"/>
       <c r="D342" s="1"/>
@@ -5597,7 +5634,7 @@
     <row r="343" spans="1:4" ht="19.8">
       <c r="A343" s="2"/>
       <c r="B343" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C343" s="29"/>
       <c r="D343" s="1"/>
@@ -5605,23 +5642,23 @@
     <row r="344" spans="1:4" ht="19.8">
       <c r="A344" s="2"/>
       <c r="B344" s="16" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C344" s="29"/>
       <c r="D344" s="1"/>
     </row>
     <row r="345" spans="1:4" ht="19.8">
       <c r="A345" s="2"/>
-      <c r="B345" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="C345" s="37"/>
+      <c r="B345" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C345" s="29"/>
       <c r="D345" s="1"/>
     </row>
     <row r="346" spans="1:4" ht="19.8">
       <c r="A346" s="2"/>
       <c r="B346" s="16" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C346" s="29"/>
       <c r="D346" s="1"/>
@@ -5629,7 +5666,7 @@
     <row r="347" spans="1:4" ht="19.8">
       <c r="A347" s="2"/>
       <c r="B347" s="16" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C347" s="29"/>
       <c r="D347" s="1"/>
@@ -5637,7 +5674,7 @@
     <row r="348" spans="1:4" ht="19.8">
       <c r="A348" s="2"/>
       <c r="B348" s="16" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C348" s="29"/>
       <c r="D348" s="1"/>
@@ -5645,7 +5682,7 @@
     <row r="349" spans="1:4" ht="19.8">
       <c r="A349" s="2"/>
       <c r="B349" s="16" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C349" s="29"/>
       <c r="D349" s="1"/>
@@ -5653,7 +5690,7 @@
     <row r="350" spans="1:4" ht="19.8">
       <c r="A350" s="2"/>
       <c r="B350" s="16" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C350" s="29"/>
       <c r="D350" s="1"/>
@@ -5661,23 +5698,23 @@
     <row r="351" spans="1:4" ht="19.8">
       <c r="A351" s="2"/>
       <c r="B351" s="16" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C351" s="29"/>
       <c r="D351" s="1"/>
     </row>
     <row r="352" spans="1:4" ht="19.8">
       <c r="A352" s="2"/>
-      <c r="B352" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C352" s="29"/>
+      <c r="B352" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C352" s="37"/>
       <c r="D352" s="1"/>
     </row>
     <row r="353" spans="1:4" ht="19.8">
       <c r="A353" s="2"/>
       <c r="B353" s="16" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C353" s="29"/>
       <c r="D353" s="1"/>
@@ -5685,7 +5722,7 @@
     <row r="354" spans="1:4" ht="19.8">
       <c r="A354" s="2"/>
       <c r="B354" s="16" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C354" s="29"/>
       <c r="D354" s="1"/>
@@ -5693,7 +5730,7 @@
     <row r="355" spans="1:4" ht="19.8">
       <c r="A355" s="2"/>
       <c r="B355" s="16" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C355" s="29"/>
       <c r="D355" s="1"/>
@@ -5701,7 +5738,7 @@
     <row r="356" spans="1:4" ht="19.8">
       <c r="A356" s="2"/>
       <c r="B356" s="16" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C356" s="29"/>
       <c r="D356" s="1"/>
@@ -5709,7 +5746,7 @@
     <row r="357" spans="1:4" ht="19.8">
       <c r="A357" s="2"/>
       <c r="B357" s="16" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C357" s="29"/>
       <c r="D357" s="1"/>
@@ -5717,7 +5754,7 @@
     <row r="358" spans="1:4" ht="19.8">
       <c r="A358" s="2"/>
       <c r="B358" s="16" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C358" s="29"/>
       <c r="D358" s="1"/>
@@ -5725,7 +5762,7 @@
     <row r="359" spans="1:4" ht="19.8">
       <c r="A359" s="2"/>
       <c r="B359" s="16" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C359" s="29"/>
       <c r="D359" s="1"/>
@@ -5733,7 +5770,7 @@
     <row r="360" spans="1:4" ht="19.8">
       <c r="A360" s="2"/>
       <c r="B360" s="16" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C360" s="29"/>
       <c r="D360" s="1"/>
@@ -5741,7 +5778,7 @@
     <row r="361" spans="1:4" ht="19.8">
       <c r="A361" s="2"/>
       <c r="B361" s="16" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C361" s="29"/>
       <c r="D361" s="1"/>
@@ -5749,7 +5786,7 @@
     <row r="362" spans="1:4" ht="19.8">
       <c r="A362" s="2"/>
       <c r="B362" s="16" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C362" s="29"/>
       <c r="D362" s="1"/>
@@ -5757,7 +5794,7 @@
     <row r="363" spans="1:4" ht="19.8">
       <c r="A363" s="2"/>
       <c r="B363" s="16" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C363" s="29"/>
       <c r="D363" s="1"/>
@@ -5765,7 +5802,7 @@
     <row r="364" spans="1:4" ht="19.8">
       <c r="A364" s="2"/>
       <c r="B364" s="16" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C364" s="29"/>
       <c r="D364" s="1"/>
@@ -5773,7 +5810,7 @@
     <row r="365" spans="1:4" ht="19.8">
       <c r="A365" s="2"/>
       <c r="B365" s="16" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C365" s="29"/>
       <c r="D365" s="1"/>
@@ -5781,7 +5818,7 @@
     <row r="366" spans="1:4" ht="19.8">
       <c r="A366" s="2"/>
       <c r="B366" s="16" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C366" s="29"/>
       <c r="D366" s="1"/>
@@ -5789,7 +5826,7 @@
     <row r="367" spans="1:4" ht="19.8">
       <c r="A367" s="2"/>
       <c r="B367" s="16" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C367" s="29"/>
       <c r="D367" s="1"/>
@@ -5797,7 +5834,7 @@
     <row r="368" spans="1:4" ht="19.8">
       <c r="A368" s="2"/>
       <c r="B368" s="16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C368" s="29"/>
       <c r="D368" s="1"/>
@@ -5805,122 +5842,122 @@
     <row r="369" spans="1:4" ht="19.8">
       <c r="A369" s="2"/>
       <c r="B369" s="16" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C369" s="29"/>
       <c r="D369" s="1"/>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" ht="19.8">
+      <c r="A370" s="2"/>
+      <c r="B370" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C370" s="29"/>
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="1:4">
-      <c r="B371" s="18" t="s">
-        <v>504</v>
-      </c>
+    <row r="371" spans="1:4" ht="19.8">
+      <c r="A371" s="2"/>
+      <c r="B371" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C371" s="29"/>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="1:4">
-      <c r="B372" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="C372" s="18" t="s">
-        <v>474</v>
-      </c>
+    <row r="372" spans="1:4" ht="19.8">
+      <c r="A372" s="2"/>
+      <c r="B372" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C372" s="29"/>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" ht="19.8">
+      <c r="A373" s="2"/>
+      <c r="B373" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C373" s="29"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" ht="19.8">
+      <c r="A374" s="2"/>
+      <c r="B374" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C374" s="29"/>
       <c r="D374" s="1"/>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" ht="19.8">
+      <c r="A375" s="2"/>
+      <c r="B375" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C375" s="29"/>
       <c r="D375" s="1"/>
     </row>
     <row r="376" spans="1:4" ht="19.8">
-      <c r="A376" s="4"/>
+      <c r="A376" s="2"/>
       <c r="B376" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C376" s="29"/>
       <c r="D376" s="1"/>
     </row>
-    <row r="377" spans="1:4" ht="19.8">
-      <c r="A377" s="4"/>
-      <c r="B377" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C377" s="29"/>
+    <row r="377" spans="1:4">
       <c r="D377" s="1"/>
     </row>
-    <row r="378" spans="1:4" ht="19.8">
-      <c r="A378" s="4"/>
-      <c r="B378" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C378" s="29"/>
+    <row r="378" spans="1:4">
+      <c r="B378" s="18" t="s">
+        <v>503</v>
+      </c>
       <c r="D378" s="1"/>
     </row>
-    <row r="379" spans="1:4" ht="19.8">
-      <c r="A379" s="4"/>
-      <c r="B379" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="C379" s="29"/>
+    <row r="379" spans="1:4">
+      <c r="B379" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="C379" s="18" t="s">
+        <v>473</v>
+      </c>
       <c r="D379" s="1"/>
     </row>
-    <row r="380" spans="1:4" ht="19.8">
-      <c r="A380" s="4"/>
-      <c r="B380" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C380" s="29"/>
+    <row r="380" spans="1:4">
       <c r="D380" s="1"/>
     </row>
-    <row r="381" spans="1:4" ht="19.8">
-      <c r="A381" s="4"/>
-      <c r="B381" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C381" s="29"/>
+    <row r="381" spans="1:4">
       <c r="D381" s="1"/>
     </row>
-    <row r="382" spans="1:4" ht="19.8">
-      <c r="A382" s="4"/>
-      <c r="B382" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="C382" s="29"/>
+    <row r="382" spans="1:4">
       <c r="D382" s="1"/>
     </row>
     <row r="383" spans="1:4" ht="19.8">
       <c r="A383" s="4"/>
       <c r="B383" s="16" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C383" s="29"/>
       <c r="D383" s="1"/>
     </row>
     <row r="384" spans="1:4" ht="19.8">
       <c r="A384" s="4"/>
-      <c r="B384" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="C384" s="37"/>
+      <c r="B384" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C384" s="29"/>
       <c r="D384" s="1"/>
     </row>
     <row r="385" spans="1:4" ht="19.8">
       <c r="A385" s="4"/>
       <c r="B385" s="16" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C385" s="29"/>
       <c r="D385" s="1"/>
     </row>
     <row r="386" spans="1:4" ht="19.8">
       <c r="A386" s="4"/>
-      <c r="B386" s="16" t="s">
-        <v>315</v>
+      <c r="B386" s="19" t="s">
+        <v>474</v>
       </c>
       <c r="C386" s="29"/>
       <c r="D386" s="1"/>
@@ -5928,7 +5965,7 @@
     <row r="387" spans="1:4" ht="19.8">
       <c r="A387" s="4"/>
       <c r="B387" s="16" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C387" s="29"/>
       <c r="D387" s="1"/>
@@ -5936,7 +5973,7 @@
     <row r="388" spans="1:4" ht="19.8">
       <c r="A388" s="4"/>
       <c r="B388" s="16" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C388" s="29"/>
       <c r="D388" s="1"/>
@@ -5944,7 +5981,7 @@
     <row r="389" spans="1:4" ht="19.8">
       <c r="A389" s="4"/>
       <c r="B389" s="16" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C389" s="29"/>
       <c r="D389" s="1"/>
@@ -5952,23 +5989,23 @@
     <row r="390" spans="1:4" ht="19.8">
       <c r="A390" s="4"/>
       <c r="B390" s="16" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C390" s="29"/>
       <c r="D390" s="1"/>
     </row>
     <row r="391" spans="1:4" ht="19.8">
       <c r="A391" s="4"/>
-      <c r="B391" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="C391" s="29"/>
+      <c r="B391" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C391" s="37"/>
       <c r="D391" s="1"/>
     </row>
     <row r="392" spans="1:4" ht="19.8">
       <c r="A392" s="4"/>
       <c r="B392" s="16" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C392" s="29"/>
       <c r="D392" s="1"/>
@@ -5976,30 +6013,39 @@
     <row r="393" spans="1:4" ht="19.8">
       <c r="A393" s="4"/>
       <c r="B393" s="16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C393" s="29"/>
       <c r="D393" s="1"/>
     </row>
     <row r="394" spans="1:4" ht="19.8">
       <c r="A394" s="4"/>
-      <c r="B394" s="16"/>
+      <c r="B394" s="16" t="s">
+        <v>315</v>
+      </c>
       <c r="C394" s="29"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" ht="19.8">
+      <c r="A395" s="4"/>
+      <c r="B395" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C395" s="29"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="1:4">
-      <c r="B396" s="18" t="s">
-        <v>505</v>
-      </c>
+    <row r="396" spans="1:4" ht="19.8">
+      <c r="A396" s="4"/>
+      <c r="B396" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C396" s="29"/>
       <c r="D396" s="1"/>
     </row>
     <row r="397" spans="1:4" ht="19.8">
       <c r="A397" s="4"/>
       <c r="B397" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C397" s="29"/>
       <c r="D397" s="1"/>
@@ -6007,7 +6053,7 @@
     <row r="398" spans="1:4" ht="19.8">
       <c r="A398" s="4"/>
       <c r="B398" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C398" s="29"/>
       <c r="D398" s="1"/>
@@ -6015,7 +6061,7 @@
     <row r="399" spans="1:4" ht="19.8">
       <c r="A399" s="4"/>
       <c r="B399" s="16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C399" s="29"/>
       <c r="D399" s="1"/>
@@ -6023,39 +6069,30 @@
     <row r="400" spans="1:4" ht="19.8">
       <c r="A400" s="4"/>
       <c r="B400" s="16" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C400" s="29"/>
       <c r="D400" s="1"/>
     </row>
     <row r="401" spans="1:4" ht="19.8">
       <c r="A401" s="4"/>
-      <c r="B401" s="16" t="s">
-        <v>327</v>
-      </c>
+      <c r="B401" s="16"/>
       <c r="C401" s="29"/>
       <c r="D401" s="1"/>
     </row>
-    <row r="402" spans="1:4" ht="19.8">
-      <c r="A402" s="4"/>
-      <c r="B402" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C402" s="29"/>
+    <row r="402" spans="1:4">
       <c r="D402" s="1"/>
     </row>
-    <row r="403" spans="1:4" ht="19.8">
-      <c r="A403" s="4"/>
-      <c r="B403" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C403" s="29"/>
+    <row r="403" spans="1:4">
+      <c r="B403" s="18" t="s">
+        <v>504</v>
+      </c>
       <c r="D403" s="1"/>
     </row>
     <row r="404" spans="1:4" ht="19.8">
       <c r="A404" s="4"/>
       <c r="B404" s="16" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C404" s="29"/>
       <c r="D404" s="1"/>
@@ -6063,7 +6100,7 @@
     <row r="405" spans="1:4" ht="19.8">
       <c r="A405" s="4"/>
       <c r="B405" s="16" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C405" s="29"/>
       <c r="D405" s="1"/>
@@ -6071,7 +6108,7 @@
     <row r="406" spans="1:4" ht="19.8">
       <c r="A406" s="4"/>
       <c r="B406" s="16" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C406" s="29"/>
       <c r="D406" s="1"/>
@@ -6079,7 +6116,7 @@
     <row r="407" spans="1:4" ht="19.8">
       <c r="A407" s="4"/>
       <c r="B407" s="16" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C407" s="29"/>
       <c r="D407" s="1"/>
@@ -6087,7 +6124,7 @@
     <row r="408" spans="1:4" ht="19.8">
       <c r="A408" s="4"/>
       <c r="B408" s="16" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C408" s="29"/>
       <c r="D408" s="1"/>
@@ -6095,7 +6132,7 @@
     <row r="409" spans="1:4" ht="19.8">
       <c r="A409" s="4"/>
       <c r="B409" s="16" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C409" s="29"/>
       <c r="D409" s="1"/>
@@ -6103,7 +6140,7 @@
     <row r="410" spans="1:4" ht="19.8">
       <c r="A410" s="4"/>
       <c r="B410" s="16" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C410" s="29"/>
       <c r="D410" s="1"/>
@@ -6111,7 +6148,7 @@
     <row r="411" spans="1:4" ht="19.8">
       <c r="A411" s="4"/>
       <c r="B411" s="16" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C411" s="29"/>
       <c r="D411" s="1"/>
@@ -6119,7 +6156,7 @@
     <row r="412" spans="1:4" ht="19.8">
       <c r="A412" s="4"/>
       <c r="B412" s="16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C412" s="29"/>
       <c r="D412" s="1"/>
@@ -6127,7 +6164,7 @@
     <row r="413" spans="1:4" ht="19.8">
       <c r="A413" s="4"/>
       <c r="B413" s="16" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C413" s="29"/>
       <c r="D413" s="1"/>
@@ -6135,7 +6172,7 @@
     <row r="414" spans="1:4" ht="19.8">
       <c r="A414" s="4"/>
       <c r="B414" s="16" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C414" s="29"/>
       <c r="D414" s="1"/>
@@ -6143,7 +6180,7 @@
     <row r="415" spans="1:4" ht="19.8">
       <c r="A415" s="4"/>
       <c r="B415" s="16" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C415" s="29"/>
       <c r="D415" s="1"/>
@@ -6151,7 +6188,7 @@
     <row r="416" spans="1:4" ht="19.8">
       <c r="A416" s="4"/>
       <c r="B416" s="16" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C416" s="29"/>
       <c r="D416" s="1"/>
@@ -6159,7 +6196,7 @@
     <row r="417" spans="1:4" ht="19.8">
       <c r="A417" s="4"/>
       <c r="B417" s="16" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C417" s="29"/>
       <c r="D417" s="1"/>
@@ -6167,7 +6204,7 @@
     <row r="418" spans="1:4" ht="19.8">
       <c r="A418" s="4"/>
       <c r="B418" s="16" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C418" s="29"/>
       <c r="D418" s="1"/>
@@ -6175,7 +6212,7 @@
     <row r="419" spans="1:4" ht="19.8">
       <c r="A419" s="4"/>
       <c r="B419" s="16" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C419" s="29"/>
       <c r="D419" s="1"/>
@@ -6183,7 +6220,7 @@
     <row r="420" spans="1:4" ht="19.8">
       <c r="A420" s="4"/>
       <c r="B420" s="16" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C420" s="29"/>
       <c r="D420" s="1"/>
@@ -6191,7 +6228,7 @@
     <row r="421" spans="1:4" ht="19.8">
       <c r="A421" s="4"/>
       <c r="B421" s="16" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C421" s="29"/>
       <c r="D421" s="1"/>
@@ -6199,7 +6236,7 @@
     <row r="422" spans="1:4" ht="19.8">
       <c r="A422" s="4"/>
       <c r="B422" s="16" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C422" s="29"/>
       <c r="D422" s="1"/>
@@ -6207,7 +6244,7 @@
     <row r="423" spans="1:4" ht="19.8">
       <c r="A423" s="4"/>
       <c r="B423" s="16" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C423" s="29"/>
       <c r="D423" s="1"/>
@@ -6215,7 +6252,7 @@
     <row r="424" spans="1:4" ht="19.8">
       <c r="A424" s="4"/>
       <c r="B424" s="16" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C424" s="29"/>
       <c r="D424" s="1"/>
@@ -6223,7 +6260,7 @@
     <row r="425" spans="1:4" ht="19.8">
       <c r="A425" s="4"/>
       <c r="B425" s="16" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C425" s="29"/>
       <c r="D425" s="1"/>
@@ -6231,15 +6268,15 @@
     <row r="426" spans="1:4" ht="19.8">
       <c r="A426" s="4"/>
       <c r="B426" s="16" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C426" s="29"/>
       <c r="D426" s="1"/>
     </row>
     <row r="427" spans="1:4" ht="19.8">
       <c r="A427" s="4"/>
-      <c r="B427" s="20" t="s">
-        <v>353</v>
+      <c r="B427" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="C427" s="29"/>
       <c r="D427" s="1"/>
@@ -6247,7 +6284,7 @@
     <row r="428" spans="1:4" ht="19.8">
       <c r="A428" s="4"/>
       <c r="B428" s="16" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C428" s="29"/>
       <c r="D428" s="1"/>
@@ -6255,7 +6292,7 @@
     <row r="429" spans="1:4" ht="19.8">
       <c r="A429" s="4"/>
       <c r="B429" s="16" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C429" s="29"/>
       <c r="D429" s="1"/>
@@ -6263,7 +6300,7 @@
     <row r="430" spans="1:4" ht="19.8">
       <c r="A430" s="4"/>
       <c r="B430" s="16" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C430" s="29"/>
       <c r="D430" s="1"/>
@@ -6271,7 +6308,7 @@
     <row r="431" spans="1:4" ht="19.8">
       <c r="A431" s="4"/>
       <c r="B431" s="16" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C431" s="29"/>
       <c r="D431" s="1"/>
@@ -6279,7 +6316,7 @@
     <row r="432" spans="1:4" ht="19.8">
       <c r="A432" s="4"/>
       <c r="B432" s="16" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C432" s="29"/>
       <c r="D432" s="1"/>
@@ -6287,15 +6324,15 @@
     <row r="433" spans="1:4" ht="19.8">
       <c r="A433" s="4"/>
       <c r="B433" s="16" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C433" s="29"/>
       <c r="D433" s="1"/>
     </row>
     <row r="434" spans="1:4" ht="19.8">
       <c r="A434" s="4"/>
-      <c r="B434" s="16" t="s">
-        <v>359</v>
+      <c r="B434" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="C434" s="29"/>
       <c r="D434" s="1"/>
@@ -6303,7 +6340,7 @@
     <row r="435" spans="1:4" ht="19.8">
       <c r="A435" s="4"/>
       <c r="B435" s="16" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C435" s="29"/>
       <c r="D435" s="1"/>
@@ -6311,7 +6348,7 @@
     <row r="436" spans="1:4" ht="19.8">
       <c r="A436" s="4"/>
       <c r="B436" s="16" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C436" s="29"/>
       <c r="D436" s="1"/>
@@ -6319,7 +6356,7 @@
     <row r="437" spans="1:4" ht="19.8">
       <c r="A437" s="4"/>
       <c r="B437" s="16" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C437" s="29"/>
       <c r="D437" s="1"/>
@@ -6327,7 +6364,7 @@
     <row r="438" spans="1:4" ht="19.8">
       <c r="A438" s="4"/>
       <c r="B438" s="16" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C438" s="29"/>
       <c r="D438" s="1"/>
@@ -6335,7 +6372,7 @@
     <row r="439" spans="1:4" ht="19.8">
       <c r="A439" s="4"/>
       <c r="B439" s="16" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C439" s="29"/>
       <c r="D439" s="1"/>
@@ -6343,264 +6380,264 @@
     <row r="440" spans="1:4" ht="19.8">
       <c r="A440" s="4"/>
       <c r="B440" s="16" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C440" s="29"/>
       <c r="D440" s="1"/>
     </row>
     <row r="441" spans="1:4" ht="19.8">
       <c r="A441" s="4"/>
-      <c r="B441" s="16"/>
+      <c r="B441" s="16" t="s">
+        <v>358</v>
+      </c>
       <c r="C441" s="29"/>
       <c r="D441" s="1"/>
     </row>
     <row r="442" spans="1:4" ht="19.8">
       <c r="A442" s="4"/>
-      <c r="B442" s="29" t="s">
-        <v>506</v>
+      <c r="B442" s="16" t="s">
+        <v>359</v>
       </c>
       <c r="C442" s="29"/>
       <c r="D442" s="1"/>
     </row>
     <row r="443" spans="1:4" ht="19.8">
       <c r="A443" s="4"/>
-      <c r="B443" s="27" t="s">
-        <v>470</v>
+      <c r="B443" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="C443" s="29"/>
       <c r="D443" s="1"/>
     </row>
     <row r="444" spans="1:4" ht="19.8">
       <c r="A444" s="4"/>
-      <c r="B444" s="29"/>
+      <c r="B444" s="16" t="s">
+        <v>361</v>
+      </c>
       <c r="C444" s="29"/>
       <c r="D444" s="1"/>
     </row>
     <row r="445" spans="1:4" ht="19.8">
       <c r="A445" s="4"/>
-      <c r="B445" s="29"/>
+      <c r="B445" s="16" t="s">
+        <v>362</v>
+      </c>
       <c r="C445" s="29"/>
       <c r="D445" s="1"/>
     </row>
     <row r="446" spans="1:4" ht="19.8">
       <c r="A446" s="4"/>
-      <c r="B446" s="29"/>
+      <c r="B446" s="16" t="s">
+        <v>363</v>
+      </c>
       <c r="C446" s="29"/>
       <c r="D446" s="1"/>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" ht="19.8">
+      <c r="A447" s="4"/>
+      <c r="B447" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C447" s="29"/>
       <c r="D447" s="1"/>
     </row>
-    <row r="448" spans="1:4">
-      <c r="B448" s="18" t="s">
-        <v>507</v>
-      </c>
+    <row r="448" spans="1:4" ht="19.8">
+      <c r="A448" s="4"/>
+      <c r="B448" s="16"/>
+      <c r="C448" s="29"/>
       <c r="D448" s="1"/>
     </row>
     <row r="449" spans="1:4" ht="19.8">
       <c r="A449" s="4"/>
-      <c r="B449" s="16" t="s">
-        <v>366</v>
+      <c r="B449" s="29" t="s">
+        <v>505</v>
       </c>
       <c r="C449" s="29"/>
       <c r="D449" s="1"/>
     </row>
     <row r="450" spans="1:4" ht="19.8">
       <c r="A450" s="4"/>
-      <c r="B450" s="16" t="s">
-        <v>367</v>
+      <c r="B450" s="27" t="s">
+        <v>469</v>
       </c>
       <c r="C450" s="29"/>
       <c r="D450" s="1"/>
     </row>
     <row r="451" spans="1:4" ht="19.8">
       <c r="A451" s="4"/>
-      <c r="B451" s="16" t="s">
-        <v>368</v>
-      </c>
+      <c r="B451" s="29"/>
       <c r="C451" s="29"/>
       <c r="D451" s="1"/>
     </row>
     <row r="452" spans="1:4" ht="19.8">
       <c r="A452" s="4"/>
-      <c r="B452" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="B452" s="29"/>
       <c r="C452" s="29"/>
       <c r="D452" s="1"/>
     </row>
     <row r="453" spans="1:4" ht="19.8">
       <c r="A453" s="4"/>
-      <c r="B453" s="16" t="s">
-        <v>369</v>
-      </c>
+      <c r="B453" s="29"/>
       <c r="C453" s="29"/>
       <c r="D453" s="1"/>
     </row>
-    <row r="454" spans="1:4" ht="19.8">
-      <c r="A454" s="4"/>
-      <c r="B454" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C454" s="29"/>
+    <row r="454" spans="1:4">
       <c r="D454" s="1"/>
     </row>
     <row r="455" spans="1:4">
+      <c r="B455" s="18" t="s">
+        <v>506</v>
+      </c>
       <c r="D455" s="1"/>
     </row>
-    <row r="456" spans="1:4" ht="21">
-      <c r="B456" s="18" t="s">
-        <v>540</v>
-      </c>
+    <row r="456" spans="1:4" ht="19.8">
+      <c r="A456" s="4"/>
+      <c r="B456" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C456" s="29"/>
       <c r="D456" s="1"/>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="11" t="s">
+    <row r="457" spans="1:4" ht="19.8">
+      <c r="A457" s="4"/>
+      <c r="B457" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C457" s="29"/>
+      <c r="D457" s="1"/>
+    </row>
+    <row r="458" spans="1:4" ht="19.8">
+      <c r="A458" s="4"/>
+      <c r="B458" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C458" s="29"/>
+      <c r="D458" s="1"/>
+    </row>
+    <row r="459" spans="1:4" ht="19.8">
+      <c r="A459" s="4"/>
+      <c r="B459" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C459" s="29"/>
+      <c r="D459" s="1"/>
+    </row>
+    <row r="460" spans="1:4" ht="19.8">
+      <c r="A460" s="4"/>
+      <c r="B460" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C460" s="29"/>
+      <c r="D460" s="1"/>
+    </row>
+    <row r="461" spans="1:4" ht="19.8">
+      <c r="A461" s="4"/>
+      <c r="B461" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C461" s="29"/>
+      <c r="D461" s="1"/>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="D462" s="1"/>
+    </row>
+    <row r="463" spans="1:4" ht="21">
+      <c r="B463" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D463" s="1"/>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B464" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C464" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D464" s="1"/>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="B465" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="C465" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="D465" s="1"/>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B466" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D466" s="1"/>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="B467" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="D467" s="1"/>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="B468" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="C468" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="D468" s="1"/>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="B469" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="B457" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="C457" s="18" t="s">
+      <c r="D469" s="1"/>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="B470" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C470" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="D457" s="1"/>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="B458" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="C458" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="D458" s="1"/>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="B459" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="D459" s="1"/>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="B460" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D460" s="1"/>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="B461" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="C461" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="D461" s="1"/>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="B462" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="D462" s="1"/>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="B463" s="20" t="s">
+      <c r="D470" s="1"/>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="B471" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="C463" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="D463" s="1"/>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="B464" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="D464" s="1"/>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="B465" s="20" t="s">
+      <c r="D471" s="1"/>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="B472" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C472" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="C465" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="D465" s="1"/>
-    </row>
-    <row r="466" spans="1:4">
-      <c r="D466" s="1"/>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="D467" s="1"/>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="D468" s="1"/>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="D469" s="1"/>
-    </row>
-    <row r="470" spans="1:4" ht="19.8">
-      <c r="A470" s="2"/>
-      <c r="B470" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C470" s="29"/>
-      <c r="D470" s="1"/>
-    </row>
-    <row r="471" spans="1:4" ht="19.8">
-      <c r="A471" s="2"/>
-      <c r="B471" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C471" s="29"/>
-      <c r="D471" s="1"/>
-    </row>
-    <row r="472" spans="1:4" ht="19.8">
-      <c r="A472" s="2"/>
-      <c r="B472" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C472" s="29"/>
       <c r="D472" s="1"/>
     </row>
-    <row r="473" spans="1:4" ht="19.8">
-      <c r="A473" s="2"/>
-      <c r="B473" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C473" s="29"/>
+    <row r="473" spans="1:4">
       <c r="D473" s="1"/>
     </row>
-    <row r="474" spans="1:4" ht="19.8">
-      <c r="A474" s="2"/>
-      <c r="B474" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="C474" s="29"/>
+    <row r="474" spans="1:4">
       <c r="D474" s="1"/>
     </row>
-    <row r="475" spans="1:4" ht="19.8">
-      <c r="A475" s="2"/>
-      <c r="B475" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C475" s="29"/>
+    <row r="475" spans="1:4">
       <c r="D475" s="1"/>
     </row>
-    <row r="476" spans="1:4" ht="19.8">
-      <c r="A476" s="2"/>
-      <c r="B476" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C476" s="29"/>
+    <row r="476" spans="1:4">
       <c r="D476" s="1"/>
     </row>
     <row r="477" spans="1:4" ht="19.8">
       <c r="A477" s="2"/>
       <c r="B477" s="20" t="s">
-        <v>451</v>
+        <v>370</v>
       </c>
       <c r="C477" s="29"/>
       <c r="D477" s="1"/>
@@ -6608,41 +6645,39 @@
     <row r="478" spans="1:4" ht="19.8">
       <c r="A478" s="2"/>
       <c r="B478" s="20" t="s">
-        <v>487</v>
+        <v>371</v>
       </c>
       <c r="C478" s="29"/>
       <c r="D478" s="1"/>
     </row>
     <row r="479" spans="1:4" ht="19.8">
       <c r="A479" s="2"/>
-      <c r="B479" s="20" t="s">
-        <v>488</v>
+      <c r="B479" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="C479" s="29"/>
       <c r="D479" s="1"/>
     </row>
     <row r="480" spans="1:4" ht="19.8">
       <c r="A480" s="2"/>
-      <c r="B480" s="20" t="s">
-        <v>489</v>
+      <c r="B480" s="16" t="s">
+        <v>373</v>
       </c>
       <c r="C480" s="29"/>
       <c r="D480" s="1"/>
     </row>
-    <row r="481" spans="1:4" ht="70.8">
+    <row r="481" spans="1:4" ht="19.8">
       <c r="A481" s="2"/>
-      <c r="B481" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="C481" s="14" t="s">
-        <v>493</v>
-      </c>
+      <c r="B481" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C481" s="29"/>
       <c r="D481" s="1"/>
     </row>
     <row r="482" spans="1:4" ht="19.8">
       <c r="A482" s="2"/>
       <c r="B482" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C482" s="29"/>
       <c r="D482" s="1"/>
@@ -6650,31 +6685,31 @@
     <row r="483" spans="1:4" ht="19.8">
       <c r="A483" s="2"/>
       <c r="B483" s="16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C483" s="29"/>
       <c r="D483" s="1"/>
     </row>
     <row r="484" spans="1:4" ht="19.8">
       <c r="A484" s="2"/>
-      <c r="B484" s="16" t="s">
-        <v>380</v>
+      <c r="B484" s="20" t="s">
+        <v>450</v>
       </c>
       <c r="C484" s="29"/>
       <c r="D484" s="1"/>
     </row>
     <row r="485" spans="1:4" ht="19.8">
       <c r="A485" s="2"/>
-      <c r="B485" s="16" t="s">
-        <v>381</v>
+      <c r="B485" s="20" t="s">
+        <v>486</v>
       </c>
       <c r="C485" s="29"/>
       <c r="D485" s="1"/>
     </row>
     <row r="486" spans="1:4" ht="19.8">
       <c r="A486" s="2"/>
-      <c r="B486" s="16" t="s">
-        <v>382</v>
+      <c r="B486" s="20" t="s">
+        <v>487</v>
       </c>
       <c r="C486" s="29"/>
       <c r="D486" s="1"/>
@@ -6682,41 +6717,41 @@
     <row r="487" spans="1:4" ht="19.8">
       <c r="A487" s="2"/>
       <c r="B487" s="20" t="s">
-        <v>383</v>
+        <v>488</v>
       </c>
       <c r="C487" s="29"/>
       <c r="D487" s="1"/>
     </row>
-    <row r="488" spans="1:4" ht="19.8">
+    <row r="488" spans="1:4" ht="70.8">
       <c r="A488" s="2"/>
       <c r="B488" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="C488" s="29"/>
+        <v>489</v>
+      </c>
+      <c r="C488" s="14" t="s">
+        <v>492</v>
+      </c>
       <c r="D488" s="1"/>
     </row>
     <row r="489" spans="1:4" ht="19.8">
       <c r="A489" s="2"/>
-      <c r="B489" s="20" t="s">
-        <v>523</v>
+      <c r="B489" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="C489" s="29"/>
       <c r="D489" s="1"/>
     </row>
     <row r="490" spans="1:4" ht="19.8">
       <c r="A490" s="2"/>
-      <c r="B490" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C490" s="29" t="s">
-        <v>533</v>
-      </c>
+      <c r="B490" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C490" s="29"/>
       <c r="D490" s="1"/>
     </row>
     <row r="491" spans="1:4" ht="19.8">
       <c r="A491" s="2"/>
-      <c r="B491" s="39" t="s">
-        <v>534</v>
+      <c r="B491" s="16" t="s">
+        <v>379</v>
       </c>
       <c r="C491" s="29"/>
       <c r="D491" s="1"/>
@@ -6724,7 +6759,7 @@
     <row r="492" spans="1:4" ht="19.8">
       <c r="A492" s="2"/>
       <c r="B492" s="16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C492" s="29"/>
       <c r="D492" s="1"/>
@@ -6732,7 +6767,7 @@
     <row r="493" spans="1:4" ht="19.8">
       <c r="A493" s="2"/>
       <c r="B493" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C493" s="29"/>
       <c r="D493" s="1"/>
@@ -6740,63 +6775,65 @@
     <row r="494" spans="1:4" ht="19.8">
       <c r="A494" s="2"/>
       <c r="B494" s="20" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C494" s="29"/>
       <c r="D494" s="1"/>
     </row>
     <row r="495" spans="1:4" ht="19.8">
       <c r="A495" s="2"/>
-      <c r="B495" s="16" t="s">
-        <v>388</v>
+      <c r="B495" s="20" t="s">
+        <v>517</v>
       </c>
       <c r="C495" s="29"/>
       <c r="D495" s="1"/>
     </row>
     <row r="496" spans="1:4" ht="19.8">
       <c r="A496" s="2"/>
-      <c r="B496" s="16" t="s">
-        <v>389</v>
+      <c r="B496" s="20" t="s">
+        <v>522</v>
       </c>
       <c r="C496" s="29"/>
       <c r="D496" s="1"/>
     </row>
     <row r="497" spans="1:4" ht="19.8">
       <c r="A497" s="2"/>
-      <c r="B497" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="C497" s="29"/>
+      <c r="B497" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C497" s="29" t="s">
+        <v>532</v>
+      </c>
       <c r="D497" s="1"/>
     </row>
     <row r="498" spans="1:4" ht="19.8">
       <c r="A498" s="2"/>
-      <c r="B498" s="16" t="s">
-        <v>391</v>
+      <c r="B498" s="39" t="s">
+        <v>533</v>
       </c>
       <c r="C498" s="29"/>
       <c r="D498" s="1"/>
     </row>
     <row r="499" spans="1:4" ht="19.8">
       <c r="A499" s="2"/>
-      <c r="B499" s="20" t="s">
-        <v>521</v>
+      <c r="B499" s="16" t="s">
+        <v>384</v>
       </c>
       <c r="C499" s="29"/>
       <c r="D499" s="1"/>
     </row>
     <row r="500" spans="1:4" ht="19.8">
       <c r="A500" s="2"/>
-      <c r="B500" s="20" t="s">
-        <v>522</v>
+      <c r="B500" s="16" t="s">
+        <v>385</v>
       </c>
       <c r="C500" s="29"/>
       <c r="D500" s="1"/>
     </row>
     <row r="501" spans="1:4" ht="19.8">
       <c r="A501" s="2"/>
-      <c r="B501" s="16" t="s">
-        <v>392</v>
+      <c r="B501" s="20" t="s">
+        <v>386</v>
       </c>
       <c r="C501" s="29"/>
       <c r="D501" s="1"/>
@@ -6804,15 +6841,15 @@
     <row r="502" spans="1:4" ht="19.8">
       <c r="A502" s="2"/>
       <c r="B502" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="C502" s="38"/>
+        <v>387</v>
+      </c>
+      <c r="C502" s="29"/>
       <c r="D502" s="1"/>
     </row>
     <row r="503" spans="1:4" ht="19.8">
       <c r="A503" s="2"/>
       <c r="B503" s="16" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C503" s="29"/>
       <c r="D503" s="1"/>
@@ -6820,33 +6857,31 @@
     <row r="504" spans="1:4" ht="19.8">
       <c r="A504" s="2"/>
       <c r="B504" s="16" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C504" s="29"/>
       <c r="D504" s="1"/>
     </row>
     <row r="505" spans="1:4" ht="19.8">
       <c r="A505" s="2"/>
-      <c r="B505" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C505" s="38" t="s">
-        <v>484</v>
-      </c>
+      <c r="B505" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C505" s="29"/>
       <c r="D505" s="1"/>
     </row>
     <row r="506" spans="1:4" ht="19.8">
       <c r="A506" s="2"/>
-      <c r="B506" s="16" t="s">
-        <v>397</v>
+      <c r="B506" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="C506" s="29"/>
       <c r="D506" s="1"/>
     </row>
     <row r="507" spans="1:4" ht="19.8">
       <c r="A507" s="2"/>
-      <c r="B507" s="16" t="s">
-        <v>398</v>
+      <c r="B507" s="20" t="s">
+        <v>521</v>
       </c>
       <c r="C507" s="29"/>
       <c r="D507" s="1"/>
@@ -6854,7 +6889,7 @@
     <row r="508" spans="1:4" ht="19.8">
       <c r="A508" s="2"/>
       <c r="B508" s="16" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C508" s="29"/>
       <c r="D508" s="1"/>
@@ -6862,41 +6897,41 @@
     <row r="509" spans="1:4" ht="19.8">
       <c r="A509" s="2"/>
       <c r="B509" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="C509" s="29"/>
+        <v>392</v>
+      </c>
+      <c r="C509" s="38"/>
       <c r="D509" s="1"/>
     </row>
     <row r="510" spans="1:4" ht="19.8">
       <c r="A510" s="2"/>
-      <c r="B510" s="20" t="s">
-        <v>401</v>
+      <c r="B510" s="16" t="s">
+        <v>393</v>
       </c>
       <c r="C510" s="29"/>
       <c r="D510" s="1"/>
     </row>
     <row r="511" spans="1:4" ht="19.8">
       <c r="A511" s="2"/>
-      <c r="B511" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C511" s="29" t="s">
-        <v>520</v>
-      </c>
+      <c r="B511" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C511" s="29"/>
       <c r="D511" s="1"/>
     </row>
     <row r="512" spans="1:4" ht="19.8">
       <c r="A512" s="2"/>
-      <c r="B512" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="C512" s="29"/>
+      <c r="B512" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C512" s="38" t="s">
+        <v>483</v>
+      </c>
       <c r="D512" s="1"/>
     </row>
     <row r="513" spans="1:4" ht="19.8">
       <c r="A513" s="2"/>
       <c r="B513" s="16" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C513" s="29"/>
       <c r="D513" s="1"/>
@@ -6904,7 +6939,7 @@
     <row r="514" spans="1:4" ht="19.8">
       <c r="A514" s="2"/>
       <c r="B514" s="16" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C514" s="29"/>
       <c r="D514" s="1"/>
@@ -6912,158 +6947,160 @@
     <row r="515" spans="1:4" ht="19.8">
       <c r="A515" s="2"/>
       <c r="B515" s="16" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C515" s="29"/>
       <c r="D515" s="1"/>
     </row>
     <row r="516" spans="1:4" ht="19.8">
       <c r="A516" s="2"/>
-      <c r="B516" s="20" t="s">
-        <v>406</v>
-      </c>
+      <c r="B516" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C516" s="29"/>
       <c r="D516" s="1"/>
     </row>
     <row r="517" spans="1:4" ht="19.8">
       <c r="A517" s="2"/>
-      <c r="B517" s="16" t="s">
-        <v>407</v>
+      <c r="B517" s="20" t="s">
+        <v>400</v>
       </c>
       <c r="C517" s="29"/>
       <c r="D517" s="1"/>
     </row>
     <row r="518" spans="1:4" ht="19.8">
       <c r="A518" s="2"/>
-      <c r="B518" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C518" s="29"/>
+      <c r="B518" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C518" s="29" t="s">
+        <v>519</v>
+      </c>
       <c r="D518" s="1"/>
     </row>
     <row r="519" spans="1:4" ht="19.8">
       <c r="A519" s="2"/>
-      <c r="B519" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="C519" s="38" t="s">
-        <v>491</v>
-      </c>
+      <c r="B519" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C519" s="29"/>
       <c r="D519" s="1"/>
     </row>
     <row r="520" spans="1:4" ht="19.8">
       <c r="A520" s="2"/>
-      <c r="B520" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C520" s="29" t="s">
-        <v>524</v>
-      </c>
+      <c r="B520" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C520" s="29"/>
       <c r="D520" s="1"/>
     </row>
-    <row r="521" spans="1:4" ht="54.6">
+    <row r="521" spans="1:4" ht="19.8">
       <c r="A521" s="2"/>
-      <c r="B521" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="C521" s="41" t="s">
-        <v>529</v>
-      </c>
+      <c r="B521" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C521" s="29"/>
       <c r="D521" s="1"/>
     </row>
-    <row r="522" spans="1:4" ht="36.6">
+    <row r="522" spans="1:4" ht="19.8">
       <c r="A522" s="2"/>
-      <c r="B522" s="39" t="s">
-        <v>528</v>
-      </c>
-      <c r="C522" s="41" t="s">
-        <v>530</v>
-      </c>
+      <c r="B522" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C522" s="29"/>
       <c r="D522" s="1"/>
     </row>
     <row r="523" spans="1:4" ht="19.8">
       <c r="A523" s="2"/>
       <c r="B523" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="C523" s="41"/>
+        <v>405</v>
+      </c>
       <c r="D523" s="1"/>
     </row>
     <row r="524" spans="1:4" ht="19.8">
       <c r="A524" s="2"/>
-      <c r="B524" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="C524" s="41"/>
+      <c r="B524" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C524" s="29"/>
       <c r="D524" s="1"/>
     </row>
     <row r="525" spans="1:4" ht="19.8">
       <c r="A525" s="2"/>
-      <c r="B525" s="32" t="s">
-        <v>411</v>
+      <c r="B525" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="C525" s="29"/>
       <c r="D525" s="1"/>
     </row>
     <row r="526" spans="1:4" ht="19.8">
       <c r="A526" s="2"/>
-      <c r="B526" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="C526" s="29"/>
+      <c r="B526" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C526" s="38" t="s">
+        <v>490</v>
+      </c>
       <c r="D526" s="1"/>
     </row>
     <row r="527" spans="1:4" ht="19.8">
       <c r="A527" s="2"/>
-      <c r="B527" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="C527" s="29"/>
+      <c r="B527" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C527" s="29" t="s">
+        <v>523</v>
+      </c>
       <c r="D527" s="1"/>
     </row>
-    <row r="528" spans="1:4" ht="19.8">
+    <row r="528" spans="1:4" ht="54.6">
       <c r="A528" s="2"/>
-      <c r="B528" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C528" s="29"/>
+      <c r="B528" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="C528" s="41" t="s">
+        <v>528</v>
+      </c>
       <c r="D528" s="1"/>
     </row>
-    <row r="529" spans="1:4" ht="19.8">
+    <row r="529" spans="1:4" ht="36.6">
       <c r="A529" s="2"/>
-      <c r="B529" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C529" s="29"/>
+      <c r="B529" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C529" s="41" t="s">
+        <v>529</v>
+      </c>
       <c r="D529" s="1"/>
     </row>
     <row r="530" spans="1:4" ht="19.8">
       <c r="A530" s="2"/>
-      <c r="B530" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C530" s="29"/>
+      <c r="B530" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="C530" s="41"/>
       <c r="D530" s="1"/>
     </row>
     <row r="531" spans="1:4" ht="19.8">
       <c r="A531" s="2"/>
-      <c r="B531" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="C531" s="29"/>
+      <c r="B531" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="C531" s="41"/>
       <c r="D531" s="1"/>
     </row>
     <row r="532" spans="1:4" ht="19.8">
       <c r="A532" s="2"/>
-      <c r="B532" s="20" t="s">
-        <v>417</v>
+      <c r="B532" s="32" t="s">
+        <v>410</v>
       </c>
       <c r="C532" s="29"/>
       <c r="D532" s="1"/>
     </row>
     <row r="533" spans="1:4" ht="19.8">
       <c r="A533" s="2"/>
-      <c r="B533" s="16" t="s">
-        <v>418</v>
+      <c r="B533" s="32" t="s">
+        <v>525</v>
       </c>
       <c r="C533" s="29"/>
       <c r="D533" s="1"/>
@@ -7071,7 +7108,7 @@
     <row r="534" spans="1:4" ht="19.8">
       <c r="A534" s="2"/>
       <c r="B534" s="16" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C534" s="29"/>
       <c r="D534" s="1"/>
@@ -7079,7 +7116,7 @@
     <row r="535" spans="1:4" ht="19.8">
       <c r="A535" s="2"/>
       <c r="B535" s="16" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C535" s="29"/>
       <c r="D535" s="1"/>
@@ -7087,7 +7124,7 @@
     <row r="536" spans="1:4" ht="19.8">
       <c r="A536" s="2"/>
       <c r="B536" s="16" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C536" s="29"/>
       <c r="D536" s="1"/>
@@ -7095,7 +7132,7 @@
     <row r="537" spans="1:4" ht="19.8">
       <c r="A537" s="2"/>
       <c r="B537" s="16" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C537" s="29"/>
       <c r="D537" s="1"/>
@@ -7103,15 +7140,15 @@
     <row r="538" spans="1:4" ht="19.8">
       <c r="A538" s="2"/>
       <c r="B538" s="16" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C538" s="29"/>
       <c r="D538" s="1"/>
     </row>
     <row r="539" spans="1:4" ht="19.8">
       <c r="A539" s="2"/>
-      <c r="B539" s="16" t="s">
-        <v>424</v>
+      <c r="B539" s="20" t="s">
+        <v>416</v>
       </c>
       <c r="C539" s="29"/>
       <c r="D539" s="1"/>
@@ -7119,7 +7156,7 @@
     <row r="540" spans="1:4" ht="19.8">
       <c r="A540" s="2"/>
       <c r="B540" s="16" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C540" s="29"/>
       <c r="D540" s="1"/>
@@ -7127,34 +7164,39 @@
     <row r="541" spans="1:4" ht="19.8">
       <c r="A541" s="2"/>
       <c r="B541" s="16" t="s">
-        <v>426</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C541" s="29"/>
       <c r="D541" s="1"/>
     </row>
     <row r="542" spans="1:4" ht="19.8">
-      <c r="A542" s="4"/>
+      <c r="A542" s="2"/>
       <c r="B542" s="16" t="s">
-        <v>427</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C542" s="29"/>
       <c r="D542" s="1"/>
     </row>
     <row r="543" spans="1:4" ht="19.8">
       <c r="A543" s="2"/>
       <c r="B543" s="16" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C543" s="29"/>
       <c r="D543" s="1"/>
     </row>
     <row r="544" spans="1:4" ht="19.8">
       <c r="A544" s="2"/>
+      <c r="B544" s="16" t="s">
+        <v>421</v>
+      </c>
       <c r="C544" s="29"/>
       <c r="D544" s="1"/>
     </row>
     <row r="545" spans="1:4" ht="19.8">
       <c r="A545" s="2"/>
-      <c r="B545" s="18" t="s">
-        <v>508</v>
+      <c r="B545" s="16" t="s">
+        <v>422</v>
       </c>
       <c r="C545" s="29"/>
       <c r="D545" s="1"/>
@@ -7162,7 +7204,7 @@
     <row r="546" spans="1:4" ht="19.8">
       <c r="A546" s="2"/>
       <c r="B546" s="16" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C546" s="29"/>
       <c r="D546" s="1"/>
@@ -7170,7 +7212,7 @@
     <row r="547" spans="1:4" ht="19.8">
       <c r="A547" s="2"/>
       <c r="B547" s="16" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C547" s="29"/>
       <c r="D547" s="1"/>
@@ -7178,101 +7220,152 @@
     <row r="548" spans="1:4" ht="19.8">
       <c r="A548" s="2"/>
       <c r="B548" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="C548" s="29"/>
+        <v>425</v>
+      </c>
       <c r="D548" s="1"/>
     </row>
     <row r="549" spans="1:4" ht="19.8">
-      <c r="A549" s="2"/>
+      <c r="A549" s="4"/>
       <c r="B549" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="C549" s="29"/>
+        <v>426</v>
+      </c>
       <c r="D549" s="1"/>
     </row>
     <row r="550" spans="1:4" ht="19.8">
       <c r="A550" s="2"/>
       <c r="B550" s="16" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C550" s="29"/>
       <c r="D550" s="1"/>
     </row>
     <row r="551" spans="1:4" ht="19.8">
       <c r="A551" s="2"/>
-      <c r="B551" s="16" t="s">
-        <v>434</v>
-      </c>
       <c r="C551" s="29"/>
       <c r="D551" s="1"/>
     </row>
     <row r="552" spans="1:4" ht="19.8">
       <c r="A552" s="2"/>
-      <c r="B552" s="16" t="s">
-        <v>435</v>
+      <c r="B552" s="18" t="s">
+        <v>507</v>
       </c>
       <c r="C552" s="29"/>
       <c r="D552" s="1"/>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" ht="19.8">
+      <c r="A553" s="2"/>
       <c r="B553" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C553" s="29"/>
+      <c r="D553" s="1"/>
+    </row>
+    <row r="554" spans="1:4" ht="19.8">
+      <c r="A554" s="2"/>
+      <c r="B554" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C554" s="29"/>
+      <c r="D554" s="1"/>
+    </row>
+    <row r="555" spans="1:4" ht="19.8">
+      <c r="A555" s="2"/>
+      <c r="B555" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C555" s="29"/>
+      <c r="D555" s="1"/>
+    </row>
+    <row r="556" spans="1:4" ht="19.8">
+      <c r="A556" s="2"/>
+      <c r="B556" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C556" s="29"/>
+      <c r="D556" s="1"/>
+    </row>
+    <row r="557" spans="1:4" ht="19.8">
+      <c r="A557" s="2"/>
+      <c r="B557" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C557" s="29"/>
+      <c r="D557" s="1"/>
+    </row>
+    <row r="558" spans="1:4" ht="19.8">
+      <c r="A558" s="2"/>
+      <c r="B558" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C558" s="29"/>
+      <c r="D558" s="1"/>
+    </row>
+    <row r="559" spans="1:4" ht="19.8">
+      <c r="A559" s="2"/>
+      <c r="B559" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C559" s="29"/>
+      <c r="D559" s="1"/>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="B560" s="16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3">
+      <c r="B561" s="16" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
-      <c r="B554" s="16" t="s">
+    <row r="562" spans="2:3">
+      <c r="B562" s="16" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
-      <c r="B555" s="16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4">
-      <c r="B558" s="18" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4">
-      <c r="C559" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="561" spans="2:2">
-      <c r="B561" s="19" t="s">
+    <row r="565" spans="2:3">
+      <c r="B565" s="18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3">
+      <c r="C566" s="18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3">
+      <c r="B568" s="19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3">
+      <c r="B569" s="27" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="562" spans="2:2">
-      <c r="B562" s="27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="563" spans="2:2">
-      <c r="B563" s="19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="564" spans="2:2">
-      <c r="B564" s="19" t="s">
+    <row r="570" spans="2:3">
+      <c r="B570" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3">
+      <c r="B571" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3">
+      <c r="B572" s="19" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="565" spans="2:2">
-      <c r="B565" s="19" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="566" spans="2:2">
-      <c r="B566" s="20" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="605" spans="2:2">
-      <c r="B605" s="18" t="s">
-        <v>559</v>
+    <row r="573" spans="2:3">
+      <c r="B573" s="20" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2">
+      <c r="B612" s="18" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -7435,341 +7528,341 @@
     <hyperlink ref="B183" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
     <hyperlink ref="B184" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
     <hyperlink ref="B185" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B195" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B197" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B199" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B201" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B202" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B203" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B204" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B205" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B206" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B207" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B208" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B209" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B210" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B211" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B212" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B213" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B214" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B215" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B216" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B217" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B218" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B219" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B220" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B221" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B222" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B223" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B224" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B225" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B226" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B227" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B228" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B229" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B230" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B231" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B232" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B235" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B236" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B237" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B238" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B239" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B240" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B241" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B242" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B243" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B244" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B245" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B246" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B247" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B248" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B249" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B250" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B251" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B252" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B253" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B254" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B255" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B256" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B259" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B260" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B261" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B262" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B263" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B264" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B265" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B266" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B267" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B268" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B269" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B270" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B271" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B272" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B273" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B274" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B275" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B276" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B277" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B278" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B279" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B280" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B281" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B282" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B283" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B284" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B285" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B286" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B287" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B288" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B289" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B290" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B291" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B292" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B293" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B310" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B311" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B312" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B313" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B314" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B315" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B316" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B318" r:id="rId258" display="Subset Sum Problem" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B319" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B320" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B321" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B322" r:id="rId262" display="Combinational Sum" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B323" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B324" r:id="rId264" display="Print all permutations of a string " xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B325" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B326" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B327" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B328" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B329" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B332" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B333" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B334" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B335" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B336" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B337" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B338" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B339" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B340" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B341" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B342" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B343" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B344" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B345" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B346" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B347" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B348" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B349" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B350" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B351" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B352" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B353" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B354" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B355" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B356" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B357" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B358" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B359" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B360" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B361" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B362" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B363" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B364" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B365" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B366" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B367" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B368" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B369" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B376" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B377" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B378" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B379" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B380" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B381" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B382" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B383" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B384" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B385" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B386" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B387" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B388" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B389" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B390" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B391" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B392" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B393" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B398" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B399" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B400" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B401" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B402" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B403" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B404" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B405" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B406" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B407" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B408" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B409" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B410" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B411" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B412" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B413" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B414" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B415" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B416" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B417" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B418" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B419" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B420" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B421" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B422" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B423" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B424" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B425" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B426" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B427" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B428" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B429" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B430" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B431" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B432" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B433" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B434" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B435" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B437" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B436" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B438" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B439" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B440" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B449" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B450" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B451" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B452" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B453" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B454" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B470" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B471" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B472" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B473" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B474" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B475" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B476" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B477" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B482" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B483" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B484" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B485" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B486" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B487" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B490" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B492" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B493" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B494" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B495" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B496" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B497" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B498" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B501" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B502" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B503" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B504" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B505" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B506" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B507" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B508" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B509" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B510" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B512" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B513" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B514" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B515" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B516" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B517" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B518" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B519" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B521" r:id="rId415" display="Count All Palindromic Subsequence in a given String" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B520" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B525" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B527" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B528" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B529" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B530" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B531" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B532" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B533" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B534" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B535" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B536" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B543" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B542" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B541" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B540" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B539" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B538" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B537" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B546" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B547" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B548" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B549" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B550" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B551" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B552" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B555" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B553" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B554" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B397" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B305" r:id="rId446" xr:uid="{E53BE2F0-AC22-43D0-BD53-D61960B98828}"/>
-    <hyperlink ref="B306" r:id="rId447" xr:uid="{E8F3B1B0-B6F1-4A92-B8C0-23AD6DE75C47}"/>
-    <hyperlink ref="B302" r:id="rId448" xr:uid="{05D37F33-406F-4F93-A25C-A905369D9C0C}"/>
-    <hyperlink ref="B300" r:id="rId449" xr:uid="{6EAC365B-70F1-4B65-8A5B-C50F8B553371}"/>
-    <hyperlink ref="B308" r:id="rId450" xr:uid="{7FE6547E-0A9F-45C2-B56D-F257159EE50E}"/>
-    <hyperlink ref="B307" r:id="rId451" xr:uid="{B1CDC9F4-B1E5-43E5-B6DC-6FAD971F94AE}"/>
-    <hyperlink ref="B304" r:id="rId452" xr:uid="{4FBECC30-01EC-434D-AEDE-94C4F9056BF5}"/>
-    <hyperlink ref="B457" r:id="rId453" xr:uid="{1EDA4193-29A4-46BF-89A2-F2BC29C9F0C0}"/>
-    <hyperlink ref="B458" r:id="rId454" xr:uid="{344B9E2D-1679-418F-A694-A3926C319D5E}"/>
-    <hyperlink ref="B459" r:id="rId455" xr:uid="{08BF6851-3952-4205-89C6-098BD03ACFE9}"/>
-    <hyperlink ref="B198" r:id="rId456" xr:uid="{50EE62EE-5745-48D3-BFA2-A56A27D99214}"/>
-    <hyperlink ref="B460" r:id="rId457" xr:uid="{069B6A3F-37A5-432E-8E3B-5796EA85B0D5}"/>
-    <hyperlink ref="B461" r:id="rId458" xr:uid="{4A003CAF-E9D9-4066-BB9C-B0D7745C2590}"/>
-    <hyperlink ref="B561" r:id="rId459" xr:uid="{6267FE5E-84B0-4919-A127-B6132A448C13}"/>
-    <hyperlink ref="B562" r:id="rId460" xr:uid="{6FD7735F-947E-4C3C-A4F7-CC8015B951F7}"/>
-    <hyperlink ref="B443" r:id="rId461" xr:uid="{F960342B-0999-45A2-8CCC-26D2D2F4A335}"/>
-    <hyperlink ref="B563" r:id="rId462" xr:uid="{11835747-CC00-4435-A7D2-15E71CB56C2E}"/>
+    <hyperlink ref="B200" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B202" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B204" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B206" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B207" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B208" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B209" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B210" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B213" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B214" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B215" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B216" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B217" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B218" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B219" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B220" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B221" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B222" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B223" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B224" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B225" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B226" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B227" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B228" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B229" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B230" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B231" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B232" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B233" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B234" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B235" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B236" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B237" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B238" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B239" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B242" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B243" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B244" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B245" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B246" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B247" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B248" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B249" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B250" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B251" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B252" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B253" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B254" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B255" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B256" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B257" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B258" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B259" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B260" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B261" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B262" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B263" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B266" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B267" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B268" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B269" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B270" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B271" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B272" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B273" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B274" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B275" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B276" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B277" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B278" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B279" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B280" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B281" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B282" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B283" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B284" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B285" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B286" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B287" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B288" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B289" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B290" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B291" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B292" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B293" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B294" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B295" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B296" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B297" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B298" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B299" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B300" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B317" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B318" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B319" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B320" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B321" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B322" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B323" r:id="rId257" display="Print all palindromic partitions of a string" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B325" r:id="rId258" display="Subset Sum Problem" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B326" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B327" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B328" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B329" r:id="rId262" display="Combinational Sum" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B330" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B331" r:id="rId264" display="Print all permutations of a string " xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B332" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B333" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B334" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B335" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B336" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B339" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B340" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B341" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B342" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B343" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B344" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B345" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B346" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B347" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B348" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B349" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B350" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B351" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B352" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B353" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B354" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B355" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B356" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B357" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B358" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B359" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B360" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B361" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B362" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B363" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B364" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B365" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B366" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B367" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B368" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B369" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B370" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B371" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B372" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B373" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B374" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B375" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B376" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B383" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B384" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B385" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B386" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B387" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B388" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B389" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B390" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B391" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B392" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B393" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B394" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B395" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B396" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B397" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B398" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B399" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B400" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B405" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B406" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B407" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B408" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B409" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B410" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B411" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B412" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B413" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B414" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B415" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B416" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B417" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B418" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B419" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B420" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B421" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B422" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B423" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B424" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B425" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B426" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B427" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B428" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B429" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B430" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B431" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B432" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B433" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B434" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B435" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B436" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B437" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B438" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B439" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B440" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B441" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B442" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B444" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B443" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B445" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B446" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B447" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B456" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B457" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B458" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B459" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B460" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B461" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B477" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B478" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B479" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B480" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B481" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B482" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B483" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B484" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B489" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B490" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B491" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B492" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B493" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B494" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B497" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B499" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B500" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B501" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B502" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B503" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B504" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B505" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B508" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B509" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B510" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B511" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B512" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B513" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B514" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B515" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B516" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B517" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B519" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B520" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B521" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B522" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B523" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B524" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B525" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B526" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B528" r:id="rId415" display="Count All Palindromic Subsequence in a given String" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B527" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B532" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B534" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B535" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B536" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B537" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B538" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B539" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B540" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B541" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B542" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B543" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B550" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B549" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B548" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B547" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B546" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B545" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B544" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B553" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B554" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B555" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B556" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B557" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B558" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B559" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B562" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B560" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B561" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B404" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B312" r:id="rId446" xr:uid="{E53BE2F0-AC22-43D0-BD53-D61960B98828}"/>
+    <hyperlink ref="B313" r:id="rId447" xr:uid="{E8F3B1B0-B6F1-4A92-B8C0-23AD6DE75C47}"/>
+    <hyperlink ref="B309" r:id="rId448" xr:uid="{05D37F33-406F-4F93-A25C-A905369D9C0C}"/>
+    <hyperlink ref="B307" r:id="rId449" xr:uid="{6EAC365B-70F1-4B65-8A5B-C50F8B553371}"/>
+    <hyperlink ref="B315" r:id="rId450" xr:uid="{7FE6547E-0A9F-45C2-B56D-F257159EE50E}"/>
+    <hyperlink ref="B314" r:id="rId451" xr:uid="{B1CDC9F4-B1E5-43E5-B6DC-6FAD971F94AE}"/>
+    <hyperlink ref="B311" r:id="rId452" xr:uid="{4FBECC30-01EC-434D-AEDE-94C4F9056BF5}"/>
+    <hyperlink ref="B464" r:id="rId453" xr:uid="{1EDA4193-29A4-46BF-89A2-F2BC29C9F0C0}"/>
+    <hyperlink ref="B465" r:id="rId454" xr:uid="{344B9E2D-1679-418F-A694-A3926C319D5E}"/>
+    <hyperlink ref="B466" r:id="rId455" xr:uid="{08BF6851-3952-4205-89C6-098BD03ACFE9}"/>
+    <hyperlink ref="B203" r:id="rId456" xr:uid="{50EE62EE-5745-48D3-BFA2-A56A27D99214}"/>
+    <hyperlink ref="B467" r:id="rId457" xr:uid="{069B6A3F-37A5-432E-8E3B-5796EA85B0D5}"/>
+    <hyperlink ref="B468" r:id="rId458" xr:uid="{4A003CAF-E9D9-4066-BB9C-B0D7745C2590}"/>
+    <hyperlink ref="B568" r:id="rId459" xr:uid="{6267FE5E-84B0-4919-A127-B6132A448C13}"/>
+    <hyperlink ref="B569" r:id="rId460" xr:uid="{6FD7735F-947E-4C3C-A4F7-CC8015B951F7}"/>
+    <hyperlink ref="B450" r:id="rId461" xr:uid="{F960342B-0999-45A2-8CCC-26D2D2F4A335}"/>
+    <hyperlink ref="B570" r:id="rId462" xr:uid="{11835747-CC00-4435-A7D2-15E71CB56C2E}"/>
     <hyperlink ref="B101" r:id="rId463" xr:uid="{6CAD03C6-4CF8-4609-A8CB-94588CF0601E}"/>
-    <hyperlink ref="B372" r:id="rId464" xr:uid="{A9F9A6B2-4A7A-4EA9-98C3-64EB83456E30}"/>
-    <hyperlink ref="B564" r:id="rId465" xr:uid="{6CBBE9B2-B38F-46D8-B4ED-8222A1206E1F}"/>
-    <hyperlink ref="B565" r:id="rId466" xr:uid="{D8A7A526-91A5-4590-84D6-2AFA791B5E1D}"/>
+    <hyperlink ref="B379" r:id="rId464" xr:uid="{A9F9A6B2-4A7A-4EA9-98C3-64EB83456E30}"/>
+    <hyperlink ref="B571" r:id="rId465" xr:uid="{6CBBE9B2-B38F-46D8-B4ED-8222A1206E1F}"/>
+    <hyperlink ref="B572" r:id="rId466" xr:uid="{D8A7A526-91A5-4590-84D6-2AFA791B5E1D}"/>
     <hyperlink ref="B145" r:id="rId467" xr:uid="{10F7B7EF-A77E-4D04-9927-9E8B6B48C368}"/>
     <hyperlink ref="B146" r:id="rId468" xr:uid="{5C051B0F-E90B-4812-B33B-39FB86914E36}"/>
     <hyperlink ref="B148" r:id="rId469" xr:uid="{07C00C5F-3F41-4175-913B-AB276CE52658}"/>
-    <hyperlink ref="B462" r:id="rId470" xr:uid="{66CC3629-2FD8-49F5-931C-CA5F2885B18C}"/>
-    <hyperlink ref="B463" r:id="rId471" xr:uid="{980A8CD4-4B15-436D-8001-B64FDA2B8C78}"/>
-    <hyperlink ref="B464" r:id="rId472" xr:uid="{F5F68118-82A9-4B92-9433-BE2F9EEB45DB}"/>
-    <hyperlink ref="B465" r:id="rId473" xr:uid="{45473A19-46D3-4614-B309-1B116D5817AC}"/>
-    <hyperlink ref="B478" r:id="rId474" xr:uid="{6CE71D28-5AC5-4E4F-8B26-54E16C1FEF68}"/>
-    <hyperlink ref="B479" r:id="rId475" xr:uid="{86CEF577-0E57-40FB-8226-A1B9D66313D9}"/>
-    <hyperlink ref="B480" r:id="rId476" xr:uid="{2C74544F-E912-4C5A-8F33-B5F8786E68D7}"/>
-    <hyperlink ref="B481" r:id="rId477" xr:uid="{3CD261D3-5E3C-47C1-B929-F5C8890F02B4}"/>
-    <hyperlink ref="C505" r:id="rId478" display="https://leetcode.com/problems/minimum-path-sum/" xr:uid="{CD625DD7-8859-424F-A22D-7B74CC4681B3}"/>
-    <hyperlink ref="C519" r:id="rId479" xr:uid="{DEA418C2-9318-4C58-9850-7624F99686BC}"/>
-    <hyperlink ref="B488" r:id="rId480" xr:uid="{95D4953E-76C6-4AAB-AB8E-972C09CB2BB5}"/>
-    <hyperlink ref="B511" r:id="rId481" xr:uid="{61CD9F39-5D29-4A16-9637-974268DB4501}"/>
-    <hyperlink ref="B499" r:id="rId482" xr:uid="{B85EEB96-17D8-4755-BB20-FD797CDB4CA7}"/>
-    <hyperlink ref="B500" r:id="rId483" xr:uid="{96AB5A0F-CA51-47D2-849B-F76D178C2F9B}"/>
-    <hyperlink ref="B489" r:id="rId484" xr:uid="{DDCF1F8E-F2FC-41D4-B535-43272D41EC68}"/>
+    <hyperlink ref="B469" r:id="rId470" xr:uid="{66CC3629-2FD8-49F5-931C-CA5F2885B18C}"/>
+    <hyperlink ref="B470" r:id="rId471" xr:uid="{980A8CD4-4B15-436D-8001-B64FDA2B8C78}"/>
+    <hyperlink ref="B471" r:id="rId472" xr:uid="{F5F68118-82A9-4B92-9433-BE2F9EEB45DB}"/>
+    <hyperlink ref="B472" r:id="rId473" xr:uid="{45473A19-46D3-4614-B309-1B116D5817AC}"/>
+    <hyperlink ref="B485" r:id="rId474" xr:uid="{6CE71D28-5AC5-4E4F-8B26-54E16C1FEF68}"/>
+    <hyperlink ref="B486" r:id="rId475" xr:uid="{86CEF577-0E57-40FB-8226-A1B9D66313D9}"/>
+    <hyperlink ref="B487" r:id="rId476" xr:uid="{2C74544F-E912-4C5A-8F33-B5F8786E68D7}"/>
+    <hyperlink ref="B488" r:id="rId477" xr:uid="{3CD261D3-5E3C-47C1-B929-F5C8890F02B4}"/>
+    <hyperlink ref="C512" r:id="rId478" display="https://leetcode.com/problems/minimum-path-sum/" xr:uid="{CD625DD7-8859-424F-A22D-7B74CC4681B3}"/>
+    <hyperlink ref="C526" r:id="rId479" xr:uid="{DEA418C2-9318-4C58-9850-7624F99686BC}"/>
+    <hyperlink ref="B495" r:id="rId480" xr:uid="{95D4953E-76C6-4AAB-AB8E-972C09CB2BB5}"/>
+    <hyperlink ref="B518" r:id="rId481" xr:uid="{61CD9F39-5D29-4A16-9637-974268DB4501}"/>
+    <hyperlink ref="B506" r:id="rId482" xr:uid="{B85EEB96-17D8-4755-BB20-FD797CDB4CA7}"/>
+    <hyperlink ref="B507" r:id="rId483" xr:uid="{96AB5A0F-CA51-47D2-849B-F76D178C2F9B}"/>
+    <hyperlink ref="B496" r:id="rId484" xr:uid="{DDCF1F8E-F2FC-41D4-B535-43272D41EC68}"/>
     <hyperlink ref="C156" r:id="rId485" xr:uid="{7977B9AE-11AC-4883-87F6-9FACB62A09D9}"/>
-    <hyperlink ref="B526" r:id="rId486" xr:uid="{46047BFA-0147-4E03-B637-0C3C575EB513}"/>
-    <hyperlink ref="B522" r:id="rId487" xr:uid="{1673FD3A-B06B-4547-BCFC-997AA1022EFC}"/>
-    <hyperlink ref="C521" r:id="rId488" xr:uid="{B140118B-3309-4D65-B8F2-5C81C975C3F7}"/>
-    <hyperlink ref="C522" r:id="rId489" xr:uid="{15FF0E57-3712-4FDF-8A41-69055B2B38A0}"/>
-    <hyperlink ref="B523" r:id="rId490" xr:uid="{CB49817E-3ACC-4F78-B7B5-48C49CA3A44E}"/>
-    <hyperlink ref="B524" r:id="rId491" xr:uid="{0D1E8650-55F7-4F0F-B577-FC48E4266037}"/>
-    <hyperlink ref="B491" r:id="rId492" xr:uid="{2BA62D31-D76A-42A9-83BA-3257D24DD96C}"/>
-    <hyperlink ref="B566" r:id="rId493" display="Subarray Sum divisible by K (Leetcode 560)" xr:uid="{1B448318-FB50-44D5-BEF5-B03FF97781CC}"/>
+    <hyperlink ref="B533" r:id="rId486" xr:uid="{46047BFA-0147-4E03-B637-0C3C575EB513}"/>
+    <hyperlink ref="B529" r:id="rId487" xr:uid="{1673FD3A-B06B-4547-BCFC-997AA1022EFC}"/>
+    <hyperlink ref="C528" r:id="rId488" xr:uid="{B140118B-3309-4D65-B8F2-5C81C975C3F7}"/>
+    <hyperlink ref="C529" r:id="rId489" xr:uid="{15FF0E57-3712-4FDF-8A41-69055B2B38A0}"/>
+    <hyperlink ref="B530" r:id="rId490" xr:uid="{CB49817E-3ACC-4F78-B7B5-48C49CA3A44E}"/>
+    <hyperlink ref="B531" r:id="rId491" xr:uid="{0D1E8650-55F7-4F0F-B577-FC48E4266037}"/>
+    <hyperlink ref="B498" r:id="rId492" xr:uid="{2BA62D31-D76A-42A9-83BA-3257D24DD96C}"/>
+    <hyperlink ref="B573" r:id="rId493" display="Subarray Sum divisible by K (Leetcode 560)" xr:uid="{1B448318-FB50-44D5-BEF5-B03FF97781CC}"/>
     <hyperlink ref="B147" r:id="rId494" display="Deleter Nth node from last in a linked list" xr:uid="{AD15AD9F-B62D-4AE3-87BA-1A94868D15BA}"/>
     <hyperlink ref="B159" r:id="rId495" xr:uid="{4477C72C-A754-450A-99A4-AA548069DA50}"/>
     <hyperlink ref="B162" r:id="rId496" xr:uid="{3CD126E0-9217-476D-8457-CC724E616C3E}"/>
@@ -7781,8 +7874,11 @@
     <hyperlink ref="B189" r:id="rId502" xr:uid="{B405035D-C892-4265-973C-F7BD99282FB2}"/>
     <hyperlink ref="B190" r:id="rId503" xr:uid="{3B98672F-9586-48D7-800B-49EA3320D7C3}"/>
     <hyperlink ref="B173" r:id="rId504" xr:uid="{A075EEC7-3B58-4EC7-9436-141D8F3A7648}"/>
+    <hyperlink ref="B191" r:id="rId505" xr:uid="{1481AF9F-7FEA-499F-B260-47DA3A41225F}"/>
+    <hyperlink ref="B211" r:id="rId506" xr:uid="{8772BB77-781D-4CFA-8599-E60AD6E43488}"/>
+    <hyperlink ref="B212" r:id="rId507" xr:uid="{B92462F9-169A-4A61-8F32-C6A7CA5A7EF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId505"/>
+  <pageSetup orientation="portrait" r:id="rId508"/>
 </worksheet>
 </file>
--- a/DSA_QUESTIONS.xlsx
+++ b/DSA_QUESTIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1BE088-39D6-4F53-BDE6-CBA17AC91E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AF70F2-AE5C-4A51-8BE2-5B6B43072C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="60" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="60" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA" sheetId="1" r:id="rId1"/>
@@ -5857,7 +5857,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6110,6 +6110,8 @@
     <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6430,8 +6432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
@@ -7323,7 +7325,7 @@
     </row>
     <row r="112" spans="1:4" ht="19.8">
       <c r="A112" s="2"/>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C112" s="21"/>
@@ -7331,7 +7333,7 @@
     </row>
     <row r="113" spans="1:4" ht="19.8">
       <c r="A113" s="2"/>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C113" s="21"/>
@@ -7339,7 +7341,7 @@
     </row>
     <row r="114" spans="1:4" ht="19.8">
       <c r="A114" s="2"/>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C114" s="21"/>
@@ -7347,7 +7349,7 @@
     </row>
     <row r="115" spans="1:4" ht="19.8">
       <c r="A115" s="2"/>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C115" s="21"/>
@@ -11762,8 +11764,8 @@
   </sheetPr>
   <dimension ref="B1:D435"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.75" customHeight="1"/>
@@ -13348,14 +13350,14 @@
       </c>
       <c r="C274" s="82"/>
     </row>
-    <row r="275" spans="2:3" ht="13.2">
-      <c r="B275" s="82" t="s">
+    <row r="275" spans="2:3" ht="15.6">
+      <c r="B275" s="163" t="s">
         <v>923</v>
       </c>
       <c r="C275" s="82"/>
     </row>
     <row r="276" spans="2:3" ht="13.2">
-      <c r="B276" s="82" t="s">
+      <c r="B276" s="162" t="s">
         <v>922</v>
       </c>
       <c r="C276" s="82"/>
@@ -13367,7 +13369,7 @@
       <c r="C277" s="82"/>
     </row>
     <row r="278" spans="2:3" ht="13.2">
-      <c r="B278" s="82" t="s">
+      <c r="B278" s="162" t="s">
         <v>920</v>
       </c>
       <c r="C278" s="82"/>
@@ -14579,6 +14581,7 @@
     <hyperlink ref="B435" r:id="rId354" xr:uid="{116F236C-E01B-4FDF-8FD9-991014767095}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId355"/>
 </worksheet>
 </file>
 
@@ -14590,7 +14593,7 @@
   </sheetPr>
   <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A433" workbookViewId="0">
       <selection activeCell="B547" sqref="B547"/>
     </sheetView>
   </sheetViews>
